--- a/input/PL/reg_fertility.xlsx
+++ b/input/PL/reg_fertility.xlsx
@@ -393,13 +393,13 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>0.16569704934293095</v>
+        <v>0.11150884721696985</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
       <c r="F5">
-        <v>23.540246913185531</v>
+        <v>39.040774458669247</v>
       </c>
     </row>
     <row r="6">
@@ -407,13 +407,13 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>156</v>
+        <v>9265</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
       <c r="F6">
-        <v>-87893.205584727169</v>
+        <v>-163962.76437122651</v>
       </c>
     </row>
     <row r="9">
@@ -426,13 +426,13 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>0.2313669539830181</v>
+        <v>0.13859085612920607</v>
       </c>
       <c r="E11" t="s">
         <v>20</v>
       </c>
       <c r="F11">
-        <v>2257.7059094956635</v>
+        <v>643.1930143877189</v>
       </c>
     </row>
     <row r="12">
@@ -440,13 +440,13 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>31229</v>
+        <v>44110</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
       </c>
       <c r="F12">
-        <v>-10384058.050672352</v>
+        <v>-5092839.5840642806</v>
       </c>
     </row>
   </sheetData>
@@ -489,19 +489,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.33179006873630223</v>
+        <v>-0.059797006194753761</v>
       </c>
       <c r="C2">
-        <v>0.0054919334463300502</v>
+        <v>0.0018783354760930006</v>
       </c>
       <c r="D2">
-        <v>-0.00084369484926168905</v>
+        <v>-3.9798866753353729e-05</v>
       </c>
       <c r="E2">
-        <v>0.015230278561534881</v>
+        <v>0.0055100474751470854</v>
       </c>
       <c r="F2">
-        <v>-0.12244947566894672</v>
+        <v>-0.042354706302562307</v>
       </c>
     </row>
     <row r="3">
@@ -509,19 +509,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>0.32743119862552733</v>
+        <v>-0.081558262307854998</v>
       </c>
       <c r="C3">
-        <v>-0.00084369484926168905</v>
+        <v>-3.9798866753353729e-05</v>
       </c>
       <c r="D3">
-        <v>0.022645210474559661</v>
+        <v>0.0069005029688679591</v>
       </c>
       <c r="E3">
-        <v>0.0048258546562968824</v>
+        <v>-0.0016550238678131671</v>
       </c>
       <c r="F3">
-        <v>-0.079992142777343594</v>
+        <v>-0.02971222286082012</v>
       </c>
     </row>
     <row r="4">
@@ -529,19 +529,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.92829222060965755</v>
+        <v>-1.4654535707211458</v>
       </c>
       <c r="C4">
-        <v>0.015230278561534881</v>
+        <v>0.0055100474751470854</v>
       </c>
       <c r="D4">
-        <v>0.0048258546562968824</v>
+        <v>-0.0016550238678131671</v>
       </c>
       <c r="E4">
-        <v>0.13613470397238017</v>
+        <v>0.063879336242961132</v>
       </c>
       <c r="F4">
-        <v>-0.43856592949667539</v>
+        <v>-0.15680500251570748</v>
       </c>
     </row>
     <row r="5">
@@ -549,19 +549,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>6.3030867789362519</v>
+        <v>0.15417894607589935</v>
       </c>
       <c r="C5">
-        <v>-0.12244947566894672</v>
+        <v>-0.042354706302562307</v>
       </c>
       <c r="D5">
-        <v>-0.079992142777343594</v>
+        <v>-0.02971222286082012</v>
       </c>
       <c r="E5">
-        <v>-0.43856592949667539</v>
+        <v>-0.15680500251570748</v>
       </c>
       <c r="F5">
-        <v>3.2312703396622156</v>
+        <v>1.1299639531727255</v>
       </c>
     </row>
   </sheetData>
@@ -673,88 +673,88 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.1772895060765656</v>
+        <v>0.28387986448280395</v>
       </c>
       <c r="C2">
-        <v>0.00094373185334052862</v>
+        <v>0.0014649076537756982</v>
       </c>
       <c r="D2">
-        <v>-1.3754929917009028e-05</v>
+        <v>-2.1826562466173237e-05</v>
       </c>
       <c r="E2">
-        <v>0.00022660770760027761</v>
+        <v>0.00098965250706036303</v>
       </c>
       <c r="F2">
-        <v>-0.00012514923776204938</v>
+        <v>-0.00015055020588634004</v>
       </c>
       <c r="G2">
-        <v>-0.00022086475656431237</v>
+        <v>-0.00031342526480351547</v>
       </c>
       <c r="H2">
-        <v>-0.00017759866310587766</v>
+        <v>-0.00016386311521446664</v>
       </c>
       <c r="I2">
-        <v>-0.00030782978936897212</v>
+        <v>-0.00018630262557782495</v>
       </c>
       <c r="J2">
-        <v>9.5718501289687556e-05</v>
+        <v>7.0827215930987369e-05</v>
       </c>
       <c r="K2">
-        <v>-0.00033776251951096042</v>
+        <v>0.00054762602476199351</v>
       </c>
       <c r="L2">
-        <v>-0.0001455204757142255</v>
+        <v>0.00058787416396062497</v>
       </c>
       <c r="M2">
-        <v>-0.00013418645766940032</v>
+        <v>0.00076397970474197802</v>
       </c>
       <c r="N2">
-        <v>-0.00012549063673067884</v>
+        <v>0.00076130637812285573</v>
       </c>
       <c r="O2">
-        <v>0.00015923905800654687</v>
+        <v>0.00050086543685036607</v>
       </c>
       <c r="P2">
-        <v>-0.00012725566478625095</v>
+        <v>0.00014103045986095606</v>
       </c>
       <c r="Q2">
-        <v>0.00017033365985065502</v>
+        <v>0.00026846599286999267</v>
       </c>
       <c r="R2">
-        <v>0.00043125977838775987</v>
+        <v>0.00084767201095087502</v>
       </c>
       <c r="S2">
-        <v>0.00031950201412574847</v>
+        <v>0.0015212513752939569</v>
       </c>
       <c r="T2">
-        <v>0.0011784381502844251</v>
+        <v>0.00018712331454184827</v>
       </c>
       <c r="U2">
-        <v>8.4601253407591039e-05</v>
+        <v>7.4585332871303714e-05</v>
       </c>
       <c r="V2">
-        <v>2.9969475749160469e-05</v>
+        <v>-0.00010931952386725998</v>
       </c>
       <c r="W2">
-        <v>-1.0046606073559549e-05</v>
+        <v>-0.00016779065361439451</v>
       </c>
       <c r="X2">
-        <v>-1.1448267174240037e-05</v>
+        <v>-0.00020749338459886534</v>
       </c>
       <c r="Y2">
-        <v>5.0822243920957064e-05</v>
+        <v>-9.5783296308056759e-05</v>
       </c>
       <c r="Z2">
-        <v>-3.6940901619929387e-06</v>
+        <v>8.5362652704263535e-07</v>
       </c>
       <c r="AA2">
-        <v>8.1988707809538697e-05</v>
+        <v>-4.9259695033203581e-05</v>
       </c>
       <c r="AB2">
-        <v>5.1764305704538223e-05</v>
+        <v>9.3305936429993568e-05</v>
       </c>
       <c r="AC2">
-        <v>-0.015670796306518089</v>
+        <v>-0.026581821781510223</v>
       </c>
     </row>
     <row r="3">
@@ -762,88 +762,88 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <v>-0.0039140702999591907</v>
+        <v>-0.0052318947397875393</v>
       </c>
       <c r="C3">
-        <v>-1.3754929917009028e-05</v>
+        <v>-2.1826562466173237e-05</v>
       </c>
       <c r="D3">
-        <v>2.025353554860941e-07</v>
+        <v>3.294051962192769e-07</v>
       </c>
       <c r="E3">
-        <v>-3.2473979243380095e-06</v>
+        <v>-1.402072024952184e-05</v>
       </c>
       <c r="F3">
-        <v>1.580521393994157e-06</v>
+        <v>1.9501043614814893e-06</v>
       </c>
       <c r="G3">
-        <v>2.8717355741441638e-06</v>
+        <v>4.1606147400781042e-06</v>
       </c>
       <c r="H3">
-        <v>2.0363575348587195e-06</v>
+        <v>1.7936595390042226e-06</v>
       </c>
       <c r="I3">
-        <v>4.50705888630298e-06</v>
+        <v>2.3974931834008811e-06</v>
       </c>
       <c r="J3">
-        <v>-8.6449795663100454e-07</v>
+        <v>7.0910289186440403e-09</v>
       </c>
       <c r="K3">
-        <v>5.4077330619790095e-06</v>
+        <v>-8.7791918413812598e-06</v>
       </c>
       <c r="L3">
-        <v>2.9051365229208981e-06</v>
+        <v>-8.5453232785954558e-06</v>
       </c>
       <c r="M3">
-        <v>2.8700936138116874e-06</v>
+        <v>-1.0936051530563743e-05</v>
       </c>
       <c r="N3">
-        <v>2.9423916250506665e-06</v>
+        <v>-1.0597248575747002e-05</v>
       </c>
       <c r="O3">
-        <v>-2.3196879231122085e-06</v>
+        <v>-6.6524615735850648e-06</v>
       </c>
       <c r="P3">
-        <v>2.0648056394271315e-06</v>
+        <v>-1.4936905711213989e-06</v>
       </c>
       <c r="Q3">
-        <v>-2.4744377316130657e-06</v>
+        <v>-4.1828667862402649e-06</v>
       </c>
       <c r="R3">
-        <v>-6.2344882065385079e-06</v>
+        <v>-1.2591102335744285e-05</v>
       </c>
       <c r="S3">
-        <v>-4.5369887234072905e-06</v>
+        <v>-2.3419024198750209e-05</v>
       </c>
       <c r="T3">
-        <v>-1.635635501239948e-05</v>
+        <v>-2.4593523276018924e-06</v>
       </c>
       <c r="U3">
-        <v>-1.0635174023930685e-06</v>
+        <v>-9.8889102287137563e-07</v>
       </c>
       <c r="V3">
-        <v>-4.4826500883250519e-07</v>
+        <v>1.4038163966025053e-06</v>
       </c>
       <c r="W3">
-        <v>1.2933855099403726e-07</v>
+        <v>1.9740948978502372e-06</v>
       </c>
       <c r="X3">
-        <v>2.9497453547840525e-07</v>
+        <v>3.3103499131856395e-06</v>
       </c>
       <c r="Y3">
-        <v>-7.6370069074591982e-07</v>
+        <v>1.2173127487976766e-06</v>
       </c>
       <c r="Z3">
-        <v>3.7980989990426163e-08</v>
+        <v>-2.7942615107538754e-08</v>
       </c>
       <c r="AA3">
-        <v>-1.2789257827120441e-06</v>
+        <v>5.4942115996627441e-07</v>
       </c>
       <c r="AB3">
-        <v>-8.4806409999658072e-07</v>
+        <v>-1.6267763532235848e-06</v>
       </c>
       <c r="AC3">
-        <v>0.00022530193796830764</v>
+        <v>0.00039304618260073681</v>
       </c>
     </row>
     <row r="4">
@@ -851,88 +851,88 @@
         <v>23</v>
       </c>
       <c r="B4">
-        <v>-0.094758233853499255</v>
+        <v>0.27485437668750656</v>
       </c>
       <c r="C4">
-        <v>0.00022660770760027761</v>
+        <v>0.00098965250706036303</v>
       </c>
       <c r="D4">
-        <v>-3.2473979243380095e-06</v>
+        <v>-1.402072024952184e-05</v>
       </c>
       <c r="E4">
-        <v>0.01798607805162597</v>
+        <v>0.017889044228349749</v>
       </c>
       <c r="F4">
-        <v>0.0097116331302597066</v>
+        <v>0.0092739110603623463</v>
       </c>
       <c r="G4">
-        <v>0.0096080657286861902</v>
+        <v>0.0089017275880594986</v>
       </c>
       <c r="H4">
-        <v>0.0095770504919211307</v>
+        <v>0.00881903702459726</v>
       </c>
       <c r="I4">
-        <v>-5.1975487771329244e-05</v>
+        <v>-0.00016449775555769301</v>
       </c>
       <c r="J4">
-        <v>6.0875745302905061e-05</v>
+        <v>0.00036681714086491443</v>
       </c>
       <c r="K4">
-        <v>0.00041390606627659914</v>
+        <v>-0.0013503693648889634</v>
       </c>
       <c r="L4">
-        <v>0.00052128429212823773</v>
+        <v>-0.0012006442116304179</v>
       </c>
       <c r="M4">
-        <v>0.00055360869842226504</v>
+        <v>-0.00093451495186007167</v>
       </c>
       <c r="N4">
-        <v>0.00058411009057729273</v>
+        <v>-0.00081800971583284414</v>
       </c>
       <c r="O4">
-        <v>0.00056007168880869897</v>
+        <v>-0.00017024617000773086</v>
       </c>
       <c r="P4">
-        <v>-0.00079646651552150787</v>
+        <v>0.00061492837200861894</v>
       </c>
       <c r="Q4">
-        <v>0.00014025956344849145</v>
+        <v>0.00060432022591875851</v>
       </c>
       <c r="R4">
-        <v>-0.00055471322416280602</v>
+        <v>-0.0011858169261383072</v>
       </c>
       <c r="S4">
-        <v>-5.8579650825117333e-05</v>
+        <v>0.0043965898326605857</v>
       </c>
       <c r="T4">
-        <v>0.00064191980829916796</v>
+        <v>0.001215931455939883</v>
       </c>
       <c r="U4">
-        <v>-6.9401215433057104e-05</v>
+        <v>-0.00069323190143778302</v>
       </c>
       <c r="V4">
-        <v>0.00016779042228875791</v>
+        <v>9.2835519880649152e-06</v>
       </c>
       <c r="W4">
-        <v>0.0003449572780360161</v>
+        <v>0.00025221105895489502</v>
       </c>
       <c r="X4">
-        <v>-1.6934685921109649e-05</v>
+        <v>-0.00092761560780731784</v>
       </c>
       <c r="Y4">
-        <v>0.00019868602615474742</v>
+        <v>-9.0626276028692426e-05</v>
       </c>
       <c r="Z4">
-        <v>-1.2696856808281281e-05</v>
+        <v>-3.6724811908237469e-06</v>
       </c>
       <c r="AA4">
-        <v>0.00030394861913179516</v>
+        <v>9.1980556906116895e-05</v>
       </c>
       <c r="AB4">
-        <v>0.00013708324978903459</v>
+        <v>8.3514048551858091e-05</v>
       </c>
       <c r="AC4">
-        <v>-0.01389001489799048</v>
+        <v>-0.030877821173952311</v>
       </c>
     </row>
     <row r="5">
@@ -940,88 +940,88 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>-0.07392528508619943</v>
+        <v>0.07776101250725509</v>
       </c>
       <c r="C5">
-        <v>-0.00012514923776204938</v>
+        <v>-0.00015055020588634004</v>
       </c>
       <c r="D5">
-        <v>1.580521393994157e-06</v>
+        <v>1.9501043614814893e-06</v>
       </c>
       <c r="E5">
-        <v>0.0097116331302597066</v>
+        <v>0.0092739110603623463</v>
       </c>
       <c r="F5">
-        <v>0.011269856893208604</v>
+        <v>0.012898563498831958</v>
       </c>
       <c r="G5">
-        <v>0.01069771498106949</v>
+        <v>0.011774715547872792</v>
       </c>
       <c r="H5">
-        <v>0.010789305003290521</v>
+        <v>0.011943165821362796</v>
       </c>
       <c r="I5">
-        <v>-2.5830804595585214e-05</v>
+        <v>-0.00024132439193572282</v>
       </c>
       <c r="J5">
-        <v>-6.9737995175038134e-06</v>
+        <v>-1.2691189242098125e-09</v>
       </c>
       <c r="K5">
-        <v>0.00016737346786055343</v>
+        <v>-0.0011843116875959576</v>
       </c>
       <c r="L5">
-        <v>3.4100149559447308e-05</v>
+        <v>-0.0017396147501269098</v>
       </c>
       <c r="M5">
-        <v>0.00012778084506294462</v>
+        <v>-0.0025699035223131998</v>
       </c>
       <c r="N5">
-        <v>0.00013948280526867489</v>
+        <v>-0.0022996402330799628</v>
       </c>
       <c r="O5">
-        <v>-0.00021273155709472438</v>
+        <v>-0.00054146835114656032</v>
       </c>
       <c r="P5">
-        <v>0.00090228070173788231</v>
+        <v>0.0016883641818134115</v>
       </c>
       <c r="Q5">
-        <v>-1.0947513032749857e-05</v>
+        <v>0.00010342242115176238</v>
       </c>
       <c r="R5">
-        <v>-0.00013567769259857382</v>
+        <v>-0.0013185659600472195</v>
       </c>
       <c r="S5">
-        <v>2.176750943823965e-05</v>
+        <v>0.0017626659258208385</v>
       </c>
       <c r="T5">
-        <v>0.0016586868873228891</v>
+        <v>0.0039299214269462</v>
       </c>
       <c r="U5">
-        <v>0.00037877080578471245</v>
+        <v>0.00072932150521293595</v>
       </c>
       <c r="V5">
-        <v>0.00017515184261426159</v>
+        <v>0.00019653571165257605</v>
       </c>
       <c r="W5">
-        <v>0.00027793797600072877</v>
+        <v>-8.5135240385263199e-05</v>
       </c>
       <c r="X5">
-        <v>8.7983639679808175e-05</v>
+        <v>-0.00043299378225407278</v>
       </c>
       <c r="Y5">
-        <v>0.00018951915223952489</v>
+        <v>1.2107517144898869e-08</v>
       </c>
       <c r="Z5">
-        <v>-4.0970386279642423e-06</v>
+        <v>-1.5185734535214707e-05</v>
       </c>
       <c r="AA5">
-        <v>-7.4455913643122276e-05</v>
+        <v>0.00039474743716304771</v>
       </c>
       <c r="AB5">
-        <v>0.00012261494982646493</v>
+        <v>0.00042836543361937239</v>
       </c>
       <c r="AC5">
-        <v>-0.0086721818456508871</v>
+        <v>-0.0089288239164638447</v>
       </c>
     </row>
     <row r="6">
@@ -1029,88 +1029,88 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>0.0074653810098316321</v>
+        <v>0.12443551240889555</v>
       </c>
       <c r="C6">
-        <v>-0.00022086475656431237</v>
+        <v>-0.00031342526480351547</v>
       </c>
       <c r="D6">
-        <v>2.8717355741441638e-06</v>
+        <v>4.1606147400781042e-06</v>
       </c>
       <c r="E6">
-        <v>0.0096080657286861902</v>
+        <v>0.0089017275880594986</v>
       </c>
       <c r="F6">
-        <v>0.01069771498106949</v>
+        <v>0.011774715547872792</v>
       </c>
       <c r="G6">
-        <v>0.011685649813180437</v>
+        <v>0.013400902218708325</v>
       </c>
       <c r="H6">
-        <v>0.011275058228227254</v>
+        <v>0.012699637977401923</v>
       </c>
       <c r="I6">
-        <v>6.0595039532779839e-05</v>
+        <v>5.4189995974322823e-05</v>
       </c>
       <c r="J6">
-        <v>-7.3198676939412958e-05</v>
+        <v>-0.00029842692368355268</v>
       </c>
       <c r="K6">
-        <v>0.00095641945328985012</v>
+        <v>-0.0012780430917174609</v>
       </c>
       <c r="L6">
-        <v>0.00020633829668143238</v>
+        <v>-0.0017865243125831515</v>
       </c>
       <c r="M6">
-        <v>0.00020460711818821582</v>
+        <v>-0.0023987388621185385</v>
       </c>
       <c r="N6">
-        <v>0.00027575678976278929</v>
+        <v>-0.0020840060929058425</v>
       </c>
       <c r="O6">
-        <v>-0.00018961357846892157</v>
+        <v>-0.00046233263141279019</v>
       </c>
       <c r="P6">
-        <v>0.0011295649666851985</v>
+        <v>0.0020927708181105553</v>
       </c>
       <c r="Q6">
-        <v>0.0001028194279508088</v>
+        <v>0.00028254567336814384</v>
       </c>
       <c r="R6">
-        <v>5.8884543995233016e-05</v>
+        <v>-0.0010165960014649231</v>
       </c>
       <c r="S6">
-        <v>0.00020887606071350821</v>
+        <v>0.0018816570367832458</v>
       </c>
       <c r="T6">
-        <v>0.0017524505865406917</v>
+        <v>0.0041928998471498736</v>
       </c>
       <c r="U6">
-        <v>0.00074021060805078154</v>
+        <v>0.0013933026717896538</v>
       </c>
       <c r="V6">
-        <v>0.00010129543783490218</v>
+        <v>-5.4696153608811021e-05</v>
       </c>
       <c r="W6">
-        <v>0.00031419804916189983</v>
+        <v>0.00028296053474695512</v>
       </c>
       <c r="X6">
-        <v>0.00010334697744286648</v>
+        <v>-0.00036431670063554882</v>
       </c>
       <c r="Y6">
-        <v>0.00029285679777759288</v>
+        <v>3.4444722529092611e-05</v>
       </c>
       <c r="Z6">
-        <v>4.6819646294388314e-06</v>
+        <v>1.7820299612137958e-05</v>
       </c>
       <c r="AA6">
-        <v>-2.3780526223040775e-05</v>
+        <v>0.00036617330482407204</v>
       </c>
       <c r="AB6">
-        <v>9.8481153764332953e-05</v>
+        <v>0.00019375932009186507</v>
       </c>
       <c r="AC6">
-        <v>-0.0081387626943471292</v>
+        <v>-0.0079869675090738709</v>
       </c>
     </row>
     <row r="7">
@@ -1118,88 +1118,88 @@
         <v>26</v>
       </c>
       <c r="B7">
-        <v>0.11111320040358141</v>
+        <v>0.22927841565167595</v>
       </c>
       <c r="C7">
-        <v>-0.00017759866310587766</v>
+        <v>-0.00016386311521446664</v>
       </c>
       <c r="D7">
-        <v>2.0363575348587195e-06</v>
+        <v>1.7936595390042226e-06</v>
       </c>
       <c r="E7">
-        <v>0.0095770504919211307</v>
+        <v>0.00881903702459726</v>
       </c>
       <c r="F7">
-        <v>0.010789305003290521</v>
+        <v>0.011943165821362796</v>
       </c>
       <c r="G7">
-        <v>0.011275058228227254</v>
+        <v>0.012699637977401923</v>
       </c>
       <c r="H7">
-        <v>0.012099563890341926</v>
+        <v>0.014173623659827028</v>
       </c>
       <c r="I7">
-        <v>0.00012800138854581237</v>
+        <v>0.00013150104464272811</v>
       </c>
       <c r="J7">
-        <v>-2.469501772062524e-05</v>
+        <v>-6.2816876353119781e-05</v>
       </c>
       <c r="K7">
-        <v>0.00063266544646145041</v>
+        <v>-0.0011621636941990987</v>
       </c>
       <c r="L7">
-        <v>0.00020193207924733064</v>
+        <v>-0.0012397108933634654</v>
       </c>
       <c r="M7">
-        <v>0.00021363803286963577</v>
+        <v>-0.0022223327398904346</v>
       </c>
       <c r="N7">
-        <v>0.00023081236293285038</v>
+        <v>-0.0018074731196971242</v>
       </c>
       <c r="O7">
-        <v>-0.00025268920815511462</v>
+        <v>-0.00031311148934135951</v>
       </c>
       <c r="P7">
-        <v>0.0013348822183561436</v>
+        <v>0.0024951984337197057</v>
       </c>
       <c r="Q7">
-        <v>0.00035912004239203611</v>
+        <v>0.00060711159355759752</v>
       </c>
       <c r="R7">
-        <v>0.00031859712968330825</v>
+        <v>-0.00053292448940747391</v>
       </c>
       <c r="S7">
-        <v>0.00011036155013957345</v>
+        <v>0.0017528332088267186</v>
       </c>
       <c r="T7">
-        <v>0.0017488196823416059</v>
+        <v>0.0046769439602283597</v>
       </c>
       <c r="U7">
-        <v>0.0008200732366520294</v>
+        <v>0.0015881526960655461</v>
       </c>
       <c r="V7">
-        <v>9.4387288257755369e-05</v>
+        <v>-3.4183590892255774e-05</v>
       </c>
       <c r="W7">
-        <v>0.00024551985457401141</v>
+        <v>0.00020934949812341768</v>
       </c>
       <c r="X7">
-        <v>0.00014174109116551082</v>
+        <v>-5.1645721970485685e-05</v>
       </c>
       <c r="Y7">
-        <v>0.00030666463862164949</v>
+        <v>0.00033863209155461432</v>
       </c>
       <c r="Z7">
-        <v>9.5709097721351547e-06</v>
+        <v>6.9181985879397908e-06</v>
       </c>
       <c r="AA7">
-        <v>2.7193973335930093e-05</v>
+        <v>0.00037728297854022904</v>
       </c>
       <c r="AB7">
-        <v>0.00012499447720475251</v>
+        <v>0.00028374192130874664</v>
       </c>
       <c r="AC7">
-        <v>-0.0090601617916859674</v>
+        <v>-0.011161128953755775</v>
       </c>
     </row>
     <row r="8">
@@ -1207,88 +1207,88 @@
         <v>27</v>
       </c>
       <c r="B8">
-        <v>-0.41434834745423416</v>
+        <v>-0.14702456517083287</v>
       </c>
       <c r="C8">
-        <v>-0.00030782978936897212</v>
+        <v>-0.00018630262557782495</v>
       </c>
       <c r="D8">
-        <v>4.50705888630298e-06</v>
+        <v>2.3974931834008811e-06</v>
       </c>
       <c r="E8">
-        <v>-5.1975487771329244e-05</v>
+        <v>-0.00016449775555769301</v>
       </c>
       <c r="F8">
-        <v>-2.5830804595585214e-05</v>
+        <v>-0.00024132439193572282</v>
       </c>
       <c r="G8">
-        <v>6.0595039532779839e-05</v>
+        <v>5.4189995974322823e-05</v>
       </c>
       <c r="H8">
-        <v>0.00012800138854581237</v>
+        <v>0.00013150104464272811</v>
       </c>
       <c r="I8">
-        <v>0.00065921494911758605</v>
+        <v>0.00068562149351032589</v>
       </c>
       <c r="J8">
-        <v>-0.00018137011806732049</v>
+        <v>-0.00051024198668347422</v>
       </c>
       <c r="K8">
-        <v>0.00048935357907502349</v>
+        <v>-8.5298936598266536e-05</v>
       </c>
       <c r="L8">
-        <v>6.6924666994127137e-06</v>
+        <v>-0.00010221601861196898</v>
       </c>
       <c r="M8">
-        <v>6.0760490520426341e-06</v>
+        <v>-0.00011987728975036368</v>
       </c>
       <c r="N8">
-        <v>7.6537531142665768e-06</v>
+        <v>-0.00014102580857388572</v>
       </c>
       <c r="O8">
-        <v>-0.00026196481330822204</v>
+        <v>-4.3477745673675696e-05</v>
       </c>
       <c r="P8">
-        <v>0.00039316773576002499</v>
+        <v>0.00049285400163280894</v>
       </c>
       <c r="Q8">
-        <v>1.015527214509358e-05</v>
+        <v>-8.6565154103473426e-05</v>
       </c>
       <c r="R8">
-        <v>-0.00012091800512632587</v>
+        <v>-0.00019222955637899974</v>
       </c>
       <c r="S8">
-        <v>-9.0634550841035355e-05</v>
+        <v>-0.0003453868870761552</v>
       </c>
       <c r="T8">
-        <v>-0.00023781718176485184</v>
+        <v>0.00012370298651681881</v>
       </c>
       <c r="U8">
-        <v>-5.3765881710503678e-05</v>
+        <v>1.8172215799813838e-05</v>
       </c>
       <c r="V8">
-        <v>1.7689315421452994e-05</v>
+        <v>-3.124552698438004e-05</v>
       </c>
       <c r="W8">
-        <v>8.8729430552900634e-05</v>
+        <v>0.00031000778825520867</v>
       </c>
       <c r="X8">
-        <v>4.2678695659195058e-05</v>
+        <v>3.720365216214135e-05</v>
       </c>
       <c r="Y8">
-        <v>3.4958723888818381e-05</v>
+        <v>1.5159221627809931e-05</v>
       </c>
       <c r="Z8">
-        <v>-1.6768664598856132e-06</v>
+        <v>1.2119011141460935e-05</v>
       </c>
       <c r="AA8">
-        <v>-3.2725626694427685e-05</v>
+        <v>-2.4178552088682413e-06</v>
       </c>
       <c r="AB8">
-        <v>-6.3634645776492632e-05</v>
+        <v>-0.00014987247541165845</v>
       </c>
       <c r="AC8">
-        <v>0.0044120947723908094</v>
+        <v>0.0032158713367480985</v>
       </c>
     </row>
     <row r="9">
@@ -1296,88 +1296,88 @@
         <v>28</v>
       </c>
       <c r="B9">
-        <v>0.56115760401394765</v>
+        <v>0.02432567914559744</v>
       </c>
       <c r="C9">
-        <v>9.5718501289687556e-05</v>
+        <v>7.0827215930987369e-05</v>
       </c>
       <c r="D9">
-        <v>-8.6449795663100454e-07</v>
+        <v>7.0910289186440403e-09</v>
       </c>
       <c r="E9">
-        <v>6.0875745302905061e-05</v>
+        <v>0.00036681714086491443</v>
       </c>
       <c r="F9">
-        <v>-6.9737995175038134e-06</v>
+        <v>-1.2691189242098125e-09</v>
       </c>
       <c r="G9">
-        <v>-7.3198676939412958e-05</v>
+        <v>-0.00029842692368355268</v>
       </c>
       <c r="H9">
-        <v>-2.469501772062524e-05</v>
+        <v>-6.2816876353119781e-05</v>
       </c>
       <c r="I9">
-        <v>-0.00018137011806732049</v>
+        <v>-0.00051024198668347422</v>
       </c>
       <c r="J9">
-        <v>0.00098739410621244764</v>
+        <v>0.0023968932351556243</v>
       </c>
       <c r="K9">
-        <v>-0.0002477557721409587</v>
+        <v>0.00015377244837634079</v>
       </c>
       <c r="L9">
-        <v>7.7922318583353942e-05</v>
+        <v>-2.966048351620251e-05</v>
       </c>
       <c r="M9">
-        <v>4.1642961350220721e-06</v>
+        <v>-0.00024609829298388936</v>
       </c>
       <c r="N9">
-        <v>1.7926519997176209e-05</v>
+        <v>2.3882946446310158e-05</v>
       </c>
       <c r="O9">
-        <v>4.0688957073318479e-05</v>
+        <v>0.0002968454080863045</v>
       </c>
       <c r="P9">
-        <v>0.0001082154612680789</v>
+        <v>0.00020602830014067682</v>
       </c>
       <c r="Q9">
-        <v>0.00013616524295682113</v>
+        <v>0.00016829138311687985</v>
       </c>
       <c r="R9">
-        <v>0.0002268324457419813</v>
+        <v>7.0395647860724844e-05</v>
       </c>
       <c r="S9">
-        <v>2.914937972505827e-05</v>
+        <v>-0.00022966708173082051</v>
       </c>
       <c r="T9">
-        <v>-2.4621170688261004e-05</v>
+        <v>-0.0001870106829451459</v>
       </c>
       <c r="U9">
-        <v>-0.0001618930834425804</v>
+        <v>-0.0004074073055186549</v>
       </c>
       <c r="V9">
-        <v>-2.7413302937832185e-05</v>
+        <v>-9.0280219900549738e-05</v>
       </c>
       <c r="W9">
-        <v>-8.995369150410014e-05</v>
+        <v>-0.00033838495811495359</v>
       </c>
       <c r="X9">
-        <v>4.6776316092939686e-05</v>
+        <v>8.6441380980598016e-05</v>
       </c>
       <c r="Y9">
-        <v>-2.6636341271878887e-05</v>
+        <v>-6.2290560972440451e-06</v>
       </c>
       <c r="Z9">
-        <v>-1.6564472190534827e-08</v>
+        <v>-1.1242467641557946e-05</v>
       </c>
       <c r="AA9">
-        <v>-3.7024807566542341e-05</v>
+        <v>-0.00026730556081676463</v>
       </c>
       <c r="AB9">
-        <v>-3.7603938247109982e-05</v>
+        <v>-1.0189908231004903e-05</v>
       </c>
       <c r="AC9">
-        <v>-0.0023637817645459219</v>
+        <v>-0.0015769681521740052</v>
       </c>
     </row>
     <row r="10">
@@ -1385,88 +1385,88 @@
         <v>29</v>
       </c>
       <c r="B10">
-        <v>-0.48697546751575443</v>
+        <v>0.29978918518453052</v>
       </c>
       <c r="C10">
-        <v>-0.00033776251951096042</v>
+        <v>0.00054762602476199351</v>
       </c>
       <c r="D10">
-        <v>5.4077330619790095e-06</v>
+        <v>-8.7791918413812598e-06</v>
       </c>
       <c r="E10">
-        <v>0.00041390606627659914</v>
+        <v>-0.0013503693648889634</v>
       </c>
       <c r="F10">
-        <v>0.00016737346786055343</v>
+        <v>-0.0011843116875959576</v>
       </c>
       <c r="G10">
-        <v>0.00095641945328985012</v>
+        <v>-0.0012780430917174609</v>
       </c>
       <c r="H10">
-        <v>0.00063266544646145041</v>
+        <v>-0.0011621636941990987</v>
       </c>
       <c r="I10">
-        <v>0.00048935357907502349</v>
+        <v>-8.5298936598266536e-05</v>
       </c>
       <c r="J10">
-        <v>-0.0002477557721409587</v>
+        <v>0.00015377244837634079</v>
       </c>
       <c r="K10">
-        <v>0.11006806166926442</v>
+        <v>0.14878525230236933</v>
       </c>
       <c r="L10">
-        <v>0.086608701353985837</v>
+        <v>0.1262797045872403</v>
       </c>
       <c r="M10">
-        <v>0.08662061233383736</v>
+        <v>0.12627746996785377</v>
       </c>
       <c r="N10">
-        <v>0.086704112912926734</v>
+        <v>0.1262210439896152</v>
       </c>
       <c r="O10">
-        <v>-0.00028653035780819985</v>
+        <v>0.0012371701216571038</v>
       </c>
       <c r="P10">
-        <v>0.00021303637969673911</v>
+        <v>-0.00051497696866262266</v>
       </c>
       <c r="Q10">
-        <v>0.0002274365754742312</v>
+        <v>8.6454305356892247e-05</v>
       </c>
       <c r="R10">
-        <v>5.2727775733592622e-05</v>
+        <v>0.00093263733608679733</v>
       </c>
       <c r="S10">
-        <v>-0.0013078263386511052</v>
+        <v>0.0051110052186748578</v>
       </c>
       <c r="T10">
-        <v>-0.00010901108506595342</v>
+        <v>2.4624103375739392e-05</v>
       </c>
       <c r="U10">
-        <v>-9.7973286282143288e-05</v>
+        <v>-0.00027062029351077044</v>
       </c>
       <c r="V10">
-        <v>-0.00064167839363934824</v>
+        <v>-0.00045314119652785367</v>
       </c>
       <c r="W10">
-        <v>-0.00040460442945049321</v>
+        <v>-0.00076813540028408678</v>
       </c>
       <c r="X10">
-        <v>-0.00054022938406017313</v>
+        <v>-0.00035993191881951089</v>
       </c>
       <c r="Y10">
-        <v>7.1636566474757649e-05</v>
+        <v>0.00017545854592776119</v>
       </c>
       <c r="Z10">
-        <v>7.5149514474309557e-06</v>
+        <v>4.1216974838299662e-05</v>
       </c>
       <c r="AA10">
-        <v>0.00075202456019921038</v>
+        <v>-0.0010709235954042481</v>
       </c>
       <c r="AB10">
-        <v>-9.428328499225952e-05</v>
+        <v>-0.0003151141600617885</v>
       </c>
       <c r="AC10">
-        <v>-0.080962553467115894</v>
+        <v>-0.14082185775430212</v>
       </c>
     </row>
     <row r="11">
@@ -1474,88 +1474,88 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>-0.51444771484321761</v>
+        <v>0.14334780434830011</v>
       </c>
       <c r="C11">
-        <v>-0.0001455204757142255</v>
+        <v>0.00058787416396062497</v>
       </c>
       <c r="D11">
-        <v>2.9051365229208981e-06</v>
+        <v>-8.5453232785954558e-06</v>
       </c>
       <c r="E11">
-        <v>0.00052128429212823773</v>
+        <v>-0.0012006442116304179</v>
       </c>
       <c r="F11">
-        <v>3.4100149559447308e-05</v>
+        <v>-0.0017396147501269098</v>
       </c>
       <c r="G11">
-        <v>0.00020633829668143238</v>
+        <v>-0.0017865243125831515</v>
       </c>
       <c r="H11">
-        <v>0.00020193207924733064</v>
+        <v>-0.0012397108933634654</v>
       </c>
       <c r="I11">
-        <v>6.6924666994127137e-06</v>
+        <v>-0.00010221601861196898</v>
       </c>
       <c r="J11">
-        <v>7.7922318583353942e-05</v>
+        <v>-2.966048351620251e-05</v>
       </c>
       <c r="K11">
-        <v>0.086608701353985837</v>
+        <v>0.1262797045872403</v>
       </c>
       <c r="L11">
-        <v>0.089094533690237857</v>
+        <v>0.13226349990505132</v>
       </c>
       <c r="M11">
-        <v>0.086997373675793813</v>
+        <v>0.12734840052811591</v>
       </c>
       <c r="N11">
-        <v>0.087046966113851293</v>
+        <v>0.12726634376422558</v>
       </c>
       <c r="O11">
-        <v>7.1196789971812724e-05</v>
+        <v>0.0016028744077527732</v>
       </c>
       <c r="P11">
-        <v>-5.6535391255038703e-05</v>
+        <v>-0.00014517843362927066</v>
       </c>
       <c r="Q11">
-        <v>4.9252631094398645e-05</v>
+        <v>0.00029864524192638187</v>
       </c>
       <c r="R11">
-        <v>0.00027501324394475259</v>
+        <v>0.0022401781512602671</v>
       </c>
       <c r="S11">
-        <v>-7.4270480091218061e-05</v>
+        <v>0.0019126615935152746</v>
       </c>
       <c r="T11">
-        <v>0.00021102454189259393</v>
+        <v>0.00071868912085584769</v>
       </c>
       <c r="U11">
-        <v>0.00039065038666145392</v>
+        <v>0.00040237242024901421</v>
       </c>
       <c r="V11">
-        <v>-0.00029471611362746376</v>
+        <v>-8.2422828396095174e-05</v>
       </c>
       <c r="W11">
-        <v>-0.00021146983959971976</v>
+        <v>-0.00043981388817135314</v>
       </c>
       <c r="X11">
-        <v>-8.3604944716209918e-05</v>
+        <v>-0.00022705183973435045</v>
       </c>
       <c r="Y11">
-        <v>-4.4495661267036218e-05</v>
+        <v>0.00029397156413812908</v>
       </c>
       <c r="Z11">
-        <v>-1.7333457508594396e-05</v>
+        <v>1.7836731080820688e-05</v>
       </c>
       <c r="AA11">
-        <v>-5.3454379992268208e-05</v>
+        <v>-0.00063525137764738893</v>
       </c>
       <c r="AB11">
-        <v>2.3444728298446793e-05</v>
+        <v>-5.4796408534008023e-05</v>
       </c>
       <c r="AC11">
-        <v>-0.085313279953101784</v>
+        <v>-0.13898798975218485</v>
       </c>
     </row>
     <row r="12">
@@ -1563,88 +1563,88 @@
         <v>31</v>
       </c>
       <c r="B12">
-        <v>-0.37655851831220843</v>
+        <v>0.3791865406118084</v>
       </c>
       <c r="C12">
-        <v>-0.00013418645766940032</v>
+        <v>0.00076397970474197802</v>
       </c>
       <c r="D12">
-        <v>2.8700936138116874e-06</v>
+        <v>-1.0936051530563743e-05</v>
       </c>
       <c r="E12">
-        <v>0.00055360869842226504</v>
+        <v>-0.00093451495186007167</v>
       </c>
       <c r="F12">
-        <v>0.00012778084506294462</v>
+        <v>-0.0025699035223131998</v>
       </c>
       <c r="G12">
-        <v>0.00020460711818821582</v>
+        <v>-0.0023987388621185385</v>
       </c>
       <c r="H12">
-        <v>0.00021363803286963577</v>
+        <v>-0.0022223327398904346</v>
       </c>
       <c r="I12">
-        <v>6.0760490520426341e-06</v>
+        <v>-0.00011987728975036368</v>
       </c>
       <c r="J12">
-        <v>4.1642961350220721e-06</v>
+        <v>-0.00024609829298388936</v>
       </c>
       <c r="K12">
-        <v>0.08662061233383736</v>
+        <v>0.12627746996785377</v>
       </c>
       <c r="L12">
-        <v>0.086997373675793813</v>
+        <v>0.12734840052811591</v>
       </c>
       <c r="M12">
-        <v>0.087442507207063758</v>
+        <v>0.128175449843621</v>
       </c>
       <c r="N12">
-        <v>0.087214530467244894</v>
+        <v>0.12759341343856401</v>
       </c>
       <c r="O12">
-        <v>0.00028630095703375408</v>
+        <v>0.0017482600376535692</v>
       </c>
       <c r="P12">
-        <v>-0.00018573340117761933</v>
+        <v>-0.00042585017910172496</v>
       </c>
       <c r="Q12">
-        <v>0.0001229388262196442</v>
+        <v>6.5166278120608323e-05</v>
       </c>
       <c r="R12">
-        <v>0.0004121977626321896</v>
+        <v>0.0024475013127582268</v>
       </c>
       <c r="S12">
-        <v>0.00011969576637224644</v>
+        <v>0.0015848189159987647</v>
       </c>
       <c r="T12">
-        <v>0.00011841978494855562</v>
+        <v>-0.00043143290529648604</v>
       </c>
       <c r="U12">
-        <v>0.00042029769139508705</v>
+        <v>0.00065124228423386887</v>
       </c>
       <c r="V12">
-        <v>-0.00039469441011506096</v>
+        <v>-9.8587365564893267e-05</v>
       </c>
       <c r="W12">
-        <v>-6.0105028571656293e-05</v>
+        <v>2.5481118731490726e-05</v>
       </c>
       <c r="X12">
-        <v>-8.6293524462699271e-05</v>
+        <v>8.7433953270623505e-05</v>
       </c>
       <c r="Y12">
-        <v>-2.155665109544562e-05</v>
+        <v>0.0002045429162583802</v>
       </c>
       <c r="Z12">
-        <v>-2.5714121489940536e-05</v>
+        <v>9.0785775024894433e-06</v>
       </c>
       <c r="AA12">
-        <v>-9.4175574916671723e-05</v>
+        <v>-0.00072023990768568802</v>
       </c>
       <c r="AB12">
-        <v>5.2468702178322391e-05</v>
+        <v>-0.00020933975722056686</v>
       </c>
       <c r="AC12">
-        <v>-0.085972941022073757</v>
+        <v>-0.14091921925639195</v>
       </c>
     </row>
     <row r="13">
@@ -1652,88 +1652,88 @@
         <v>32</v>
       </c>
       <c r="B13">
-        <v>-0.42676731855602068</v>
+        <v>0.31101733833790224</v>
       </c>
       <c r="C13">
-        <v>-0.00012549063673067884</v>
+        <v>0.00076130637812285573</v>
       </c>
       <c r="D13">
-        <v>2.9423916250506665e-06</v>
+        <v>-1.0597248575747002e-05</v>
       </c>
       <c r="E13">
-        <v>0.00058411009057729273</v>
+        <v>-0.00081800971583284414</v>
       </c>
       <c r="F13">
-        <v>0.00013948280526867489</v>
+        <v>-0.0022996402330799628</v>
       </c>
       <c r="G13">
-        <v>0.00027575678976278929</v>
+        <v>-0.0020840060929058425</v>
       </c>
       <c r="H13">
-        <v>0.00023081236293285038</v>
+        <v>-0.0018074731196971242</v>
       </c>
       <c r="I13">
-        <v>7.6537531142665768e-06</v>
+        <v>-0.00014102580857388572</v>
       </c>
       <c r="J13">
-        <v>1.7926519997176209e-05</v>
+        <v>2.3882946446310158e-05</v>
       </c>
       <c r="K13">
-        <v>0.086704112912926734</v>
+        <v>0.1262210439896152</v>
       </c>
       <c r="L13">
-        <v>0.087046966113851293</v>
+        <v>0.12726634376422558</v>
       </c>
       <c r="M13">
-        <v>0.087214530467244894</v>
+        <v>0.12759341343856401</v>
       </c>
       <c r="N13">
-        <v>0.088072364445808404</v>
+        <v>0.12883164226109761</v>
       </c>
       <c r="O13">
-        <v>0.00033807275061803477</v>
+        <v>0.0015978592332549155</v>
       </c>
       <c r="P13">
-        <v>-0.00022979900314829688</v>
+        <v>-0.0002380660835264968</v>
       </c>
       <c r="Q13">
-        <v>0.0001603995079010053</v>
+        <v>0.00015840791130154047</v>
       </c>
       <c r="R13">
-        <v>0.0005579807847003581</v>
+        <v>0.0025454591348577811</v>
       </c>
       <c r="S13">
-        <v>0.00020110534952773318</v>
+        <v>0.0013050014698242629</v>
       </c>
       <c r="T13">
-        <v>0.0001478540024353811</v>
+        <v>1.4318627845164023e-05</v>
       </c>
       <c r="U13">
-        <v>0.00045306902023128579</v>
+        <v>0.00076369801522730568</v>
       </c>
       <c r="V13">
-        <v>-0.00035936210616336305</v>
+        <v>7.2219692276059497e-05</v>
       </c>
       <c r="W13">
-        <v>-5.7626994911464703e-05</v>
+        <v>-8.3678680775162162e-05</v>
       </c>
       <c r="X13">
-        <v>-0.00010741054134506128</v>
+        <v>0.00014259695786479273</v>
       </c>
       <c r="Y13">
-        <v>2.5671307990879008e-05</v>
+        <v>0.00045594261041070894</v>
       </c>
       <c r="Z13">
-        <v>-2.3893254533901859e-05</v>
+        <v>2.305507297654507e-05</v>
       </c>
       <c r="AA13">
-        <v>-0.0001242902224120393</v>
+        <v>-0.00094611015660350795</v>
       </c>
       <c r="AB13">
-        <v>6.5112069472232637e-05</v>
+        <v>-0.00034661140093940335</v>
       </c>
       <c r="AC13">
-        <v>-0.086662125074998875</v>
+        <v>-0.14155238417927318</v>
       </c>
     </row>
     <row r="14">
@@ -1741,88 +1741,88 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>-0.96894475438312355</v>
+        <v>-1.297702506260999</v>
       </c>
       <c r="C14">
-        <v>0.00015923905800654687</v>
+        <v>0.00050086543685036607</v>
       </c>
       <c r="D14">
-        <v>-2.3196879231122085e-06</v>
+        <v>-6.6524615735850648e-06</v>
       </c>
       <c r="E14">
-        <v>0.00056007168880869897</v>
+        <v>-0.00017024617000773086</v>
       </c>
       <c r="F14">
-        <v>-0.00021273155709472438</v>
+        <v>-0.00054146835114656032</v>
       </c>
       <c r="G14">
-        <v>-0.00018961357846892157</v>
+        <v>-0.00046233263141279019</v>
       </c>
       <c r="H14">
-        <v>-0.00025268920815511462</v>
+        <v>-0.00031311148934135951</v>
       </c>
       <c r="I14">
-        <v>-0.00026196481330822204</v>
+        <v>-4.3477745673675696e-05</v>
       </c>
       <c r="J14">
-        <v>4.0688957073318479e-05</v>
+        <v>0.0002968454080863045</v>
       </c>
       <c r="K14">
-        <v>-0.00028653035780819985</v>
+        <v>0.0012371701216571038</v>
       </c>
       <c r="L14">
-        <v>7.1196789971812724e-05</v>
+        <v>0.0016028744077527732</v>
       </c>
       <c r="M14">
-        <v>0.00028630095703375408</v>
+        <v>0.0017482600376535692</v>
       </c>
       <c r="N14">
-        <v>0.00033807275061803477</v>
+        <v>0.0015978592332549155</v>
       </c>
       <c r="O14">
-        <v>0.014257260137193048</v>
+        <v>0.011341641608857455</v>
       </c>
       <c r="P14">
-        <v>-0.012312944861937311</v>
+        <v>-0.0084587239804325125</v>
       </c>
       <c r="Q14">
-        <v>-6.5078287719314075e-05</v>
+        <v>-6.4008380267381116e-06</v>
       </c>
       <c r="R14">
-        <v>0.00016981926830500222</v>
+        <v>-6.7116684061735465e-05</v>
       </c>
       <c r="S14">
-        <v>0.001261251912150008</v>
+        <v>0.00046080403123429335</v>
       </c>
       <c r="T14">
-        <v>0.00022765440935173663</v>
+        <v>-9.2511191733556531e-05</v>
       </c>
       <c r="U14">
-        <v>0.00027408808696135318</v>
+        <v>0.0004510368710195895</v>
       </c>
       <c r="V14">
-        <v>-0.00010659143499469864</v>
+        <v>-2.6041585357317119e-05</v>
       </c>
       <c r="W14">
-        <v>0.00033182568200713013</v>
+        <v>0.00017260599155943844</v>
       </c>
       <c r="X14">
-        <v>0.00018421668035560027</v>
+        <v>0.0003035130908006883</v>
       </c>
       <c r="Y14">
-        <v>-3.4032717784683472e-05</v>
+        <v>2.5603008474586286e-05</v>
       </c>
       <c r="Z14">
-        <v>-8.1289514845034105e-06</v>
+        <v>-5.9054300137749703e-05</v>
       </c>
       <c r="AA14">
-        <v>2.7156574515457339e-05</v>
+        <v>0.0003227638159201021</v>
       </c>
       <c r="AB14">
-        <v>3.5484538812480975e-05</v>
+        <v>-0.00012529107610952323</v>
       </c>
       <c r="AC14">
-        <v>-0.004049955884037065</v>
+        <v>-0.010260595912511751</v>
       </c>
     </row>
     <row r="15">
@@ -1830,88 +1830,88 @@
         <v>33</v>
       </c>
       <c r="B15">
-        <v>0.7261410657150178</v>
+        <v>0.35242305050949957</v>
       </c>
       <c r="C15">
-        <v>-0.00012725566478625095</v>
+        <v>0.00014103045986095606</v>
       </c>
       <c r="D15">
-        <v>2.0648056394271315e-06</v>
+        <v>-1.4936905711213989e-06</v>
       </c>
       <c r="E15">
-        <v>-0.00079646651552150787</v>
+        <v>0.00061492837200861894</v>
       </c>
       <c r="F15">
-        <v>0.00090228070173788231</v>
+        <v>0.0016883641818134115</v>
       </c>
       <c r="G15">
-        <v>0.0011295649666851985</v>
+        <v>0.0020927708181105553</v>
       </c>
       <c r="H15">
-        <v>0.0013348822183561436</v>
+        <v>0.0024951984337197057</v>
       </c>
       <c r="I15">
-        <v>0.00039316773576002499</v>
+        <v>0.00049285400163280894</v>
       </c>
       <c r="J15">
-        <v>0.0001082154612680789</v>
+        <v>0.00020602830014067682</v>
       </c>
       <c r="K15">
-        <v>0.00021303637969673911</v>
+        <v>-0.00051497696866262266</v>
       </c>
       <c r="L15">
-        <v>-5.6535391255038703e-05</v>
+        <v>-0.00014517843362927066</v>
       </c>
       <c r="M15">
-        <v>-0.00018573340117761933</v>
+        <v>-0.00042585017910172496</v>
       </c>
       <c r="N15">
-        <v>-0.00022979900314829688</v>
+        <v>-0.0002380660835264968</v>
       </c>
       <c r="O15">
-        <v>-0.012312944861937311</v>
+        <v>-0.0084587239804325125</v>
       </c>
       <c r="P15">
-        <v>0.012830868741171311</v>
+        <v>0.010502439656286409</v>
       </c>
       <c r="Q15">
-        <v>4.7256429382299765e-05</v>
+        <v>3.7413476630052296e-05</v>
       </c>
       <c r="R15">
-        <v>-0.00021586089606339336</v>
+        <v>0.00052228725405484733</v>
       </c>
       <c r="S15">
-        <v>-0.0013236063742519655</v>
+        <v>-0.00099378779694981462</v>
       </c>
       <c r="T15">
-        <v>-0.00050668308860898881</v>
+        <v>0.00048713695555915989</v>
       </c>
       <c r="U15">
-        <v>5.5329610187552787e-05</v>
+        <v>0.0002057063968338479</v>
       </c>
       <c r="V15">
-        <v>5.7076812325804476e-05</v>
+        <v>-0.00031875690508267022</v>
       </c>
       <c r="W15">
-        <v>-0.00018505233887923972</v>
+        <v>-0.00010875086796444469</v>
       </c>
       <c r="X15">
-        <v>-5.8445374251139397e-05</v>
+        <v>-0.00020011545726545795</v>
       </c>
       <c r="Y15">
-        <v>5.4601443437271374e-05</v>
+        <v>-0.00034754319716253404</v>
       </c>
       <c r="Z15">
-        <v>5.8788613144029113e-06</v>
+        <v>3.1594869106409239e-05</v>
       </c>
       <c r="AA15">
-        <v>-3.8478346673947246e-05</v>
+        <v>-9.6966780671250388e-05</v>
       </c>
       <c r="AB15">
-        <v>-7.0043522020661825e-05</v>
+        <v>-6.2989349895140479e-06</v>
       </c>
       <c r="AC15">
-        <v>0.0018283479883455757</v>
+        <v>-0.004872070795237049</v>
       </c>
     </row>
     <row r="16">
@@ -1919,88 +1919,88 @@
         <v>34</v>
       </c>
       <c r="B16">
-        <v>-0.13170411086302505</v>
+        <v>0.024479067656800673</v>
       </c>
       <c r="C16">
-        <v>0.00017033365985065502</v>
+        <v>0.00026846599286999267</v>
       </c>
       <c r="D16">
-        <v>-2.4744377316130657e-06</v>
+        <v>-4.1828667862402649e-06</v>
       </c>
       <c r="E16">
-        <v>0.00014025956344849145</v>
+        <v>0.00060432022591875851</v>
       </c>
       <c r="F16">
-        <v>-1.0947513032749857e-05</v>
+        <v>0.00010342242115176238</v>
       </c>
       <c r="G16">
-        <v>0.0001028194279508088</v>
+        <v>0.00028254567336814384</v>
       </c>
       <c r="H16">
-        <v>0.00035912004239203611</v>
+        <v>0.00060711159355759752</v>
       </c>
       <c r="I16">
-        <v>1.015527214509358e-05</v>
+        <v>-8.6565154103473426e-05</v>
       </c>
       <c r="J16">
-        <v>0.00013616524295682113</v>
+        <v>0.00016829138311687985</v>
       </c>
       <c r="K16">
-        <v>0.0002274365754742312</v>
+        <v>8.6454305356892247e-05</v>
       </c>
       <c r="L16">
-        <v>4.9252631094398645e-05</v>
+        <v>0.00029864524192638187</v>
       </c>
       <c r="M16">
-        <v>0.0001229388262196442</v>
+        <v>6.5166278120608323e-05</v>
       </c>
       <c r="N16">
-        <v>0.0001603995079010053</v>
+        <v>0.00015840791130154047</v>
       </c>
       <c r="O16">
-        <v>-6.5078287719314075e-05</v>
+        <v>-6.4008380267381116e-06</v>
       </c>
       <c r="P16">
-        <v>4.7256429382299765e-05</v>
+        <v>3.7413476630052296e-05</v>
       </c>
       <c r="Q16">
-        <v>0.0010325371224923468</v>
+        <v>0.0016390019000964734</v>
       </c>
       <c r="R16">
-        <v>0.00077168261585285991</v>
+        <v>0.0011565872815573867</v>
       </c>
       <c r="S16">
-        <v>0.000114329295565355</v>
+        <v>0.00056130754983445622</v>
       </c>
       <c r="T16">
-        <v>0.00015567178504724121</v>
+        <v>0.0003064591402717632</v>
       </c>
       <c r="U16">
-        <v>-0.0001383988710576326</v>
+        <v>-0.0002135390395821203</v>
       </c>
       <c r="V16">
-        <v>-8.6822599494086931e-05</v>
+        <v>-0.00013241052120666221</v>
       </c>
       <c r="W16">
-        <v>-1.2133730386498692e-05</v>
+        <v>3.5439040595712946e-06</v>
       </c>
       <c r="X16">
-        <v>9.0602694596617485e-06</v>
+        <v>1.8139032086508333e-05</v>
       </c>
       <c r="Y16">
-        <v>7.9771436354976477e-05</v>
+        <v>0.00017558366586851391</v>
       </c>
       <c r="Z16">
-        <v>1.2085257045868481e-05</v>
+        <v>1.7683541754717469e-05</v>
       </c>
       <c r="AA16">
-        <v>9.3198944232942443e-05</v>
+        <v>-0.00014323844702679716</v>
       </c>
       <c r="AB16">
-        <v>-2.8926811313967262e-06</v>
+        <v>-5.6475426833049215e-05</v>
       </c>
       <c r="AC16">
-        <v>-0.0041074587426473182</v>
+        <v>-0.00651936230620178</v>
       </c>
     </row>
     <row r="17">
@@ -2008,88 +2008,88 @@
         <v>35</v>
       </c>
       <c r="B17">
-        <v>0.058664696052039909</v>
+        <v>0.10750666611900848</v>
       </c>
       <c r="C17">
-        <v>0.00043125977838775987</v>
+        <v>0.00084767201095087502</v>
       </c>
       <c r="D17">
-        <v>-6.2344882065385079e-06</v>
+        <v>-1.2591102335744285e-05</v>
       </c>
       <c r="E17">
-        <v>-0.00055471322416280602</v>
+        <v>-0.0011858169261383072</v>
       </c>
       <c r="F17">
-        <v>-0.00013567769259857382</v>
+        <v>-0.0013185659600472195</v>
       </c>
       <c r="G17">
-        <v>5.8884543995233016e-05</v>
+        <v>-0.0010165960014649231</v>
       </c>
       <c r="H17">
-        <v>0.00031859712968330825</v>
+        <v>-0.00053292448940747391</v>
       </c>
       <c r="I17">
-        <v>-0.00012091800512632587</v>
+        <v>-0.00019222955637899974</v>
       </c>
       <c r="J17">
-        <v>0.0002268324457419813</v>
+        <v>7.0395647860724844e-05</v>
       </c>
       <c r="K17">
-        <v>5.2727775733592622e-05</v>
+        <v>0.00093263733608679733</v>
       </c>
       <c r="L17">
-        <v>0.00027501324394475259</v>
+        <v>0.0022401781512602671</v>
       </c>
       <c r="M17">
-        <v>0.0004121977626321896</v>
+        <v>0.0024475013127582268</v>
       </c>
       <c r="N17">
-        <v>0.0005579807847003581</v>
+        <v>0.0025454591348577811</v>
       </c>
       <c r="O17">
-        <v>0.00016981926830500222</v>
+        <v>-6.7116684061735465e-05</v>
       </c>
       <c r="P17">
-        <v>-0.00021586089606339336</v>
+        <v>0.00052228725405484733</v>
       </c>
       <c r="Q17">
-        <v>0.00077168261585285991</v>
+        <v>0.0011565872815573867</v>
       </c>
       <c r="R17">
-        <v>0.0048908695498929783</v>
+        <v>0.0075737097484301161</v>
       </c>
       <c r="S17">
-        <v>0.00059015035569114777</v>
+        <v>0.002176986608614432</v>
       </c>
       <c r="T17">
-        <v>8.9034373746066852e-05</v>
+        <v>-0.00095707695602036667</v>
       </c>
       <c r="U17">
-        <v>-0.00018454306415722371</v>
+        <v>-0.000489615149664136</v>
       </c>
       <c r="V17">
-        <v>-0.00019111341905895987</v>
+        <v>-0.00013028231128826221</v>
       </c>
       <c r="W17">
-        <v>6.8193983150322603e-05</v>
+        <v>-7.6430943904952191e-05</v>
       </c>
       <c r="X17">
-        <v>-0.00020349299279653627</v>
+        <v>-0.00010270714257022424</v>
       </c>
       <c r="Y17">
-        <v>8.7611448351779882e-05</v>
+        <v>0.00026683394313547061</v>
       </c>
       <c r="Z17">
-        <v>2.0191862111573126e-05</v>
+        <v>1.9550893670827038e-05</v>
       </c>
       <c r="AA17">
-        <v>7.8296038367015128e-05</v>
+        <v>-0.00023529725314435398</v>
       </c>
       <c r="AB17">
-        <v>2.0141337555491367e-05</v>
+        <v>-0.00014313633124273667</v>
       </c>
       <c r="AC17">
-        <v>-0.0094268437676043731</v>
+        <v>-0.019487468603935118</v>
       </c>
     </row>
     <row r="18">
@@ -2097,88 +2097,88 @@
         <v>36</v>
       </c>
       <c r="B18">
-        <v>0.56695279264761367</v>
+        <v>0.5288405099058946</v>
       </c>
       <c r="C18">
-        <v>0.00031950201412574847</v>
+        <v>0.0015212513752939569</v>
       </c>
       <c r="D18">
-        <v>-4.5369887234072905e-06</v>
+        <v>-2.3419024198750209e-05</v>
       </c>
       <c r="E18">
-        <v>-5.8579650825117333e-05</v>
+        <v>0.0043965898326605857</v>
       </c>
       <c r="F18">
-        <v>2.176750943823965e-05</v>
+        <v>0.0017626659258208385</v>
       </c>
       <c r="G18">
-        <v>0.00020887606071350821</v>
+        <v>0.0018816570367832458</v>
       </c>
       <c r="H18">
-        <v>0.00011036155013957345</v>
+        <v>0.0017528332088267186</v>
       </c>
       <c r="I18">
-        <v>-9.0634550841035355e-05</v>
+        <v>-0.0003453868870761552</v>
       </c>
       <c r="J18">
-        <v>2.914937972505827e-05</v>
+        <v>-0.00022966708173082051</v>
       </c>
       <c r="K18">
-        <v>-0.0013078263386511052</v>
+        <v>0.0051110052186748578</v>
       </c>
       <c r="L18">
-        <v>-7.4270480091218061e-05</v>
+        <v>0.0019126615935152746</v>
       </c>
       <c r="M18">
-        <v>0.00011969576637224644</v>
+        <v>0.0015848189159987647</v>
       </c>
       <c r="N18">
-        <v>0.00020110534952773318</v>
+        <v>0.0013050014698242629</v>
       </c>
       <c r="O18">
-        <v>0.001261251912150008</v>
+        <v>0.00046080403123429335</v>
       </c>
       <c r="P18">
-        <v>-0.0013236063742519655</v>
+        <v>-0.00099378779694981462</v>
       </c>
       <c r="Q18">
-        <v>0.000114329295565355</v>
+        <v>0.00056130754983445622</v>
       </c>
       <c r="R18">
-        <v>0.00059015035569114777</v>
+        <v>0.002176986608614432</v>
       </c>
       <c r="S18">
-        <v>0.041892391924313717</v>
+        <v>0.070077705117809433</v>
       </c>
       <c r="T18">
-        <v>-1.8546404597004698e-05</v>
+        <v>0.0012989745283544345</v>
       </c>
       <c r="U18">
-        <v>-7.569709391378604e-05</v>
+        <v>-0.00017044349846074593</v>
       </c>
       <c r="V18">
-        <v>-0.00013757157718227459</v>
+        <v>-0.00085006808059902403</v>
       </c>
       <c r="W18">
-        <v>0.00013709628826388538</v>
+        <v>0.0006721508560567635</v>
       </c>
       <c r="X18">
-        <v>-0.00020352719360203133</v>
+        <v>-0.0010505416024061826</v>
       </c>
       <c r="Y18">
-        <v>0.00030546054296694443</v>
+        <v>0.00011658478792936963</v>
       </c>
       <c r="Z18">
-        <v>2.5189938700631445e-05</v>
+        <v>0.00017010121132995622</v>
       </c>
       <c r="AA18">
-        <v>-0.0021363793674824307</v>
+        <v>-0.0039361491439597806</v>
       </c>
       <c r="AB18">
-        <v>0.0004011700043021274</v>
+        <v>0.00017463050996586321</v>
       </c>
       <c r="AC18">
-        <v>-0.062568770183697331</v>
+        <v>-0.12437092013359019</v>
       </c>
     </row>
     <row r="19">
@@ -2186,88 +2186,88 @@
         <v>37</v>
       </c>
       <c r="B19">
-        <v>0.10147604519110355</v>
+        <v>-0.097277949352356813</v>
       </c>
       <c r="C19">
-        <v>0.0011784381502844251</v>
+        <v>0.00018712331454184827</v>
       </c>
       <c r="D19">
-        <v>-1.635635501239948e-05</v>
+        <v>-2.4593523276018924e-06</v>
       </c>
       <c r="E19">
-        <v>0.00064191980829916796</v>
+        <v>0.001215931455939883</v>
       </c>
       <c r="F19">
-        <v>0.0016586868873228891</v>
+        <v>0.0039299214269462</v>
       </c>
       <c r="G19">
-        <v>0.0017524505865406917</v>
+        <v>0.0041928998471498736</v>
       </c>
       <c r="H19">
-        <v>0.0017488196823416059</v>
+        <v>0.0046769439602283597</v>
       </c>
       <c r="I19">
-        <v>-0.00023781718176485184</v>
+        <v>0.00012370298651681881</v>
       </c>
       <c r="J19">
-        <v>-2.4621170688261004e-05</v>
+        <v>-0.0001870106829451459</v>
       </c>
       <c r="K19">
-        <v>-0.00010901108506595342</v>
+        <v>2.4624103375739392e-05</v>
       </c>
       <c r="L19">
-        <v>0.00021102454189259393</v>
+        <v>0.00071868912085584769</v>
       </c>
       <c r="M19">
-        <v>0.00011841978494855562</v>
+        <v>-0.00043143290529648604</v>
       </c>
       <c r="N19">
-        <v>0.0001478540024353811</v>
+        <v>1.4318627845164023e-05</v>
       </c>
       <c r="O19">
-        <v>0.00022765440935173663</v>
+        <v>-9.2511191733556531e-05</v>
       </c>
       <c r="P19">
-        <v>-0.00050668308860898881</v>
+        <v>0.00048713695555915989</v>
       </c>
       <c r="Q19">
-        <v>0.00015567178504724121</v>
+        <v>0.0003064591402717632</v>
       </c>
       <c r="R19">
-        <v>8.9034373746066852e-05</v>
+        <v>-0.00095707695602036667</v>
       </c>
       <c r="S19">
-        <v>-1.8546404597004698e-05</v>
+        <v>0.0012989745283544345</v>
       </c>
       <c r="T19">
-        <v>0.025045896972092252</v>
+        <v>0.014924067687746439</v>
       </c>
       <c r="U19">
-        <v>0.00084274814211997891</v>
+        <v>0.0013794022607445454</v>
       </c>
       <c r="V19">
-        <v>6.3830544483348996e-05</v>
+        <v>0.00012396227157623495</v>
       </c>
       <c r="W19">
-        <v>-0.00026462352826182503</v>
+        <v>-0.00023366397468453474</v>
       </c>
       <c r="X19">
-        <v>3.3331835647764686e-05</v>
+        <v>0.00015135428332576544</v>
       </c>
       <c r="Y19">
-        <v>9.9939909946073196e-05</v>
+        <v>0.00043458495013093032</v>
       </c>
       <c r="Z19">
-        <v>1.1734662644623641e-05</v>
+        <v>-4.0982504208894642e-05</v>
       </c>
       <c r="AA19">
-        <v>9.620558126225906e-05</v>
+        <v>0.00054633472408593042</v>
       </c>
       <c r="AB19">
-        <v>8.2572122829105768e-05</v>
+        <v>0.00037559696354629978</v>
       </c>
       <c r="AC19">
-        <v>-0.022843466554683833</v>
+        <v>-0.0095194506117092237</v>
       </c>
     </row>
     <row r="20">
@@ -2275,88 +2275,88 @@
         <v>38</v>
       </c>
       <c r="B20">
-        <v>-0.10095115349955552</v>
+        <v>-0.0078183128944963529</v>
       </c>
       <c r="C20">
-        <v>8.4601253407591039e-05</v>
+        <v>7.4585332871303714e-05</v>
       </c>
       <c r="D20">
-        <v>-1.0635174023930685e-06</v>
+        <v>-9.8889102287137563e-07</v>
       </c>
       <c r="E20">
-        <v>-6.9401215433057104e-05</v>
+        <v>-0.00069323190143778302</v>
       </c>
       <c r="F20">
-        <v>0.00037877080578471245</v>
+        <v>0.00072932150521293595</v>
       </c>
       <c r="G20">
-        <v>0.00074021060805078154</v>
+        <v>0.0013933026717896538</v>
       </c>
       <c r="H20">
-        <v>0.0008200732366520294</v>
+        <v>0.0015881526960655461</v>
       </c>
       <c r="I20">
-        <v>-5.3765881710503678e-05</v>
+        <v>1.8172215799813838e-05</v>
       </c>
       <c r="J20">
-        <v>-0.0001618930834425804</v>
+        <v>-0.0004074073055186549</v>
       </c>
       <c r="K20">
-        <v>-9.7973286282143288e-05</v>
+        <v>-0.00027062029351077044</v>
       </c>
       <c r="L20">
-        <v>0.00039065038666145392</v>
+        <v>0.00040237242024901421</v>
       </c>
       <c r="M20">
-        <v>0.00042029769139508705</v>
+        <v>0.00065124228423386887</v>
       </c>
       <c r="N20">
-        <v>0.00045306902023128579</v>
+        <v>0.00076369801522730568</v>
       </c>
       <c r="O20">
-        <v>0.00027408808696135318</v>
+        <v>0.0004510368710195895</v>
       </c>
       <c r="P20">
-        <v>5.5329610187552787e-05</v>
+        <v>0.0002057063968338479</v>
       </c>
       <c r="Q20">
-        <v>-0.0001383988710576326</v>
+        <v>-0.0002135390395821203</v>
       </c>
       <c r="R20">
-        <v>-0.00018454306415722371</v>
+        <v>-0.000489615149664136</v>
       </c>
       <c r="S20">
-        <v>-7.569709391378604e-05</v>
+        <v>-0.00017044349846074593</v>
       </c>
       <c r="T20">
-        <v>0.00084274814211997891</v>
+        <v>0.0013794022607445454</v>
       </c>
       <c r="U20">
-        <v>0.0013633380538707149</v>
+        <v>0.0025677700244088166</v>
       </c>
       <c r="V20">
-        <v>3.5453497359330221e-05</v>
+        <v>3.1888725511025121e-05</v>
       </c>
       <c r="W20">
-        <v>0.00013168788380598013</v>
+        <v>0.00027584695683547256</v>
       </c>
       <c r="X20">
-        <v>7.7737272288540325e-05</v>
+        <v>0.00032869607009716344</v>
       </c>
       <c r="Y20">
-        <v>5.0837435115416734e-05</v>
+        <v>6.6685297959619627e-05</v>
       </c>
       <c r="Z20">
-        <v>5.7514818073608128e-06</v>
+        <v>7.2307244563627485e-06</v>
       </c>
       <c r="AA20">
-        <v>-6.5871364727744053e-05</v>
+        <v>-0.00015986069548054943</v>
       </c>
       <c r="AB20">
-        <v>1.2862072437636496e-05</v>
+        <v>-3.5952068317670759e-05</v>
       </c>
       <c r="AC20">
-        <v>-0.0029220415184041575</v>
+        <v>-0.003727006253320727</v>
       </c>
     </row>
     <row r="21">
@@ -2364,88 +2364,88 @@
         <v>39</v>
       </c>
       <c r="B21">
-        <v>-0.086022541611898234</v>
+        <v>0.026091819286854643</v>
       </c>
       <c r="C21">
-        <v>2.9969475749160469e-05</v>
+        <v>-0.00010931952386725998</v>
       </c>
       <c r="D21">
-        <v>-4.4826500883250519e-07</v>
+        <v>1.4038163966025053e-06</v>
       </c>
       <c r="E21">
-        <v>0.00016779042228875791</v>
+        <v>9.2835519880649152e-06</v>
       </c>
       <c r="F21">
-        <v>0.00017515184261426159</v>
+        <v>0.00019653571165257605</v>
       </c>
       <c r="G21">
-        <v>0.00010129543783490218</v>
+        <v>-5.4696153608811021e-05</v>
       </c>
       <c r="H21">
-        <v>9.4387288257755369e-05</v>
+        <v>-3.4183590892255774e-05</v>
       </c>
       <c r="I21">
-        <v>1.7689315421452994e-05</v>
+        <v>-3.124552698438004e-05</v>
       </c>
       <c r="J21">
-        <v>-2.7413302937832185e-05</v>
+        <v>-9.0280219900549738e-05</v>
       </c>
       <c r="K21">
-        <v>-0.00064167839363934824</v>
+        <v>-0.00045314119652785367</v>
       </c>
       <c r="L21">
-        <v>-0.00029471611362746376</v>
+        <v>-8.2422828396095174e-05</v>
       </c>
       <c r="M21">
-        <v>-0.00039469441011506096</v>
+        <v>-9.8587365564893267e-05</v>
       </c>
       <c r="N21">
-        <v>-0.00035936210616336305</v>
+        <v>7.2219692276059497e-05</v>
       </c>
       <c r="O21">
-        <v>-0.00010659143499469864</v>
+        <v>-2.6041585357317119e-05</v>
       </c>
       <c r="P21">
-        <v>5.7076812325804476e-05</v>
+        <v>-0.00031875690508267022</v>
       </c>
       <c r="Q21">
-        <v>-8.6822599494086931e-05</v>
+        <v>-0.00013241052120666221</v>
       </c>
       <c r="R21">
-        <v>-0.00019111341905895987</v>
+        <v>-0.00013028231128826221</v>
       </c>
       <c r="S21">
-        <v>-0.00013757157718227459</v>
+        <v>-0.00085006808059902403</v>
       </c>
       <c r="T21">
-        <v>6.3830544483348996e-05</v>
+        <v>0.00012396227157623495</v>
       </c>
       <c r="U21">
-        <v>3.5453497359330221e-05</v>
+        <v>3.1888725511025121e-05</v>
       </c>
       <c r="V21">
-        <v>0.0022618057434476532</v>
+        <v>0.0037865729561210137</v>
       </c>
       <c r="W21">
-        <v>0.0010830653562352449</v>
+        <v>0.0017174790764851778</v>
       </c>
       <c r="X21">
-        <v>0.0010877169979295691</v>
+        <v>0.0017043847457840211</v>
       </c>
       <c r="Y21">
-        <v>0.0010770291497499104</v>
+        <v>0.0017027194257958462</v>
       </c>
       <c r="Z21">
-        <v>-1.1534962973049754e-05</v>
+        <v>-2.0872426216251897e-05</v>
       </c>
       <c r="AA21">
-        <v>5.2765848801103216e-06</v>
+        <v>-5.6119063614259296e-05</v>
       </c>
       <c r="AB21">
-        <v>4.0179082259571817e-05</v>
+        <v>0.00020046640641609674</v>
       </c>
       <c r="AC21">
-        <v>-0.00089352748352995682</v>
+        <v>0.0020348979391812162</v>
       </c>
     </row>
     <row r="22">
@@ -2453,88 +2453,88 @@
         <v>40</v>
       </c>
       <c r="B22">
-        <v>-0.0937176068696675</v>
+        <v>-0.033024321235566909</v>
       </c>
       <c r="C22">
-        <v>-1.0046606073559549e-05</v>
+        <v>-0.00016779065361439451</v>
       </c>
       <c r="D22">
-        <v>1.2933855099403726e-07</v>
+        <v>1.9740948978502372e-06</v>
       </c>
       <c r="E22">
-        <v>0.0003449572780360161</v>
+        <v>0.00025221105895489502</v>
       </c>
       <c r="F22">
-        <v>0.00027793797600072877</v>
+        <v>-8.5135240385263199e-05</v>
       </c>
       <c r="G22">
-        <v>0.00031419804916189983</v>
+        <v>0.00028296053474695512</v>
       </c>
       <c r="H22">
-        <v>0.00024551985457401141</v>
+        <v>0.00020934949812341768</v>
       </c>
       <c r="I22">
-        <v>8.8729430552900634e-05</v>
+        <v>0.00031000778825520867</v>
       </c>
       <c r="J22">
-        <v>-8.995369150410014e-05</v>
+        <v>-0.00033838495811495359</v>
       </c>
       <c r="K22">
-        <v>-0.00040460442945049321</v>
+        <v>-0.00076813540028408678</v>
       </c>
       <c r="L22">
-        <v>-0.00021146983959971976</v>
+        <v>-0.00043981388817135314</v>
       </c>
       <c r="M22">
-        <v>-6.0105028571656293e-05</v>
+        <v>2.5481118731490726e-05</v>
       </c>
       <c r="N22">
-        <v>-5.7626994911464703e-05</v>
+        <v>-8.3678680775162162e-05</v>
       </c>
       <c r="O22">
-        <v>0.00033182568200713013</v>
+        <v>0.00017260599155943844</v>
       </c>
       <c r="P22">
-        <v>-0.00018505233887923972</v>
+        <v>-0.00010875086796444469</v>
       </c>
       <c r="Q22">
-        <v>-1.2133730386498692e-05</v>
+        <v>3.5439040595712946e-06</v>
       </c>
       <c r="R22">
-        <v>6.8193983150322603e-05</v>
+        <v>-7.6430943904952191e-05</v>
       </c>
       <c r="S22">
-        <v>0.00013709628826388538</v>
+        <v>0.0006721508560567635</v>
       </c>
       <c r="T22">
-        <v>-0.00026462352826182503</v>
+        <v>-0.00023366397468453474</v>
       </c>
       <c r="U22">
-        <v>0.00013168788380598013</v>
+        <v>0.00027584695683547256</v>
       </c>
       <c r="V22">
-        <v>0.0010830653562352449</v>
+        <v>0.0017174790764851778</v>
       </c>
       <c r="W22">
-        <v>0.003212249600444958</v>
+        <v>0.0057684402190430906</v>
       </c>
       <c r="X22">
-        <v>0.0010762716388036245</v>
+        <v>0.0017021666750892232</v>
       </c>
       <c r="Y22">
-        <v>0.0010931949934558569</v>
+        <v>0.0017125061993480287</v>
       </c>
       <c r="Z22">
-        <v>-5.3753573297939722e-06</v>
+        <v>-3.2733428965515216e-06</v>
       </c>
       <c r="AA22">
-        <v>-9.8747604853048081e-05</v>
+        <v>-0.00018552715959253057</v>
       </c>
       <c r="AB22">
-        <v>-3.786103633794018e-06</v>
+        <v>-8.5405266374675016e-05</v>
       </c>
       <c r="AC22">
-        <v>-0.0013020365906300096</v>
+        <v>0.00036143152104017775</v>
       </c>
     </row>
     <row r="23">
@@ -2542,88 +2542,88 @@
         <v>41</v>
       </c>
       <c r="B23">
-        <v>0.0198214776482286</v>
+        <v>0.030933041745738524</v>
       </c>
       <c r="C23">
-        <v>-1.1448267174240037e-05</v>
+        <v>-0.00020749338459886534</v>
       </c>
       <c r="D23">
-        <v>2.9497453547840525e-07</v>
+        <v>3.3103499131856395e-06</v>
       </c>
       <c r="E23">
-        <v>-1.6934685921109649e-05</v>
+        <v>-0.00092761560780731784</v>
       </c>
       <c r="F23">
-        <v>8.7983639679808175e-05</v>
+        <v>-0.00043299378225407278</v>
       </c>
       <c r="G23">
-        <v>0.00010334697744286648</v>
+        <v>-0.00036431670063554882</v>
       </c>
       <c r="H23">
-        <v>0.00014174109116551082</v>
+        <v>-5.1645721970485685e-05</v>
       </c>
       <c r="I23">
-        <v>4.2678695659195058e-05</v>
+        <v>3.720365216214135e-05</v>
       </c>
       <c r="J23">
-        <v>4.6776316092939686e-05</v>
+        <v>8.6441380980598016e-05</v>
       </c>
       <c r="K23">
-        <v>-0.00054022938406017313</v>
+        <v>-0.00035993191881951089</v>
       </c>
       <c r="L23">
-        <v>-8.3604944716209918e-05</v>
+        <v>-0.00022705183973435045</v>
       </c>
       <c r="M23">
-        <v>-8.6293524462699271e-05</v>
+        <v>8.7433953270623505e-05</v>
       </c>
       <c r="N23">
-        <v>-0.00010741054134506128</v>
+        <v>0.00014259695786479273</v>
       </c>
       <c r="O23">
-        <v>0.00018421668035560027</v>
+        <v>0.0003035130908006883</v>
       </c>
       <c r="P23">
-        <v>-5.8445374251139397e-05</v>
+        <v>-0.00020011545726545795</v>
       </c>
       <c r="Q23">
-        <v>9.0602694596617485e-06</v>
+        <v>1.8139032086508333e-05</v>
       </c>
       <c r="R23">
-        <v>-0.00020349299279653627</v>
+        <v>-0.00010270714257022424</v>
       </c>
       <c r="S23">
-        <v>-0.00020352719360203133</v>
+        <v>-0.0010505416024061826</v>
       </c>
       <c r="T23">
-        <v>3.3331835647764686e-05</v>
+        <v>0.00015135428332576544</v>
       </c>
       <c r="U23">
-        <v>7.7737272288540325e-05</v>
+        <v>0.00032869607009716344</v>
       </c>
       <c r="V23">
-        <v>0.0010877169979295691</v>
+        <v>0.0017043847457840211</v>
       </c>
       <c r="W23">
-        <v>0.0010762716388036245</v>
+        <v>0.0017021666750892232</v>
       </c>
       <c r="X23">
-        <v>0.0023365538703757961</v>
+        <v>0.0038973985190607669</v>
       </c>
       <c r="Y23">
-        <v>0.0010938048607235171</v>
+        <v>0.001725663926071634</v>
       </c>
       <c r="Z23">
-        <v>-1.1015146737104833e-05</v>
+        <v>-1.6916891520158111e-05</v>
       </c>
       <c r="AA23">
-        <v>-2.2087215445044164e-05</v>
+        <v>-1.2006427281188438e-05</v>
       </c>
       <c r="AB23">
-        <v>-3.7319272972654314e-06</v>
+        <v>-9.4915709889560704e-05</v>
       </c>
       <c r="AC23">
-        <v>-0.00068752015090116185</v>
+        <v>0.0032277782377204177</v>
       </c>
     </row>
     <row r="24">
@@ -2631,88 +2631,88 @@
         <v>42</v>
       </c>
       <c r="B24">
-        <v>-0.049521844641531407</v>
+        <v>0.034972583749835674</v>
       </c>
       <c r="C24">
-        <v>5.0822243920957064e-05</v>
+        <v>-9.5783296308056759e-05</v>
       </c>
       <c r="D24">
-        <v>-7.6370069074591982e-07</v>
+        <v>1.2173127487976766e-06</v>
       </c>
       <c r="E24">
-        <v>0.00019868602615474742</v>
+        <v>-9.0626276028692426e-05</v>
       </c>
       <c r="F24">
-        <v>0.00018951915223952489</v>
+        <v>1.2107517144898869e-08</v>
       </c>
       <c r="G24">
-        <v>0.00029285679777759288</v>
+        <v>3.4444722529092611e-05</v>
       </c>
       <c r="H24">
-        <v>0.00030666463862164949</v>
+        <v>0.00033863209155461432</v>
       </c>
       <c r="I24">
-        <v>3.4958723888818381e-05</v>
+        <v>1.5159221627809931e-05</v>
       </c>
       <c r="J24">
-        <v>-2.6636341271878887e-05</v>
+        <v>-6.2290560972440451e-06</v>
       </c>
       <c r="K24">
-        <v>7.1636566474757649e-05</v>
+        <v>0.00017545854592776119</v>
       </c>
       <c r="L24">
-        <v>-4.4495661267036218e-05</v>
+        <v>0.00029397156413812908</v>
       </c>
       <c r="M24">
-        <v>-2.155665109544562e-05</v>
+        <v>0.0002045429162583802</v>
       </c>
       <c r="N24">
-        <v>2.5671307990879008e-05</v>
+        <v>0.00045594261041070894</v>
       </c>
       <c r="O24">
-        <v>-3.4032717784683472e-05</v>
+        <v>2.5603008474586286e-05</v>
       </c>
       <c r="P24">
-        <v>5.4601443437271374e-05</v>
+        <v>-0.00034754319716253404</v>
       </c>
       <c r="Q24">
-        <v>7.9771436354976477e-05</v>
+        <v>0.00017558366586851391</v>
       </c>
       <c r="R24">
-        <v>8.7611448351779882e-05</v>
+        <v>0.00026683394313547061</v>
       </c>
       <c r="S24">
-        <v>0.00030546054296694443</v>
+        <v>0.00011658478792936963</v>
       </c>
       <c r="T24">
-        <v>9.9939909946073196e-05</v>
+        <v>0.00043458495013093032</v>
       </c>
       <c r="U24">
-        <v>5.0837435115416734e-05</v>
+        <v>6.6685297959619627e-05</v>
       </c>
       <c r="V24">
-        <v>0.0010770291497499104</v>
+        <v>0.0017027194257958462</v>
       </c>
       <c r="W24">
-        <v>0.0010931949934558569</v>
+        <v>0.0017125061993480287</v>
       </c>
       <c r="X24">
-        <v>0.0010938048607235171</v>
+        <v>0.001725663926071634</v>
       </c>
       <c r="Y24">
-        <v>0.0015919786436974924</v>
+        <v>0.0026272263982571025</v>
       </c>
       <c r="Z24">
-        <v>-5.9246983665779725e-06</v>
+        <v>-2.3377247560209938e-07</v>
       </c>
       <c r="AA24">
-        <v>4.4647006072799037e-06</v>
+        <v>5.2106295382395497e-05</v>
       </c>
       <c r="AB24">
-        <v>1.1015030602871544e-05</v>
+        <v>-7.145816135439826e-05</v>
       </c>
       <c r="AC24">
-        <v>-0.0025796172291070972</v>
+        <v>-0.00059136338687021915</v>
       </c>
     </row>
     <row r="25">
@@ -2720,88 +2720,88 @@
         <v>43</v>
       </c>
       <c r="B25">
-        <v>0.010233506976591318</v>
+        <v>-0.0048282436914951635</v>
       </c>
       <c r="C25">
-        <v>-3.6940901619929387e-06</v>
+        <v>8.5362652704263535e-07</v>
       </c>
       <c r="D25">
-        <v>3.7980989990426163e-08</v>
+        <v>-2.7942615107538754e-08</v>
       </c>
       <c r="E25">
-        <v>-1.2696856808281281e-05</v>
+        <v>-3.6724811908237469e-06</v>
       </c>
       <c r="F25">
-        <v>-4.0970386279642423e-06</v>
+        <v>-1.5185734535214707e-05</v>
       </c>
       <c r="G25">
-        <v>4.6819646294388314e-06</v>
+        <v>1.7820299612137958e-05</v>
       </c>
       <c r="H25">
-        <v>9.5709097721351547e-06</v>
+        <v>6.9181985879397908e-06</v>
       </c>
       <c r="I25">
-        <v>-1.6768664598856132e-06</v>
+        <v>1.2119011141460935e-05</v>
       </c>
       <c r="J25">
-        <v>-1.6564472190534827e-08</v>
+        <v>-1.1242467641557946e-05</v>
       </c>
       <c r="K25">
-        <v>7.5149514474309557e-06</v>
+        <v>4.1216974838299662e-05</v>
       </c>
       <c r="L25">
-        <v>-1.7333457508594396e-05</v>
+        <v>1.7836731080820688e-05</v>
       </c>
       <c r="M25">
-        <v>-2.5714121489940536e-05</v>
+        <v>9.0785775024894433e-06</v>
       </c>
       <c r="N25">
-        <v>-2.3893254533901859e-05</v>
+        <v>2.305507297654507e-05</v>
       </c>
       <c r="O25">
-        <v>-8.1289514845034105e-06</v>
+        <v>-5.9054300137749703e-05</v>
       </c>
       <c r="P25">
-        <v>5.8788613144029113e-06</v>
+        <v>3.1594869106409239e-05</v>
       </c>
       <c r="Q25">
-        <v>1.2085257045868481e-05</v>
+        <v>1.7683541754717469e-05</v>
       </c>
       <c r="R25">
-        <v>2.0191862111573126e-05</v>
+        <v>1.9550893670827038e-05</v>
       </c>
       <c r="S25">
-        <v>2.5189938700631445e-05</v>
+        <v>0.00017010121132995622</v>
       </c>
       <c r="T25">
-        <v>1.1734662644623641e-05</v>
+        <v>-4.0982504208894642e-05</v>
       </c>
       <c r="U25">
-        <v>5.7514818073608128e-06</v>
+        <v>7.2307244563627485e-06</v>
       </c>
       <c r="V25">
-        <v>-1.1534962973049754e-05</v>
+        <v>-2.0872426216251897e-05</v>
       </c>
       <c r="W25">
-        <v>-5.3753573297939722e-06</v>
+        <v>-3.2733428965515216e-06</v>
       </c>
       <c r="X25">
-        <v>-1.1015146737104833e-05</v>
+        <v>-1.6916891520158111e-05</v>
       </c>
       <c r="Y25">
-        <v>-5.9246983665779725e-06</v>
+        <v>-2.3377247560209938e-07</v>
       </c>
       <c r="Z25">
-        <v>1.8086807445622617e-05</v>
+        <v>3.1656895371673298e-05</v>
       </c>
       <c r="AA25">
-        <v>-7.45839087638937e-05</v>
+        <v>-0.00013777048238209675</v>
       </c>
       <c r="AB25">
-        <v>-9.0214440896358621e-05</v>
+        <v>-0.00015668845543817262</v>
       </c>
       <c r="AC25">
-        <v>-0.00022077212713260516</v>
+        <v>-0.00076094341694658146</v>
       </c>
     </row>
     <row r="26">
@@ -2809,88 +2809,88 @@
         <v>44</v>
       </c>
       <c r="B26">
-        <v>0.067615768794304407</v>
+        <v>0.26958787049739924</v>
       </c>
       <c r="C26">
-        <v>8.1988707809538697e-05</v>
+        <v>-4.9259695033203581e-05</v>
       </c>
       <c r="D26">
-        <v>-1.2789257827120441e-06</v>
+        <v>5.4942115996627441e-07</v>
       </c>
       <c r="E26">
-        <v>0.00030394861913179516</v>
+        <v>9.1980556906116895e-05</v>
       </c>
       <c r="F26">
-        <v>-7.4455913643122276e-05</v>
+        <v>0.00039474743716304771</v>
       </c>
       <c r="G26">
-        <v>-2.3780526223040775e-05</v>
+        <v>0.00036617330482407204</v>
       </c>
       <c r="H26">
-        <v>2.7193973335930093e-05</v>
+        <v>0.00037728297854022904</v>
       </c>
       <c r="I26">
-        <v>-3.2725626694427685e-05</v>
+        <v>-2.4178552088682413e-06</v>
       </c>
       <c r="J26">
-        <v>-3.7024807566542341e-05</v>
+        <v>-0.00026730556081676463</v>
       </c>
       <c r="K26">
-        <v>0.00075202456019921038</v>
+        <v>-0.0010709235954042481</v>
       </c>
       <c r="L26">
-        <v>-5.3454379992268208e-05</v>
+        <v>-0.00063525137764738893</v>
       </c>
       <c r="M26">
-        <v>-9.4175574916671723e-05</v>
+        <v>-0.00072023990768568802</v>
       </c>
       <c r="N26">
-        <v>-0.0001242902224120393</v>
+        <v>-0.00094611015660350795</v>
       </c>
       <c r="O26">
-        <v>2.7156574515457339e-05</v>
+        <v>0.0003227638159201021</v>
       </c>
       <c r="P26">
-        <v>-3.8478346673947246e-05</v>
+        <v>-9.6966780671250388e-05</v>
       </c>
       <c r="Q26">
-        <v>9.3198944232942443e-05</v>
+        <v>-0.00014323844702679716</v>
       </c>
       <c r="R26">
-        <v>7.8296038367015128e-05</v>
+        <v>-0.00023529725314435398</v>
       </c>
       <c r="S26">
-        <v>-0.0021363793674824307</v>
+        <v>-0.0039361491439597806</v>
       </c>
       <c r="T26">
-        <v>9.620558126225906e-05</v>
+        <v>0.00054633472408593042</v>
       </c>
       <c r="U26">
-        <v>-6.5871364727744053e-05</v>
+        <v>-0.00015986069548054943</v>
       </c>
       <c r="V26">
-        <v>5.2765848801103216e-06</v>
+        <v>-5.6119063614259296e-05</v>
       </c>
       <c r="W26">
-        <v>-9.8747604853048081e-05</v>
+        <v>-0.00018552715959253057</v>
       </c>
       <c r="X26">
-        <v>-2.2087215445044164e-05</v>
+        <v>-1.2006427281188438e-05</v>
       </c>
       <c r="Y26">
-        <v>4.4647006072799037e-06</v>
+        <v>5.2106295382395497e-05</v>
       </c>
       <c r="Z26">
-        <v>-7.45839087638937e-05</v>
+        <v>-0.00013777048238209675</v>
       </c>
       <c r="AA26">
-        <v>0.0031862894643462018</v>
+        <v>0.0044515431622197486</v>
       </c>
       <c r="AB26">
-        <v>0.00060609016579658555</v>
+        <v>0.0010996310963646231</v>
       </c>
       <c r="AC26">
-        <v>0.0026769377336294219</v>
+        <v>0.0086390692757608439</v>
       </c>
     </row>
     <row r="27">
@@ -2898,88 +2898,88 @@
         <v>45</v>
       </c>
       <c r="B27">
-        <v>0.075552841604077631</v>
+        <v>0.37308094874196962</v>
       </c>
       <c r="C27">
-        <v>5.1764305704538223e-05</v>
+        <v>9.3305936429993568e-05</v>
       </c>
       <c r="D27">
-        <v>-8.4806409999658072e-07</v>
+        <v>-1.6267763532235848e-06</v>
       </c>
       <c r="E27">
-        <v>0.00013708324978903459</v>
+        <v>8.3514048551858091e-05</v>
       </c>
       <c r="F27">
-        <v>0.00012261494982646493</v>
+        <v>0.00042836543361937239</v>
       </c>
       <c r="G27">
-        <v>9.8481153764332953e-05</v>
+        <v>0.00019375932009186507</v>
       </c>
       <c r="H27">
-        <v>0.00012499447720475251</v>
+        <v>0.00028374192130874664</v>
       </c>
       <c r="I27">
-        <v>-6.3634645776492632e-05</v>
+        <v>-0.00014987247541165845</v>
       </c>
       <c r="J27">
-        <v>-3.7603938247109982e-05</v>
+        <v>-1.0189908231004903e-05</v>
       </c>
       <c r="K27">
-        <v>-9.428328499225952e-05</v>
+        <v>-0.0003151141600617885</v>
       </c>
       <c r="L27">
-        <v>2.3444728298446793e-05</v>
+        <v>-5.4796408534008023e-05</v>
       </c>
       <c r="M27">
-        <v>5.2468702178322391e-05</v>
+        <v>-0.00020933975722056686</v>
       </c>
       <c r="N27">
-        <v>6.5112069472232637e-05</v>
+        <v>-0.00034661140093940335</v>
       </c>
       <c r="O27">
-        <v>3.5484538812480975e-05</v>
+        <v>-0.00012529107610952323</v>
       </c>
       <c r="P27">
-        <v>-7.0043522020661825e-05</v>
+        <v>-6.2989349895140479e-06</v>
       </c>
       <c r="Q27">
-        <v>-2.8926811313967262e-06</v>
+        <v>-5.6475426833049215e-05</v>
       </c>
       <c r="R27">
-        <v>2.0141337555491367e-05</v>
+        <v>-0.00014313633124273667</v>
       </c>
       <c r="S27">
-        <v>0.0004011700043021274</v>
+        <v>0.00017463050996586321</v>
       </c>
       <c r="T27">
-        <v>8.2572122829105768e-05</v>
+        <v>0.00037559696354629978</v>
       </c>
       <c r="U27">
-        <v>1.2862072437636496e-05</v>
+        <v>-3.5952068317670759e-05</v>
       </c>
       <c r="V27">
-        <v>4.0179082259571817e-05</v>
+        <v>0.00020046640641609674</v>
       </c>
       <c r="W27">
-        <v>-3.786103633794018e-06</v>
+        <v>-8.5405266374675016e-05</v>
       </c>
       <c r="X27">
-        <v>-3.7319272972654314e-06</v>
+        <v>-9.4915709889560704e-05</v>
       </c>
       <c r="Y27">
-        <v>1.1015030602871544e-05</v>
+        <v>-7.145816135439826e-05</v>
       </c>
       <c r="Z27">
-        <v>-9.0214440896358621e-05</v>
+        <v>-0.00015668845543817262</v>
       </c>
       <c r="AA27">
-        <v>0.00060609016579658555</v>
+        <v>0.0010996310963646231</v>
       </c>
       <c r="AB27">
-        <v>0.0028183779848675546</v>
+        <v>0.0042820648918238833</v>
       </c>
       <c r="AC27">
-        <v>-0.00018691402812037782</v>
+        <v>0.00071455667480273396</v>
       </c>
     </row>
     <row r="28">
@@ -2987,88 +2987,88 @@
         <v>15</v>
       </c>
       <c r="B28">
-        <v>-2.5939505314685487</v>
+        <v>-6.462903062515271</v>
       </c>
       <c r="C28">
-        <v>-0.015670796306518089</v>
+        <v>-0.026581821781510223</v>
       </c>
       <c r="D28">
-        <v>0.00022530193796830764</v>
+        <v>0.00039304618260073681</v>
       </c>
       <c r="E28">
-        <v>-0.01389001489799048</v>
+        <v>-0.030877821173952311</v>
       </c>
       <c r="F28">
-        <v>-0.0086721818456508871</v>
+        <v>-0.0089288239164638447</v>
       </c>
       <c r="G28">
-        <v>-0.0081387626943471292</v>
+        <v>-0.0079869675090738709</v>
       </c>
       <c r="H28">
-        <v>-0.0090601617916859674</v>
+        <v>-0.011161128953755775</v>
       </c>
       <c r="I28">
-        <v>0.0044120947723908094</v>
+        <v>0.0032158713367480985</v>
       </c>
       <c r="J28">
-        <v>-0.0023637817645459219</v>
+        <v>-0.0015769681521740052</v>
       </c>
       <c r="K28">
-        <v>-0.080962553467115894</v>
+        <v>-0.14082185775430212</v>
       </c>
       <c r="L28">
-        <v>-0.085313279953101784</v>
+        <v>-0.13898798975218485</v>
       </c>
       <c r="M28">
-        <v>-0.085972941022073757</v>
+        <v>-0.14091921925639195</v>
       </c>
       <c r="N28">
-        <v>-0.086662125074998875</v>
+        <v>-0.14155238417927318</v>
       </c>
       <c r="O28">
-        <v>-0.004049955884037065</v>
+        <v>-0.010260595912511751</v>
       </c>
       <c r="P28">
-        <v>0.0018283479883455757</v>
+        <v>-0.004872070795237049</v>
       </c>
       <c r="Q28">
-        <v>-0.0041074587426473182</v>
+        <v>-0.00651936230620178</v>
       </c>
       <c r="R28">
-        <v>-0.0094268437676043731</v>
+        <v>-0.019487468603935118</v>
       </c>
       <c r="S28">
-        <v>-0.062568770183697331</v>
+        <v>-0.12437092013359019</v>
       </c>
       <c r="T28">
-        <v>-0.022843466554683833</v>
+        <v>-0.0095194506117092237</v>
       </c>
       <c r="U28">
-        <v>-0.0029220415184041575</v>
+        <v>-0.003727006253320727</v>
       </c>
       <c r="V28">
-        <v>-0.00089352748352995682</v>
+        <v>0.0020348979391812162</v>
       </c>
       <c r="W28">
-        <v>-0.0013020365906300096</v>
+        <v>0.00036143152104017775</v>
       </c>
       <c r="X28">
-        <v>-0.00068752015090116185</v>
+        <v>0.0032277782377204177</v>
       </c>
       <c r="Y28">
-        <v>-0.0025796172291070972</v>
+        <v>-0.00059136338687021915</v>
       </c>
       <c r="Z28">
-        <v>-0.00022077212713260516</v>
+        <v>-0.00076094341694658146</v>
       </c>
       <c r="AA28">
-        <v>0.0026769377336294219</v>
+        <v>0.0086390692757608439</v>
       </c>
       <c r="AB28">
-        <v>-0.00018691402812037782</v>
+        <v>0.00071455667480273396</v>
       </c>
       <c r="AC28">
-        <v>0.44856162539434008</v>
+        <v>0.77201443945667148</v>
       </c>
     </row>
   </sheetData>

--- a/input/PL/reg_fertility.xlsx
+++ b/input/PL/reg_fertility.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pineapple/IdeaProjects/SimPathsEU_JAN/input/PL/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDB9ABF-7FC5-7348-9AEC-B9BB079DF72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Info" sheetId="1" r:id="rId2"/>
-    <sheet name="Gof" sheetId="2" r:id="rId4"/>
-    <sheet name="F1a" sheetId="3" r:id="rId5"/>
-    <sheet name="F1b" sheetId="4" r:id="rId6"/>
+    <sheet name="Info" sheetId="1" r:id="rId1"/>
+    <sheet name="Gof" sheetId="2" r:id="rId2"/>
+    <sheet name="F1a_old" sheetId="3" r:id="rId3"/>
+    <sheet name="F1a" sheetId="5" r:id="rId4"/>
+    <sheet name="F1b" sheetId="6" r:id="rId5"/>
+    <sheet name="F1b_old" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="89" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="47">
   <si>
     <t>Description:</t>
   </si>
@@ -162,65 +171,47 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <b/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <b/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -240,46 +231,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -287,46 +278,353 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -334,7 +632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -342,7 +640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -350,7 +648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -358,7 +656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -367,28 +665,29 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -402,7 +701,7 @@
         <v>39.040774458682478</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -416,12 +715,12 @@
         <v>-163962.76437122663</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -435,7 +734,7 @@
         <v>643.19301439841547</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -450,18 +749,21 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="A1:F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -484,47 +786,47 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.059797006194753456</v>
+        <v>-5.9797006194753456E-2</v>
       </c>
       <c r="C2">
-        <v>0.0018783354760906934</v>
+        <v>1.8783354760906934E-3</v>
       </c>
       <c r="D2">
-        <v>-3.9798866756148368e-05</v>
+        <v>-3.9798866756148368E-5</v>
       </c>
       <c r="E2">
-        <v>0.0055100474751380527</v>
+        <v>5.5100474751380527E-3</v>
       </c>
       <c r="F2">
-        <v>-0.042354706302494619</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>-4.2354706302494619E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
-        <v>-0.081558262307854762</v>
+        <v>-8.1558262307854762E-2</v>
       </c>
       <c r="C3">
-        <v>-3.9798866756148368e-05</v>
+        <v>-3.9798866756148368E-5</v>
       </c>
       <c r="D3">
-        <v>0.006900502968863572</v>
+        <v>6.900502968863572E-3</v>
       </c>
       <c r="E3">
-        <v>-0.0016550238678230082</v>
+        <v>-1.6550238678230082E-3</v>
       </c>
       <c r="F3">
-        <v>-0.029712222860732454</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>-2.9712222860732454E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -532,19 +834,19 @@
         <v>-1.4654535707211471</v>
       </c>
       <c r="C4">
-        <v>0.0055100474751380527</v>
+        <v>5.5100474751380527E-3</v>
       </c>
       <c r="D4">
-        <v>-0.0016550238678230082</v>
+        <v>-1.6550238678230082E-3</v>
       </c>
       <c r="E4">
-        <v>0.063879336242927548</v>
+        <v>6.3879336242927548E-2</v>
       </c>
       <c r="F4">
         <v>-0.15680500251545409</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -552,10 +854,10 @@
         <v>0.15417894607589319</v>
       </c>
       <c r="C5">
-        <v>-0.042354706302494619</v>
+        <v>-4.2354706302494619E-2</v>
       </c>
       <c r="D5">
-        <v>-0.029712222860732454</v>
+        <v>-2.9712222860732454E-2</v>
       </c>
       <c r="E5">
         <v>-0.15680500251545409</v>
@@ -565,18 +867,2643 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B7A618-41F1-9549-A6C0-F6DEAF87E9BF}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>-5.9797006194753456E-2</v>
+      </c>
+      <c r="C2">
+        <v>1.8783354760906934E-3</v>
+      </c>
+      <c r="D2">
+        <v>-3.9798866756148368E-5</v>
+      </c>
+      <c r="E2">
+        <v>5.5100474751380527E-3</v>
+      </c>
+      <c r="F2">
+        <v>-4.2354706302494619E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>-8.1558262307854762E-2</v>
+      </c>
+      <c r="C3">
+        <v>-3.9798866756148368E-5</v>
+      </c>
+      <c r="D3">
+        <v>6.900502968863572E-3</v>
+      </c>
+      <c r="E3">
+        <v>-1.6550238678230082E-3</v>
+      </c>
+      <c r="F3">
+        <v>-2.9712222860732454E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>-1.4654535707211471</v>
+      </c>
+      <c r="C4">
+        <v>5.5100474751380527E-3</v>
+      </c>
+      <c r="D4">
+        <v>-1.6550238678230082E-3</v>
+      </c>
+      <c r="E4">
+        <v>6.3879336242927548E-2</v>
+      </c>
+      <c r="F4">
+        <v>-0.15680500251545409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.15417894607589319</v>
+      </c>
+      <c r="C5">
+        <v>-4.2354706302494619E-2</v>
+      </c>
+      <c r="D5">
+        <v>-2.9712222860732454E-2</v>
+      </c>
+      <c r="E5">
+        <v>-0.15680500251545409</v>
+      </c>
+      <c r="F5">
+        <v>1.1299639531707495</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA834019-8D00-7642-8886-F4A90AC876A5}">
+  <dimension ref="A1:AC28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>0.28387986448280511</v>
+      </c>
+      <c r="C2">
+        <v>1.4649076537845834E-3</v>
+      </c>
+      <c r="D2">
+        <v>-2.1826562466324836E-5</v>
+      </c>
+      <c r="E2">
+        <v>9.8965250707552452E-4</v>
+      </c>
+      <c r="F2">
+        <v>-1.5055020587565133E-4</v>
+      </c>
+      <c r="G2">
+        <v>-3.1342526479151206E-4</v>
+      </c>
+      <c r="H2">
+        <v>-1.6386311520113096E-4</v>
+      </c>
+      <c r="I2">
+        <v>-1.8630262557688213E-4</v>
+      </c>
+      <c r="J2">
+        <v>7.0827215930471289E-5</v>
+      </c>
+      <c r="K2">
+        <v>5.4762602511712957E-4</v>
+      </c>
+      <c r="L2">
+        <v>5.8787416431339834E-4</v>
+      </c>
+      <c r="M2">
+        <v>7.6397970507493043E-4</v>
+      </c>
+      <c r="N2">
+        <v>7.6130637845081214E-4</v>
+      </c>
+      <c r="O2">
+        <v>5.0086543685539287E-4</v>
+      </c>
+      <c r="P2">
+        <v>1.4103045986290958E-4</v>
+      </c>
+      <c r="Q2">
+        <v>2.6846599287483688E-4</v>
+      </c>
+      <c r="R2">
+        <v>8.4767201095952479E-4</v>
+      </c>
+      <c r="S2">
+        <v>1.5212513754893839E-3</v>
+      </c>
+      <c r="T2">
+        <v>1.8712331455505646E-4</v>
+      </c>
+      <c r="U2">
+        <v>7.4585332874469151E-5</v>
+      </c>
+      <c r="V2">
+        <v>-1.0931952386821213E-4</v>
+      </c>
+      <c r="W2">
+        <v>-1.6779065361285494E-4</v>
+      </c>
+      <c r="X2">
+        <v>-2.0749338459930488E-4</v>
+      </c>
+      <c r="Y2">
+        <v>-9.5783296306420048E-5</v>
+      </c>
+      <c r="Z2">
+        <v>8.5362652896847657E-7</v>
+      </c>
+      <c r="AA2">
+        <v>-4.9259695050036037E-5</v>
+      </c>
+      <c r="AB2">
+        <v>9.3305936423462334E-5</v>
+      </c>
+      <c r="AC2">
+        <v>-2.658182178229368E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>-5.2318947397875576E-3</v>
+      </c>
+      <c r="C3">
+        <v>-2.1826562466324836E-5</v>
+      </c>
+      <c r="D3">
+        <v>3.2940519622151942E-7</v>
+      </c>
+      <c r="E3">
+        <v>-1.4020720249745971E-5</v>
+      </c>
+      <c r="F3">
+        <v>1.9501043613236261E-6</v>
+      </c>
+      <c r="G3">
+        <v>4.160614739900295E-6</v>
+      </c>
+      <c r="H3">
+        <v>1.7936595388066674E-6</v>
+      </c>
+      <c r="I3">
+        <v>2.3974931833862172E-6</v>
+      </c>
+      <c r="J3">
+        <v>7.0910289269856207E-9</v>
+      </c>
+      <c r="K3">
+        <v>-8.7791918466496692E-6</v>
+      </c>
+      <c r="L3">
+        <v>-8.5453232838248881E-6</v>
+      </c>
+      <c r="M3">
+        <v>-1.0936051535489328E-5</v>
+      </c>
+      <c r="N3">
+        <v>-1.0597248580594416E-5</v>
+      </c>
+      <c r="O3">
+        <v>-6.6524615736594614E-6</v>
+      </c>
+      <c r="P3">
+        <v>-1.4936905711491782E-6</v>
+      </c>
+      <c r="Q3">
+        <v>-4.1828667863125812E-6</v>
+      </c>
+      <c r="R3">
+        <v>-1.2591102335872349E-5</v>
+      </c>
+      <c r="S3">
+        <v>-2.3419024201708997E-5</v>
+      </c>
+      <c r="T3">
+        <v>-2.4593523277999761E-6</v>
+      </c>
+      <c r="U3">
+        <v>-9.8889102291815217E-7</v>
+      </c>
+      <c r="V3">
+        <v>1.4038163966172352E-6</v>
+      </c>
+      <c r="W3">
+        <v>1.9740948978267642E-6</v>
+      </c>
+      <c r="X3">
+        <v>3.310349913192304E-6</v>
+      </c>
+      <c r="Y3">
+        <v>1.2173127487731499E-6</v>
+      </c>
+      <c r="Z3">
+        <v>-2.7942615136463235E-8</v>
+      </c>
+      <c r="AA3">
+        <v>5.4942116022031653E-7</v>
+      </c>
+      <c r="AB3">
+        <v>-1.626776353125573E-6</v>
+      </c>
+      <c r="AC3">
+        <v>3.9304618261240803E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>0.27485437668750673</v>
+      </c>
+      <c r="C4">
+        <v>9.8965250707552452E-4</v>
+      </c>
+      <c r="D4">
+        <v>-1.4020720249745971E-5</v>
+      </c>
+      <c r="E4">
+        <v>1.788904422835922E-2</v>
+      </c>
+      <c r="F4">
+        <v>9.2739110603666311E-3</v>
+      </c>
+      <c r="G4">
+        <v>8.9017275880637972E-3</v>
+      </c>
+      <c r="H4">
+        <v>8.8190370246024018E-3</v>
+      </c>
+      <c r="I4">
+        <v>-1.6449775555869698E-4</v>
+      </c>
+      <c r="J4">
+        <v>3.6681714086549545E-4</v>
+      </c>
+      <c r="K4">
+        <v>-1.3503693646363356E-3</v>
+      </c>
+      <c r="L4">
+        <v>-1.200644211375816E-3</v>
+      </c>
+      <c r="M4">
+        <v>-9.3451495160333346E-4</v>
+      </c>
+      <c r="N4">
+        <v>-8.1800971557898731E-4</v>
+      </c>
+      <c r="O4">
+        <v>-1.7024617000220294E-4</v>
+      </c>
+      <c r="P4">
+        <v>6.1492837201171889E-4</v>
+      </c>
+      <c r="Q4">
+        <v>6.0432022592265416E-4</v>
+      </c>
+      <c r="R4">
+        <v>-1.185816926129283E-3</v>
+      </c>
+      <c r="S4">
+        <v>4.3965898327091354E-3</v>
+      </c>
+      <c r="T4">
+        <v>1.215931455950961E-3</v>
+      </c>
+      <c r="U4">
+        <v>-6.9323190143506612E-4</v>
+      </c>
+      <c r="V4">
+        <v>9.2835519880955439E-6</v>
+      </c>
+      <c r="W4">
+        <v>2.5221105895481782E-4</v>
+      </c>
+      <c r="X4">
+        <v>-9.2761560780744122E-4</v>
+      </c>
+      <c r="Y4">
+        <v>-9.0626276028116497E-5</v>
+      </c>
+      <c r="Z4">
+        <v>-3.6724811899611828E-6</v>
+      </c>
+      <c r="AA4">
+        <v>9.1980556900830325E-5</v>
+      </c>
+      <c r="AB4">
+        <v>8.3514048548901255E-5</v>
+      </c>
+      <c r="AC4">
+        <v>-3.0877821174537509E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>7.7761012507255076E-2</v>
+      </c>
+      <c r="C5">
+        <v>-1.5055020587565133E-4</v>
+      </c>
+      <c r="D5">
+        <v>1.9501043613236261E-6</v>
+      </c>
+      <c r="E5">
+        <v>9.2739110603666311E-3</v>
+      </c>
+      <c r="F5">
+        <v>1.2898563498830543E-2</v>
+      </c>
+      <c r="G5">
+        <v>1.1774715547870912E-2</v>
+      </c>
+      <c r="H5">
+        <v>1.1943165821361243E-2</v>
+      </c>
+      <c r="I5">
+        <v>-2.4132439193694038E-4</v>
+      </c>
+      <c r="J5">
+        <v>-1.2691182192615599E-9</v>
+      </c>
+      <c r="K5">
+        <v>-1.1843116875422579E-3</v>
+      </c>
+      <c r="L5">
+        <v>-1.7396147500703882E-3</v>
+      </c>
+      <c r="M5">
+        <v>-2.5699035222494664E-3</v>
+      </c>
+      <c r="N5">
+        <v>-2.2996402330196547E-3</v>
+      </c>
+      <c r="O5">
+        <v>-5.4146835114354547E-4</v>
+      </c>
+      <c r="P5">
+        <v>1.6883641818154769E-3</v>
+      </c>
+      <c r="Q5">
+        <v>1.0342242115340256E-4</v>
+      </c>
+      <c r="R5">
+        <v>-1.3185659600419282E-3</v>
+      </c>
+      <c r="S5">
+        <v>1.7626659257910324E-3</v>
+      </c>
+      <c r="T5">
+        <v>3.9299214269495472E-3</v>
+      </c>
+      <c r="U5">
+        <v>7.2932150521406579E-4</v>
+      </c>
+      <c r="V5">
+        <v>1.9653571165228163E-4</v>
+      </c>
+      <c r="W5">
+        <v>-8.513524038617176E-5</v>
+      </c>
+      <c r="X5">
+        <v>-4.3299378225466676E-4</v>
+      </c>
+      <c r="Y5">
+        <v>1.2107516790364758E-8</v>
+      </c>
+      <c r="Z5">
+        <v>-1.5185734535255351E-5</v>
+      </c>
+      <c r="AA5">
+        <v>3.9474743716472931E-4</v>
+      </c>
+      <c r="AB5">
+        <v>4.283654336193982E-4</v>
+      </c>
+      <c r="AC5">
+        <v>-8.9288239166508548E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>0.12443551240889524</v>
+      </c>
+      <c r="C6">
+        <v>-3.1342526479151206E-4</v>
+      </c>
+      <c r="D6">
+        <v>4.160614739900295E-6</v>
+      </c>
+      <c r="E6">
+        <v>8.9017275880637972E-3</v>
+      </c>
+      <c r="F6">
+        <v>1.1774715547870912E-2</v>
+      </c>
+      <c r="G6">
+        <v>1.3400902218705147E-2</v>
+      </c>
+      <c r="H6">
+        <v>1.2699637977399061E-2</v>
+      </c>
+      <c r="I6">
+        <v>5.4189995972829552E-5</v>
+      </c>
+      <c r="J6">
+        <v>-2.9842692368282713E-4</v>
+      </c>
+      <c r="K6">
+        <v>-1.2780430916823683E-3</v>
+      </c>
+      <c r="L6">
+        <v>-1.7865243125453909E-3</v>
+      </c>
+      <c r="M6">
+        <v>-2.3987388620724096E-3</v>
+      </c>
+      <c r="N6">
+        <v>-2.0840060928629341E-3</v>
+      </c>
+      <c r="O6">
+        <v>-4.6233263140945107E-4</v>
+      </c>
+      <c r="P6">
+        <v>2.0927708181128052E-3</v>
+      </c>
+      <c r="Q6">
+        <v>2.8254567336999175E-4</v>
+      </c>
+      <c r="R6">
+        <v>-1.0165960014589521E-3</v>
+      </c>
+      <c r="S6">
+        <v>1.881657036740818E-3</v>
+      </c>
+      <c r="T6">
+        <v>4.1928998471542833E-3</v>
+      </c>
+      <c r="U6">
+        <v>1.3933026717907328E-3</v>
+      </c>
+      <c r="V6">
+        <v>-5.4696153609151623E-5</v>
+      </c>
+      <c r="W6">
+        <v>2.829605347458527E-4</v>
+      </c>
+      <c r="X6">
+        <v>-3.6431670063621728E-4</v>
+      </c>
+      <c r="Y6">
+        <v>3.4444722528588349E-5</v>
+      </c>
+      <c r="Z6">
+        <v>1.7820299611969703E-5</v>
+      </c>
+      <c r="AA6">
+        <v>3.661733048269223E-4</v>
+      </c>
+      <c r="AB6">
+        <v>1.9375932009242777E-4</v>
+      </c>
+      <c r="AC6">
+        <v>-7.986967509261228E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>0.2292784156516757</v>
+      </c>
+      <c r="C7">
+        <v>-1.6386311520113096E-4</v>
+      </c>
+      <c r="D7">
+        <v>1.7936595388066674E-6</v>
+      </c>
+      <c r="E7">
+        <v>8.8190370246024018E-3</v>
+      </c>
+      <c r="F7">
+        <v>1.1943165821361243E-2</v>
+      </c>
+      <c r="G7">
+        <v>1.2699637977399061E-2</v>
+      </c>
+      <c r="H7">
+        <v>1.4173623659824931E-2</v>
+      </c>
+      <c r="I7">
+        <v>1.3150104464114648E-4</v>
+      </c>
+      <c r="J7">
+        <v>-6.2816876352328964E-5</v>
+      </c>
+      <c r="K7">
+        <v>-1.1621636941372246E-3</v>
+      </c>
+      <c r="L7">
+        <v>-1.2397108932983231E-3</v>
+      </c>
+      <c r="M7">
+        <v>-2.2223327398164529E-3</v>
+      </c>
+      <c r="N7">
+        <v>-1.8074731196273896E-3</v>
+      </c>
+      <c r="O7">
+        <v>-3.13111489337456E-4</v>
+      </c>
+      <c r="P7">
+        <v>2.4951984337222006E-3</v>
+      </c>
+      <c r="Q7">
+        <v>6.0711159355980387E-4</v>
+      </c>
+      <c r="R7">
+        <v>-5.3292448940069992E-4</v>
+      </c>
+      <c r="S7">
+        <v>1.7528332087929505E-3</v>
+      </c>
+      <c r="T7">
+        <v>4.6769439602337695E-3</v>
+      </c>
+      <c r="U7">
+        <v>1.5881526960668914E-3</v>
+      </c>
+      <c r="V7">
+        <v>-3.4183590892554282E-5</v>
+      </c>
+      <c r="W7">
+        <v>2.0934949812233543E-4</v>
+      </c>
+      <c r="X7">
+        <v>-5.1645721971156644E-5</v>
+      </c>
+      <c r="Y7">
+        <v>3.3863209155418975E-4</v>
+      </c>
+      <c r="Z7">
+        <v>6.918198587869582E-6</v>
+      </c>
+      <c r="AA7">
+        <v>3.7728297854233673E-4</v>
+      </c>
+      <c r="AB7">
+        <v>2.8374192130901942E-4</v>
+      </c>
+      <c r="AC7">
+        <v>-1.1161128954004812E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>-0.14702456517083326</v>
+      </c>
+      <c r="C8">
+        <v>-1.8630262557688213E-4</v>
+      </c>
+      <c r="D8">
+        <v>2.3974931833862172E-6</v>
+      </c>
+      <c r="E8">
+        <v>-1.6449775555869698E-4</v>
+      </c>
+      <c r="F8">
+        <v>-2.4132439193694038E-4</v>
+      </c>
+      <c r="G8">
+        <v>5.4189995972829552E-5</v>
+      </c>
+      <c r="H8">
+        <v>1.3150104464114648E-4</v>
+      </c>
+      <c r="I8">
+        <v>6.8562149351013377E-4</v>
+      </c>
+      <c r="J8">
+        <v>-5.1024198668345091E-4</v>
+      </c>
+      <c r="K8">
+        <v>-8.5298936631652156E-5</v>
+      </c>
+      <c r="L8">
+        <v>-1.0221601864530169E-4</v>
+      </c>
+      <c r="M8">
+        <v>-1.1987728978236759E-4</v>
+      </c>
+      <c r="N8">
+        <v>-1.4102580860634564E-4</v>
+      </c>
+      <c r="O8">
+        <v>-4.3477745673803578E-5</v>
+      </c>
+      <c r="P8">
+        <v>4.928540016326938E-4</v>
+      </c>
+      <c r="Q8">
+        <v>-8.6565154103612665E-5</v>
+      </c>
+      <c r="R8">
+        <v>-1.9222955637913049E-4</v>
+      </c>
+      <c r="S8">
+        <v>-3.4538688708989074E-4</v>
+      </c>
+      <c r="T8">
+        <v>1.2370298651672389E-4</v>
+      </c>
+      <c r="U8">
+        <v>1.8172215799587918E-5</v>
+      </c>
+      <c r="V8">
+        <v>-3.1245526984381104E-5</v>
+      </c>
+      <c r="W8">
+        <v>3.1000778825506338E-4</v>
+      </c>
+      <c r="X8">
+        <v>3.7203652162116637E-5</v>
+      </c>
+      <c r="Y8">
+        <v>1.5159221627661693E-5</v>
+      </c>
+      <c r="Z8">
+        <v>1.2119011141286793E-5</v>
+      </c>
+      <c r="AA8">
+        <v>-2.41785520749659E-6</v>
+      </c>
+      <c r="AB8">
+        <v>-1.4987247541096581E-4</v>
+      </c>
+      <c r="AC8">
+        <v>3.215871336791366E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>2.4325679145597422E-2</v>
+      </c>
+      <c r="C9">
+        <v>7.0827215930471289E-5</v>
+      </c>
+      <c r="D9">
+        <v>7.0910289269856207E-9</v>
+      </c>
+      <c r="E9">
+        <v>3.6681714086549545E-4</v>
+      </c>
+      <c r="F9">
+        <v>-1.2691182192615599E-9</v>
+      </c>
+      <c r="G9">
+        <v>-2.9842692368282713E-4</v>
+      </c>
+      <c r="H9">
+        <v>-6.2816876352328964E-5</v>
+      </c>
+      <c r="I9">
+        <v>-5.1024198668345091E-4</v>
+      </c>
+      <c r="J9">
+        <v>2.3968932351556898E-3</v>
+      </c>
+      <c r="K9">
+        <v>1.5377244839370155E-4</v>
+      </c>
+      <c r="L9">
+        <v>-2.9660483498590053E-5</v>
+      </c>
+      <c r="M9">
+        <v>-2.4609829296572393E-4</v>
+      </c>
+      <c r="N9">
+        <v>2.3882946465188828E-5</v>
+      </c>
+      <c r="O9">
+        <v>2.9684540808633898E-4</v>
+      </c>
+      <c r="P9">
+        <v>2.0602830014086274E-4</v>
+      </c>
+      <c r="Q9">
+        <v>1.6829138311683236E-4</v>
+      </c>
+      <c r="R9">
+        <v>7.0395647860731878E-5</v>
+      </c>
+      <c r="S9">
+        <v>-2.296670817320584E-4</v>
+      </c>
+      <c r="T9">
+        <v>-1.8701068294554697E-4</v>
+      </c>
+      <c r="U9">
+        <v>-4.0740730551853504E-4</v>
+      </c>
+      <c r="V9">
+        <v>-9.0280219900468057E-5</v>
+      </c>
+      <c r="W9">
+        <v>-3.3838495811496091E-4</v>
+      </c>
+      <c r="X9">
+        <v>8.6441380980626612E-5</v>
+      </c>
+      <c r="Y9">
+        <v>-6.2290560972090779E-6</v>
+      </c>
+      <c r="Z9">
+        <v>-1.1242467641527222E-5</v>
+      </c>
+      <c r="AA9">
+        <v>-2.6730556081683505E-4</v>
+      </c>
+      <c r="AB9">
+        <v>-1.0189908231173618E-5</v>
+      </c>
+      <c r="AC9">
+        <v>-1.5769681521848925E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>0.29978918518451098</v>
+      </c>
+      <c r="C10">
+        <v>5.4762602511712957E-4</v>
+      </c>
+      <c r="D10">
+        <v>-8.7791918466496692E-6</v>
+      </c>
+      <c r="E10">
+        <v>-1.3503693646363356E-3</v>
+      </c>
+      <c r="F10">
+        <v>-1.1843116875422579E-3</v>
+      </c>
+      <c r="G10">
+        <v>-1.2780430916823683E-3</v>
+      </c>
+      <c r="H10">
+        <v>-1.1621636941372246E-3</v>
+      </c>
+      <c r="I10">
+        <v>-8.5298936631652156E-5</v>
+      </c>
+      <c r="J10">
+        <v>1.5377244839370155E-4</v>
+      </c>
+      <c r="K10">
+        <v>0.14878525230320516</v>
+      </c>
+      <c r="L10">
+        <v>0.12627970458844784</v>
+      </c>
+      <c r="M10">
+        <v>0.12627746996894568</v>
+      </c>
+      <c r="N10">
+        <v>0.12622104399066042</v>
+      </c>
+      <c r="O10">
+        <v>1.2371701217564098E-3</v>
+      </c>
+      <c r="P10">
+        <v>-5.1497696858347417E-4</v>
+      </c>
+      <c r="Q10">
+        <v>8.6454305426891809E-5</v>
+      </c>
+      <c r="R10">
+        <v>9.326373362703276E-4</v>
+      </c>
+      <c r="S10">
+        <v>5.1110052188235167E-3</v>
+      </c>
+      <c r="T10">
+        <v>2.4624103547837839E-5</v>
+      </c>
+      <c r="U10">
+        <v>-2.7062029347073996E-4</v>
+      </c>
+      <c r="V10">
+        <v>-4.5314119654765728E-4</v>
+      </c>
+      <c r="W10">
+        <v>-7.6813540030744309E-4</v>
+      </c>
+      <c r="X10">
+        <v>-3.5993191884685014E-4</v>
+      </c>
+      <c r="Y10">
+        <v>1.7545854591904941E-4</v>
+      </c>
+      <c r="Z10">
+        <v>4.1216974844612755E-5</v>
+      </c>
+      <c r="AA10">
+        <v>-1.0709235954296584E-3</v>
+      </c>
+      <c r="AB10">
+        <v>-3.1511416008016269E-4</v>
+      </c>
+      <c r="AC10">
+        <v>-0.14082185776189116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>0.1433478043482809</v>
+      </c>
+      <c r="C11">
+        <v>5.8787416431339834E-4</v>
+      </c>
+      <c r="D11">
+        <v>-8.5453232838248881E-6</v>
+      </c>
+      <c r="E11">
+        <v>-1.200644211375816E-3</v>
+      </c>
+      <c r="F11">
+        <v>-1.7396147500703882E-3</v>
+      </c>
+      <c r="G11">
+        <v>-1.7865243125453909E-3</v>
+      </c>
+      <c r="H11">
+        <v>-1.2397108932983231E-3</v>
+      </c>
+      <c r="I11">
+        <v>-1.0221601864530169E-4</v>
+      </c>
+      <c r="J11">
+        <v>-2.9660483498590053E-5</v>
+      </c>
+      <c r="K11">
+        <v>0.12627970458844784</v>
+      </c>
+      <c r="L11">
+        <v>0.13226349990628172</v>
+      </c>
+      <c r="M11">
+        <v>0.12734840052923002</v>
+      </c>
+      <c r="N11">
+        <v>0.12726634376529289</v>
+      </c>
+      <c r="O11">
+        <v>1.6028744078520063E-3</v>
+      </c>
+      <c r="P11">
+        <v>-1.4517843355001461E-4</v>
+      </c>
+      <c r="Q11">
+        <v>2.9864524199625653E-4</v>
+      </c>
+      <c r="R11">
+        <v>2.2401781514436239E-3</v>
+      </c>
+      <c r="S11">
+        <v>1.9126615936774227E-3</v>
+      </c>
+      <c r="T11">
+        <v>7.1868912102651672E-4</v>
+      </c>
+      <c r="U11">
+        <v>4.0237242028919734E-4</v>
+      </c>
+      <c r="V11">
+        <v>-8.2422828415933472E-5</v>
+      </c>
+      <c r="W11">
+        <v>-4.3981388819462619E-4</v>
+      </c>
+      <c r="X11">
+        <v>-2.270518397617903E-4</v>
+      </c>
+      <c r="Y11">
+        <v>2.9397156412953179E-4</v>
+      </c>
+      <c r="Z11">
+        <v>1.7836731087212277E-5</v>
+      </c>
+      <c r="AA11">
+        <v>-6.3525137767381917E-4</v>
+      </c>
+      <c r="AB11">
+        <v>-5.4796408552673648E-5</v>
+      </c>
+      <c r="AC11">
+        <v>-0.13898798975978854</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>0.37918654061178864</v>
+      </c>
+      <c r="C12">
+        <v>7.6397970507493043E-4</v>
+      </c>
+      <c r="D12">
+        <v>-1.0936051535489328E-5</v>
+      </c>
+      <c r="E12">
+        <v>-9.3451495160333346E-4</v>
+      </c>
+      <c r="F12">
+        <v>-2.5699035222494664E-3</v>
+      </c>
+      <c r="G12">
+        <v>-2.3987388620724096E-3</v>
+      </c>
+      <c r="H12">
+        <v>-2.2223327398164529E-3</v>
+      </c>
+      <c r="I12">
+        <v>-1.1987728978236759E-4</v>
+      </c>
+      <c r="J12">
+        <v>-2.4609829296572393E-4</v>
+      </c>
+      <c r="K12">
+        <v>0.12627746996894568</v>
+      </c>
+      <c r="L12">
+        <v>0.12734840052923002</v>
+      </c>
+      <c r="M12">
+        <v>0.12817544984476281</v>
+      </c>
+      <c r="N12">
+        <v>0.12759341343965908</v>
+      </c>
+      <c r="O12">
+        <v>1.7482600377531389E-3</v>
+      </c>
+      <c r="P12">
+        <v>-4.2585017902223993E-4</v>
+      </c>
+      <c r="Q12">
+        <v>6.5166278190732785E-5</v>
+      </c>
+      <c r="R12">
+        <v>2.4475013129420728E-3</v>
+      </c>
+      <c r="S12">
+        <v>1.584818916172348E-3</v>
+      </c>
+      <c r="T12">
+        <v>-4.3143290512538679E-4</v>
+      </c>
+      <c r="U12">
+        <v>6.5124228427429487E-4</v>
+      </c>
+      <c r="V12">
+        <v>-9.8587365584712483E-5</v>
+      </c>
+      <c r="W12">
+        <v>2.5481118708245432E-5</v>
+      </c>
+      <c r="X12">
+        <v>8.7433953243187118E-5</v>
+      </c>
+      <c r="Y12">
+        <v>2.0454291624991475E-4</v>
+      </c>
+      <c r="Z12">
+        <v>9.0785775090072331E-6</v>
+      </c>
+      <c r="AA12">
+        <v>-7.2023990771320073E-4</v>
+      </c>
+      <c r="AB12">
+        <v>-2.0933975723966269E-4</v>
+      </c>
+      <c r="AC12">
+        <v>-0.1409192192640476</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>0.31101733833788259</v>
+      </c>
+      <c r="C13">
+        <v>7.6130637845081214E-4</v>
+      </c>
+      <c r="D13">
+        <v>-1.0597248580594416E-5</v>
+      </c>
+      <c r="E13">
+        <v>-8.1800971557898731E-4</v>
+      </c>
+      <c r="F13">
+        <v>-2.2996402330196547E-3</v>
+      </c>
+      <c r="G13">
+        <v>-2.0840060928629341E-3</v>
+      </c>
+      <c r="H13">
+        <v>-1.8074731196273896E-3</v>
+      </c>
+      <c r="I13">
+        <v>-1.4102580860634564E-4</v>
+      </c>
+      <c r="J13">
+        <v>2.3882946465188828E-5</v>
+      </c>
+      <c r="K13">
+        <v>0.12622104399066042</v>
+      </c>
+      <c r="L13">
+        <v>0.12726634376529289</v>
+      </c>
+      <c r="M13">
+        <v>0.12759341343965908</v>
+      </c>
+      <c r="N13">
+        <v>0.12883164226220428</v>
+      </c>
+      <c r="O13">
+        <v>1.5978592333549535E-3</v>
+      </c>
+      <c r="P13">
+        <v>-2.3806608344676544E-4</v>
+      </c>
+      <c r="Q13">
+        <v>1.5840791137201882E-4</v>
+      </c>
+      <c r="R13">
+        <v>2.5454591350424459E-3</v>
+      </c>
+      <c r="S13">
+        <v>1.3050014700020096E-3</v>
+      </c>
+      <c r="T13">
+        <v>1.4318628017220836E-5</v>
+      </c>
+      <c r="U13">
+        <v>7.6369801526789821E-4</v>
+      </c>
+      <c r="V13">
+        <v>7.2219692256176096E-5</v>
+      </c>
+      <c r="W13">
+        <v>-8.3678680798407457E-5</v>
+      </c>
+      <c r="X13">
+        <v>1.4259695783727308E-4</v>
+      </c>
+      <c r="Y13">
+        <v>4.5594261040222614E-4</v>
+      </c>
+      <c r="Z13">
+        <v>2.3055072983105794E-5</v>
+      </c>
+      <c r="AA13">
+        <v>-9.4611015663131209E-4</v>
+      </c>
+      <c r="AB13">
+        <v>-3.4661140095855469E-4</v>
+      </c>
+      <c r="AC13">
+        <v>-0.14155238418697369</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>-1.2977025062609999</v>
+      </c>
+      <c r="C14">
+        <v>5.0086543685539287E-4</v>
+      </c>
+      <c r="D14">
+        <v>-6.6524615736594614E-6</v>
+      </c>
+      <c r="E14">
+        <v>-1.7024617000220294E-4</v>
+      </c>
+      <c r="F14">
+        <v>-5.4146835114354547E-4</v>
+      </c>
+      <c r="G14">
+        <v>-4.6233263140945107E-4</v>
+      </c>
+      <c r="H14">
+        <v>-3.13111489337456E-4</v>
+      </c>
+      <c r="I14">
+        <v>-4.3477745673803578E-5</v>
+      </c>
+      <c r="J14">
+        <v>2.9684540808633898E-4</v>
+      </c>
+      <c r="K14">
+        <v>1.2371701217564098E-3</v>
+      </c>
+      <c r="L14">
+        <v>1.6028744078520063E-3</v>
+      </c>
+      <c r="M14">
+        <v>1.7482600377531389E-3</v>
+      </c>
+      <c r="N14">
+        <v>1.5978592333549535E-3</v>
+      </c>
+      <c r="O14">
+        <v>1.1341641608859448E-2</v>
+      </c>
+      <c r="P14">
+        <v>-8.4587239804313503E-3</v>
+      </c>
+      <c r="Q14">
+        <v>-6.400838025002846E-6</v>
+      </c>
+      <c r="R14">
+        <v>-6.7116684058198906E-5</v>
+      </c>
+      <c r="S14">
+        <v>4.6080403127848196E-4</v>
+      </c>
+      <c r="T14">
+        <v>-9.2511191729383654E-5</v>
+      </c>
+      <c r="U14">
+        <v>4.510368710206441E-4</v>
+      </c>
+      <c r="V14">
+        <v>-2.6041585357547593E-5</v>
+      </c>
+      <c r="W14">
+        <v>1.7260599155957462E-4</v>
+      </c>
+      <c r="X14">
+        <v>3.0351309080043086E-4</v>
+      </c>
+      <c r="Y14">
+        <v>2.5603008474925641E-5</v>
+      </c>
+      <c r="Z14">
+        <v>-5.9054300137238929E-5</v>
+      </c>
+      <c r="AA14">
+        <v>3.2276381591607938E-4</v>
+      </c>
+      <c r="AB14">
+        <v>-1.2529107611121393E-4</v>
+      </c>
+      <c r="AC14">
+        <v>-1.0260595912764597E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>0.3524230505095004</v>
+      </c>
+      <c r="C15">
+        <v>1.4103045986290958E-4</v>
+      </c>
+      <c r="D15">
+        <v>-1.4936905711491782E-6</v>
+      </c>
+      <c r="E15">
+        <v>6.1492837201171889E-4</v>
+      </c>
+      <c r="F15">
+        <v>1.6883641818154769E-3</v>
+      </c>
+      <c r="G15">
+        <v>2.0927708181128052E-3</v>
+      </c>
+      <c r="H15">
+        <v>2.4951984337222006E-3</v>
+      </c>
+      <c r="I15">
+        <v>4.928540016326938E-4</v>
+      </c>
+      <c r="J15">
+        <v>2.0602830014086274E-4</v>
+      </c>
+      <c r="K15">
+        <v>-5.1497696858347417E-4</v>
+      </c>
+      <c r="L15">
+        <v>-1.4517843355001461E-4</v>
+      </c>
+      <c r="M15">
+        <v>-4.2585017902223993E-4</v>
+      </c>
+      <c r="N15">
+        <v>-2.3806608344676544E-4</v>
+      </c>
+      <c r="O15">
+        <v>-8.4587239804313503E-3</v>
+      </c>
+      <c r="P15">
+        <v>1.0502439656287136E-2</v>
+      </c>
+      <c r="Q15">
+        <v>3.7413476630996528E-5</v>
+      </c>
+      <c r="R15">
+        <v>5.2228725405707483E-4</v>
+      </c>
+      <c r="S15">
+        <v>-9.9378779692531078E-4</v>
+      </c>
+      <c r="T15">
+        <v>4.8713695556201286E-4</v>
+      </c>
+      <c r="U15">
+        <v>2.0570639683466929E-4</v>
+      </c>
+      <c r="V15">
+        <v>-3.1875690508269386E-4</v>
+      </c>
+      <c r="W15">
+        <v>-1.0875086796427165E-4</v>
+      </c>
+      <c r="X15">
+        <v>-2.0011545726547327E-4</v>
+      </c>
+      <c r="Y15">
+        <v>-3.475431971622322E-4</v>
+      </c>
+      <c r="Z15">
+        <v>3.1594869106669861E-5</v>
+      </c>
+      <c r="AA15">
+        <v>-9.6966780673379111E-5</v>
+      </c>
+      <c r="AB15">
+        <v>-6.2989349903705676E-6</v>
+      </c>
+      <c r="AC15">
+        <v>-4.8720707954054039E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>2.4479067656800899E-2</v>
+      </c>
+      <c r="C16">
+        <v>2.6846599287483688E-4</v>
+      </c>
+      <c r="D16">
+        <v>-4.1828667863125812E-6</v>
+      </c>
+      <c r="E16">
+        <v>6.0432022592265416E-4</v>
+      </c>
+      <c r="F16">
+        <v>1.0342242115340256E-4</v>
+      </c>
+      <c r="G16">
+        <v>2.8254567336999175E-4</v>
+      </c>
+      <c r="H16">
+        <v>6.0711159355980387E-4</v>
+      </c>
+      <c r="I16">
+        <v>-8.6565154103612665E-5</v>
+      </c>
+      <c r="J16">
+        <v>1.6829138311683236E-4</v>
+      </c>
+      <c r="K16">
+        <v>8.6454305426891809E-5</v>
+      </c>
+      <c r="L16">
+        <v>2.9864524199625653E-4</v>
+      </c>
+      <c r="M16">
+        <v>6.5166278190732785E-5</v>
+      </c>
+      <c r="N16">
+        <v>1.5840791137201882E-4</v>
+      </c>
+      <c r="O16">
+        <v>-6.400838025002846E-6</v>
+      </c>
+      <c r="P16">
+        <v>3.7413476630996528E-5</v>
+      </c>
+      <c r="Q16">
+        <v>1.639001900097845E-3</v>
+      </c>
+      <c r="R16">
+        <v>1.1565872815602601E-3</v>
+      </c>
+      <c r="S16">
+        <v>5.6130754987023922E-4</v>
+      </c>
+      <c r="T16">
+        <v>3.0645914027556138E-4</v>
+      </c>
+      <c r="U16">
+        <v>-2.1353903958132151E-4</v>
+      </c>
+      <c r="V16">
+        <v>-1.324105212069283E-4</v>
+      </c>
+      <c r="W16">
+        <v>3.54390405969034E-6</v>
+      </c>
+      <c r="X16">
+        <v>1.8139032086267153E-5</v>
+      </c>
+      <c r="Y16">
+        <v>1.7558366586873915E-4</v>
+      </c>
+      <c r="Z16">
+        <v>1.768354175508109E-5</v>
+      </c>
+      <c r="AA16">
+        <v>-1.4323844702985623E-4</v>
+      </c>
+      <c r="AB16">
+        <v>-5.6475426834193916E-5</v>
+      </c>
+      <c r="AC16">
+        <v>-6.5193623063989417E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>0.10750666611900896</v>
+      </c>
+      <c r="C17">
+        <v>8.4767201095952479E-4</v>
+      </c>
+      <c r="D17">
+        <v>-1.2591102335872349E-5</v>
+      </c>
+      <c r="E17">
+        <v>-1.185816926129283E-3</v>
+      </c>
+      <c r="F17">
+        <v>-1.3185659600419282E-3</v>
+      </c>
+      <c r="G17">
+        <v>-1.0165960014589521E-3</v>
+      </c>
+      <c r="H17">
+        <v>-5.3292448940069992E-4</v>
+      </c>
+      <c r="I17">
+        <v>-1.9222955637913049E-4</v>
+      </c>
+      <c r="J17">
+        <v>7.0395647860731878E-5</v>
+      </c>
+      <c r="K17">
+        <v>9.326373362703276E-4</v>
+      </c>
+      <c r="L17">
+        <v>2.2401781514436239E-3</v>
+      </c>
+      <c r="M17">
+        <v>2.4475013129420728E-3</v>
+      </c>
+      <c r="N17">
+        <v>2.5454591350424459E-3</v>
+      </c>
+      <c r="O17">
+        <v>-6.7116684058198906E-5</v>
+      </c>
+      <c r="P17">
+        <v>5.2228725405707483E-4</v>
+      </c>
+      <c r="Q17">
+        <v>1.1565872815602601E-3</v>
+      </c>
+      <c r="R17">
+        <v>7.5737097484364149E-3</v>
+      </c>
+      <c r="S17">
+        <v>2.1769866086991368E-3</v>
+      </c>
+      <c r="T17">
+        <v>-9.5707695601135066E-4</v>
+      </c>
+      <c r="U17">
+        <v>-4.896151496621182E-4</v>
+      </c>
+      <c r="V17">
+        <v>-1.3028231128863065E-4</v>
+      </c>
+      <c r="W17">
+        <v>-7.6430943904509619E-5</v>
+      </c>
+      <c r="X17">
+        <v>-1.0270714257049193E-4</v>
+      </c>
+      <c r="Y17">
+        <v>2.6683394313617187E-4</v>
+      </c>
+      <c r="Z17">
+        <v>1.9550893671773506E-5</v>
+      </c>
+      <c r="AA17">
+        <v>-2.3529725315190003E-4</v>
+      </c>
+      <c r="AB17">
+        <v>-1.4313633124585657E-4</v>
+      </c>
+      <c r="AC17">
+        <v>-1.9487468604409211E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>0.52884050990589027</v>
+      </c>
+      <c r="C18">
+        <v>1.5212513754893839E-3</v>
+      </c>
+      <c r="D18">
+        <v>-2.3419024201708997E-5</v>
+      </c>
+      <c r="E18">
+        <v>4.3965898327091354E-3</v>
+      </c>
+      <c r="F18">
+        <v>1.7626659257910324E-3</v>
+      </c>
+      <c r="G18">
+        <v>1.881657036740818E-3</v>
+      </c>
+      <c r="H18">
+        <v>1.7528332087929505E-3</v>
+      </c>
+      <c r="I18">
+        <v>-3.4538688708989074E-4</v>
+      </c>
+      <c r="J18">
+        <v>-2.296670817320584E-4</v>
+      </c>
+      <c r="K18">
+        <v>5.1110052188235167E-3</v>
+      </c>
+      <c r="L18">
+        <v>1.9126615936774227E-3</v>
+      </c>
+      <c r="M18">
+        <v>1.584818916172348E-3</v>
+      </c>
+      <c r="N18">
+        <v>1.3050014700020096E-3</v>
+      </c>
+      <c r="O18">
+        <v>4.6080403127848196E-4</v>
+      </c>
+      <c r="P18">
+        <v>-9.9378779692531078E-4</v>
+      </c>
+      <c r="Q18">
+        <v>5.6130754987023922E-4</v>
+      </c>
+      <c r="R18">
+        <v>2.1769866086991368E-3</v>
+      </c>
+      <c r="S18">
+        <v>7.0077705117639666E-2</v>
+      </c>
+      <c r="T18">
+        <v>1.2989745284579593E-3</v>
+      </c>
+      <c r="U18">
+        <v>-1.7044349845051453E-4</v>
+      </c>
+      <c r="V18">
+        <v>-8.5006808060613249E-4</v>
+      </c>
+      <c r="W18">
+        <v>6.721508560447037E-4</v>
+      </c>
+      <c r="X18">
+        <v>-1.0505416024151463E-3</v>
+      </c>
+      <c r="Y18">
+        <v>1.1658478792299018E-4</v>
+      </c>
+      <c r="Z18">
+        <v>1.7010121133049475E-4</v>
+      </c>
+      <c r="AA18">
+        <v>-3.9361491439488657E-3</v>
+      </c>
+      <c r="AB18">
+        <v>1.7463050996927368E-4</v>
+      </c>
+      <c r="AC18">
+        <v>-0.12437092013677398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>-9.7277949352354925E-2</v>
+      </c>
+      <c r="C19">
+        <v>1.8712331455505646E-4</v>
+      </c>
+      <c r="D19">
+        <v>-2.4593523277999761E-6</v>
+      </c>
+      <c r="E19">
+        <v>1.215931455950961E-3</v>
+      </c>
+      <c r="F19">
+        <v>3.9299214269495472E-3</v>
+      </c>
+      <c r="G19">
+        <v>4.1928998471542833E-3</v>
+      </c>
+      <c r="H19">
+        <v>4.6769439602337695E-3</v>
+      </c>
+      <c r="I19">
+        <v>1.2370298651672389E-4</v>
+      </c>
+      <c r="J19">
+        <v>-1.8701068294554697E-4</v>
+      </c>
+      <c r="K19">
+        <v>2.4624103547837839E-5</v>
+      </c>
+      <c r="L19">
+        <v>7.1868912102651672E-4</v>
+      </c>
+      <c r="M19">
+        <v>-4.3143290512538679E-4</v>
+      </c>
+      <c r="N19">
+        <v>1.4318628017220836E-5</v>
+      </c>
+      <c r="O19">
+        <v>-9.2511191729383654E-5</v>
+      </c>
+      <c r="P19">
+        <v>4.8713695556201286E-4</v>
+      </c>
+      <c r="Q19">
+        <v>3.0645914027556138E-4</v>
+      </c>
+      <c r="R19">
+        <v>-9.5707695601135066E-4</v>
+      </c>
+      <c r="S19">
+        <v>1.2989745284579593E-3</v>
+      </c>
+      <c r="T19">
+        <v>1.4924067687755945E-2</v>
+      </c>
+      <c r="U19">
+        <v>1.3794022607466127E-3</v>
+      </c>
+      <c r="V19">
+        <v>1.2396227157476618E-4</v>
+      </c>
+      <c r="W19">
+        <v>-2.336639746841414E-4</v>
+      </c>
+      <c r="X19">
+        <v>1.5135428332464155E-4</v>
+      </c>
+      <c r="Y19">
+        <v>4.3458495013149389E-4</v>
+      </c>
+      <c r="Z19">
+        <v>-4.098250420788525E-5</v>
+      </c>
+      <c r="AA19">
+        <v>5.463347240770083E-4</v>
+      </c>
+      <c r="AB19">
+        <v>3.7559696354284335E-4</v>
+      </c>
+      <c r="AC19">
+        <v>-9.5194506122060207E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>-7.81831289449628E-3</v>
+      </c>
+      <c r="C20">
+        <v>7.4585332874469151E-5</v>
+      </c>
+      <c r="D20">
+        <v>-9.8889102291815217E-7</v>
+      </c>
+      <c r="E20">
+        <v>-6.9323190143506612E-4</v>
+      </c>
+      <c r="F20">
+        <v>7.2932150521406579E-4</v>
+      </c>
+      <c r="G20">
+        <v>1.3933026717907328E-3</v>
+      </c>
+      <c r="H20">
+        <v>1.5881526960668914E-3</v>
+      </c>
+      <c r="I20">
+        <v>1.8172215799587918E-5</v>
+      </c>
+      <c r="J20">
+        <v>-4.0740730551853504E-4</v>
+      </c>
+      <c r="K20">
+        <v>-2.7062029347073996E-4</v>
+      </c>
+      <c r="L20">
+        <v>4.0237242028919734E-4</v>
+      </c>
+      <c r="M20">
+        <v>6.5124228427429487E-4</v>
+      </c>
+      <c r="N20">
+        <v>7.6369801526789821E-4</v>
+      </c>
+      <c r="O20">
+        <v>4.510368710206441E-4</v>
+      </c>
+      <c r="P20">
+        <v>2.0570639683466929E-4</v>
+      </c>
+      <c r="Q20">
+        <v>-2.1353903958132151E-4</v>
+      </c>
+      <c r="R20">
+        <v>-4.896151496621182E-4</v>
+      </c>
+      <c r="S20">
+        <v>-1.7044349845051453E-4</v>
+      </c>
+      <c r="T20">
+        <v>1.3794022607466127E-3</v>
+      </c>
+      <c r="U20">
+        <v>2.567770024409337E-3</v>
+      </c>
+      <c r="V20">
+        <v>3.1888725510905615E-5</v>
+      </c>
+      <c r="W20">
+        <v>2.7584695683541337E-4</v>
+      </c>
+      <c r="X20">
+        <v>3.2869607009700205E-4</v>
+      </c>
+      <c r="Y20">
+        <v>6.668529795969796E-5</v>
+      </c>
+      <c r="Z20">
+        <v>7.2307244565101763E-6</v>
+      </c>
+      <c r="AA20">
+        <v>-1.5986069548154649E-4</v>
+      </c>
+      <c r="AB20">
+        <v>-3.5952068318148892E-5</v>
+      </c>
+      <c r="AC20">
+        <v>-3.7270062534334805E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>2.6091819286854827E-2</v>
+      </c>
+      <c r="C21">
+        <v>-1.0931952386821213E-4</v>
+      </c>
+      <c r="D21">
+        <v>1.4038163966172352E-6</v>
+      </c>
+      <c r="E21">
+        <v>9.2835519880955439E-6</v>
+      </c>
+      <c r="F21">
+        <v>1.9653571165228163E-4</v>
+      </c>
+      <c r="G21">
+        <v>-5.4696153609151623E-5</v>
+      </c>
+      <c r="H21">
+        <v>-3.4183590892554282E-5</v>
+      </c>
+      <c r="I21">
+        <v>-3.1245526984381104E-5</v>
+      </c>
+      <c r="J21">
+        <v>-9.0280219900468057E-5</v>
+      </c>
+      <c r="K21">
+        <v>-4.5314119654765728E-4</v>
+      </c>
+      <c r="L21">
+        <v>-8.2422828415933472E-5</v>
+      </c>
+      <c r="M21">
+        <v>-9.8587365584712483E-5</v>
+      </c>
+      <c r="N21">
+        <v>7.2219692256176096E-5</v>
+      </c>
+      <c r="O21">
+        <v>-2.6041585357547593E-5</v>
+      </c>
+      <c r="P21">
+        <v>-3.1875690508269386E-4</v>
+      </c>
+      <c r="Q21">
+        <v>-1.324105212069283E-4</v>
+      </c>
+      <c r="R21">
+        <v>-1.3028231128863065E-4</v>
+      </c>
+      <c r="S21">
+        <v>-8.5006808060613249E-4</v>
+      </c>
+      <c r="T21">
+        <v>1.2396227157476618E-4</v>
+      </c>
+      <c r="U21">
+        <v>3.1888725510905615E-5</v>
+      </c>
+      <c r="V21">
+        <v>3.7865729561209305E-3</v>
+      </c>
+      <c r="W21">
+        <v>1.717479076485038E-3</v>
+      </c>
+      <c r="X21">
+        <v>1.7043847457838795E-3</v>
+      </c>
+      <c r="Y21">
+        <v>1.7027194257957299E-3</v>
+      </c>
+      <c r="Z21">
+        <v>-2.0872426216330844E-5</v>
+      </c>
+      <c r="AA21">
+        <v>-5.611906361368677E-5</v>
+      </c>
+      <c r="AB21">
+        <v>2.0046640641630906E-4</v>
+      </c>
+      <c r="AC21">
+        <v>2.0348979392264604E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>-3.302432123556677E-2</v>
+      </c>
+      <c r="C22">
+        <v>-1.6779065361285494E-4</v>
+      </c>
+      <c r="D22">
+        <v>1.9740948978267642E-6</v>
+      </c>
+      <c r="E22">
+        <v>2.5221105895481782E-4</v>
+      </c>
+      <c r="F22">
+        <v>-8.513524038617176E-5</v>
+      </c>
+      <c r="G22">
+        <v>2.829605347458527E-4</v>
+      </c>
+      <c r="H22">
+        <v>2.0934949812233543E-4</v>
+      </c>
+      <c r="I22">
+        <v>3.1000778825506338E-4</v>
+      </c>
+      <c r="J22">
+        <v>-3.3838495811496091E-4</v>
+      </c>
+      <c r="K22">
+        <v>-7.6813540030744309E-4</v>
+      </c>
+      <c r="L22">
+        <v>-4.3981388819462619E-4</v>
+      </c>
+      <c r="M22">
+        <v>2.5481118708245432E-5</v>
+      </c>
+      <c r="N22">
+        <v>-8.3678680798407457E-5</v>
+      </c>
+      <c r="O22">
+        <v>1.7260599155957462E-4</v>
+      </c>
+      <c r="P22">
+        <v>-1.0875086796427165E-4</v>
+      </c>
+      <c r="Q22">
+        <v>3.54390405969034E-6</v>
+      </c>
+      <c r="R22">
+        <v>-7.6430943904509619E-5</v>
+      </c>
+      <c r="S22">
+        <v>6.721508560447037E-4</v>
+      </c>
+      <c r="T22">
+        <v>-2.336639746841414E-4</v>
+      </c>
+      <c r="U22">
+        <v>2.7584695683541337E-4</v>
+      </c>
+      <c r="V22">
+        <v>1.717479076485038E-3</v>
+      </c>
+      <c r="W22">
+        <v>5.7684402190429024E-3</v>
+      </c>
+      <c r="X22">
+        <v>1.7021666750890807E-3</v>
+      </c>
+      <c r="Y22">
+        <v>1.7125061993478639E-3</v>
+      </c>
+      <c r="Z22">
+        <v>-3.2733428966463393E-6</v>
+      </c>
+      <c r="AA22">
+        <v>-1.8552715959157983E-4</v>
+      </c>
+      <c r="AB22">
+        <v>-8.5405266374358456E-5</v>
+      </c>
+      <c r="AC22">
+        <v>3.6143152105537479E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23">
+        <v>3.0933041745738916E-2</v>
+      </c>
+      <c r="C23">
+        <v>-2.0749338459930488E-4</v>
+      </c>
+      <c r="D23">
+        <v>3.310349913192304E-6</v>
+      </c>
+      <c r="E23">
+        <v>-9.2761560780744122E-4</v>
+      </c>
+      <c r="F23">
+        <v>-4.3299378225466676E-4</v>
+      </c>
+      <c r="G23">
+        <v>-3.6431670063621728E-4</v>
+      </c>
+      <c r="H23">
+        <v>-5.1645721971156644E-5</v>
+      </c>
+      <c r="I23">
+        <v>3.7203652162116637E-5</v>
+      </c>
+      <c r="J23">
+        <v>8.6441380980626612E-5</v>
+      </c>
+      <c r="K23">
+        <v>-3.5993191884685014E-4</v>
+      </c>
+      <c r="L23">
+        <v>-2.270518397617903E-4</v>
+      </c>
+      <c r="M23">
+        <v>8.7433953243187118E-5</v>
+      </c>
+      <c r="N23">
+        <v>1.4259695783727308E-4</v>
+      </c>
+      <c r="O23">
+        <v>3.0351309080043086E-4</v>
+      </c>
+      <c r="P23">
+        <v>-2.0011545726547327E-4</v>
+      </c>
+      <c r="Q23">
+        <v>1.8139032086267153E-5</v>
+      </c>
+      <c r="R23">
+        <v>-1.0270714257049193E-4</v>
+      </c>
+      <c r="S23">
+        <v>-1.0505416024151463E-3</v>
+      </c>
+      <c r="T23">
+        <v>1.5135428332464155E-4</v>
+      </c>
+      <c r="U23">
+        <v>3.2869607009700205E-4</v>
+      </c>
+      <c r="V23">
+        <v>1.7043847457838795E-3</v>
+      </c>
+      <c r="W23">
+        <v>1.7021666750890807E-3</v>
+      </c>
+      <c r="X23">
+        <v>3.8973985190605977E-3</v>
+      </c>
+      <c r="Y23">
+        <v>1.7256639260714891E-3</v>
+      </c>
+      <c r="Z23">
+        <v>-1.6916891520273331E-5</v>
+      </c>
+      <c r="AA23">
+        <v>-1.2006427280381358E-5</v>
+      </c>
+      <c r="AB23">
+        <v>-9.4915709889197171E-5</v>
+      </c>
+      <c r="AC23">
+        <v>3.227778237769049E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24">
+        <v>3.497258374983573E-2</v>
+      </c>
+      <c r="C24">
+        <v>-9.5783296306420048E-5</v>
+      </c>
+      <c r="D24">
+        <v>1.2173127487731499E-6</v>
+      </c>
+      <c r="E24">
+        <v>-9.0626276028116497E-5</v>
+      </c>
+      <c r="F24">
+        <v>1.2107516790364758E-8</v>
+      </c>
+      <c r="G24">
+        <v>3.4444722528588349E-5</v>
+      </c>
+      <c r="H24">
+        <v>3.3863209155418975E-4</v>
+      </c>
+      <c r="I24">
+        <v>1.5159221627661693E-5</v>
+      </c>
+      <c r="J24">
+        <v>-6.2290560972090779E-6</v>
+      </c>
+      <c r="K24">
+        <v>1.7545854591904941E-4</v>
+      </c>
+      <c r="L24">
+        <v>2.9397156412953179E-4</v>
+      </c>
+      <c r="M24">
+        <v>2.0454291624991475E-4</v>
+      </c>
+      <c r="N24">
+        <v>4.5594261040222614E-4</v>
+      </c>
+      <c r="O24">
+        <v>2.5603008474925641E-5</v>
+      </c>
+      <c r="P24">
+        <v>-3.475431971622322E-4</v>
+      </c>
+      <c r="Q24">
+        <v>1.7558366586873915E-4</v>
+      </c>
+      <c r="R24">
+        <v>2.6683394313617187E-4</v>
+      </c>
+      <c r="S24">
+        <v>1.1658478792299018E-4</v>
+      </c>
+      <c r="T24">
+        <v>4.3458495013149389E-4</v>
+      </c>
+      <c r="U24">
+        <v>6.668529795969796E-5</v>
+      </c>
+      <c r="V24">
+        <v>1.7027194257957299E-3</v>
+      </c>
+      <c r="W24">
+        <v>1.7125061993478639E-3</v>
+      </c>
+      <c r="X24">
+        <v>1.7256639260714891E-3</v>
+      </c>
+      <c r="Y24">
+        <v>2.6272263982569876E-3</v>
+      </c>
+      <c r="Z24">
+        <v>-2.3377247564179982E-7</v>
+      </c>
+      <c r="AA24">
+        <v>5.2106295382858071E-5</v>
+      </c>
+      <c r="AB24">
+        <v>-7.1458161354253031E-5</v>
+      </c>
+      <c r="AC24">
+        <v>-5.913633868820066E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25">
+        <v>-4.8282436914953309E-3</v>
+      </c>
+      <c r="C25">
+        <v>8.5362652896847657E-7</v>
+      </c>
+      <c r="D25">
+        <v>-2.7942615136463235E-8</v>
+      </c>
+      <c r="E25">
+        <v>-3.6724811899611828E-6</v>
+      </c>
+      <c r="F25">
+        <v>-1.5185734535255351E-5</v>
+      </c>
+      <c r="G25">
+        <v>1.7820299611969703E-5</v>
+      </c>
+      <c r="H25">
+        <v>6.918198587869582E-6</v>
+      </c>
+      <c r="I25">
+        <v>1.2119011141286793E-5</v>
+      </c>
+      <c r="J25">
+        <v>-1.1242467641527222E-5</v>
+      </c>
+      <c r="K25">
+        <v>4.1216974844612755E-5</v>
+      </c>
+      <c r="L25">
+        <v>1.7836731087212277E-5</v>
+      </c>
+      <c r="M25">
+        <v>9.0785775090072331E-6</v>
+      </c>
+      <c r="N25">
+        <v>2.3055072983105794E-5</v>
+      </c>
+      <c r="O25">
+        <v>-5.9054300137238929E-5</v>
+      </c>
+      <c r="P25">
+        <v>3.1594869106669861E-5</v>
+      </c>
+      <c r="Q25">
+        <v>1.768354175508109E-5</v>
+      </c>
+      <c r="R25">
+        <v>1.9550893671773506E-5</v>
+      </c>
+      <c r="S25">
+        <v>1.7010121133049475E-4</v>
+      </c>
+      <c r="T25">
+        <v>-4.098250420788525E-5</v>
+      </c>
+      <c r="U25">
+        <v>7.2307244565101763E-6</v>
+      </c>
+      <c r="V25">
+        <v>-2.0872426216330844E-5</v>
+      </c>
+      <c r="W25">
+        <v>-3.2733428966463393E-6</v>
+      </c>
+      <c r="X25">
+        <v>-1.6916891520273331E-5</v>
+      </c>
+      <c r="Y25">
+        <v>-2.3377247564179982E-7</v>
+      </c>
+      <c r="Z25">
+        <v>3.16568953716837E-5</v>
+      </c>
+      <c r="AA25">
+        <v>-1.3777048238211589E-4</v>
+      </c>
+      <c r="AB25">
+        <v>-1.566884554381298E-4</v>
+      </c>
+      <c r="AC25">
+        <v>-7.6094341698640638E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26">
+        <v>0.26958787049740091</v>
+      </c>
+      <c r="C26">
+        <v>-4.9259695050036037E-5</v>
+      </c>
+      <c r="D26">
+        <v>5.4942116022031653E-7</v>
+      </c>
+      <c r="E26">
+        <v>9.1980556900830325E-5</v>
+      </c>
+      <c r="F26">
+        <v>3.9474743716472931E-4</v>
+      </c>
+      <c r="G26">
+        <v>3.661733048269223E-4</v>
+      </c>
+      <c r="H26">
+        <v>3.7728297854233673E-4</v>
+      </c>
+      <c r="I26">
+        <v>-2.41785520749659E-6</v>
+      </c>
+      <c r="J26">
+        <v>-2.6730556081683505E-4</v>
+      </c>
+      <c r="K26">
+        <v>-1.0709235954296584E-3</v>
+      </c>
+      <c r="L26">
+        <v>-6.3525137767381917E-4</v>
+      </c>
+      <c r="M26">
+        <v>-7.2023990771320073E-4</v>
+      </c>
+      <c r="N26">
+        <v>-9.4611015663131209E-4</v>
+      </c>
+      <c r="O26">
+        <v>3.2276381591607938E-4</v>
+      </c>
+      <c r="P26">
+        <v>-9.6966780673379111E-5</v>
+      </c>
+      <c r="Q26">
+        <v>-1.4323844702985623E-4</v>
+      </c>
+      <c r="R26">
+        <v>-2.3529725315190003E-4</v>
+      </c>
+      <c r="S26">
+        <v>-3.9361491439488657E-3</v>
+      </c>
+      <c r="T26">
+        <v>5.463347240770083E-4</v>
+      </c>
+      <c r="U26">
+        <v>-1.5986069548154649E-4</v>
+      </c>
+      <c r="V26">
+        <v>-5.611906361368677E-5</v>
+      </c>
+      <c r="W26">
+        <v>-1.8552715959157983E-4</v>
+      </c>
+      <c r="X26">
+        <v>-1.2006427280381358E-5</v>
+      </c>
+      <c r="Y26">
+        <v>5.2106295382858071E-5</v>
+      </c>
+      <c r="Z26">
+        <v>-1.3777048238211589E-4</v>
+      </c>
+      <c r="AA26">
+        <v>4.4515431622188517E-3</v>
+      </c>
+      <c r="AB26">
+        <v>1.0996310963641257E-3</v>
+      </c>
+      <c r="AC26">
+        <v>8.6390692760521942E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27">
+        <v>0.37308094874197084</v>
+      </c>
+      <c r="C27">
+        <v>9.3305936423462334E-5</v>
+      </c>
+      <c r="D27">
+        <v>-1.626776353125573E-6</v>
+      </c>
+      <c r="E27">
+        <v>8.3514048548901255E-5</v>
+      </c>
+      <c r="F27">
+        <v>4.283654336193982E-4</v>
+      </c>
+      <c r="G27">
+        <v>1.9375932009242777E-4</v>
+      </c>
+      <c r="H27">
+        <v>2.8374192130901942E-4</v>
+      </c>
+      <c r="I27">
+        <v>-1.4987247541096581E-4</v>
+      </c>
+      <c r="J27">
+        <v>-1.0189908231173618E-5</v>
+      </c>
+      <c r="K27">
+        <v>-3.1511416008016269E-4</v>
+      </c>
+      <c r="L27">
+        <v>-5.4796408552673648E-5</v>
+      </c>
+      <c r="M27">
+        <v>-2.0933975723966269E-4</v>
+      </c>
+      <c r="N27">
+        <v>-3.4661140095855469E-4</v>
+      </c>
+      <c r="O27">
+        <v>-1.2529107611121393E-4</v>
+      </c>
+      <c r="P27">
+        <v>-6.2989349903705676E-6</v>
+      </c>
+      <c r="Q27">
+        <v>-5.6475426834193916E-5</v>
+      </c>
+      <c r="R27">
+        <v>-1.4313633124585657E-4</v>
+      </c>
+      <c r="S27">
+        <v>1.7463050996927368E-4</v>
+      </c>
+      <c r="T27">
+        <v>3.7559696354284335E-4</v>
+      </c>
+      <c r="U27">
+        <v>-3.5952068318148892E-5</v>
+      </c>
+      <c r="V27">
+        <v>2.0046640641630906E-4</v>
+      </c>
+      <c r="W27">
+        <v>-8.5405266374358456E-5</v>
+      </c>
+      <c r="X27">
+        <v>-9.4915709889197171E-5</v>
+      </c>
+      <c r="Y27">
+        <v>-7.1458161354253031E-5</v>
+      </c>
+      <c r="Z27">
+        <v>-1.566884554381298E-4</v>
+      </c>
+      <c r="AA27">
+        <v>1.0996310963641257E-3</v>
+      </c>
+      <c r="AB27">
+        <v>4.2820648918234219E-3</v>
+      </c>
+      <c r="AC27">
+        <v>7.145566749184643E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>-6.4629030625152604</v>
+      </c>
+      <c r="C28">
+        <v>-2.658182178229368E-2</v>
+      </c>
+      <c r="D28">
+        <v>3.9304618261240803E-4</v>
+      </c>
+      <c r="E28">
+        <v>-3.0877821174537509E-2</v>
+      </c>
+      <c r="F28">
+        <v>-8.9288239166508548E-3</v>
+      </c>
+      <c r="G28">
+        <v>-7.986967509261228E-3</v>
+      </c>
+      <c r="H28">
+        <v>-1.1161128954004812E-2</v>
+      </c>
+      <c r="I28">
+        <v>3.215871336791366E-3</v>
+      </c>
+      <c r="J28">
+        <v>-1.5769681521848925E-3</v>
+      </c>
+      <c r="K28">
+        <v>-0.14082185776189116</v>
+      </c>
+      <c r="L28">
+        <v>-0.13898798975978854</v>
+      </c>
+      <c r="M28">
+        <v>-0.1409192192640476</v>
+      </c>
+      <c r="N28">
+        <v>-0.14155238418697369</v>
+      </c>
+      <c r="O28">
+        <v>-1.0260595912764597E-2</v>
+      </c>
+      <c r="P28">
+        <v>-4.8720707954054039E-3</v>
+      </c>
+      <c r="Q28">
+        <v>-6.5193623063989417E-3</v>
+      </c>
+      <c r="R28">
+        <v>-1.9487468604409211E-2</v>
+      </c>
+      <c r="S28">
+        <v>-0.12437092013677398</v>
+      </c>
+      <c r="T28">
+        <v>-9.5194506122060207E-3</v>
+      </c>
+      <c r="U28">
+        <v>-3.7270062534334805E-3</v>
+      </c>
+      <c r="V28">
+        <v>2.0348979392264604E-3</v>
+      </c>
+      <c r="W28">
+        <v>3.6143152105537479E-4</v>
+      </c>
+      <c r="X28">
+        <v>3.227778237769049E-3</v>
+      </c>
+      <c r="Y28">
+        <v>-5.913633868820066E-4</v>
+      </c>
+      <c r="Z28">
+        <v>-7.6094341698640638E-4</v>
+      </c>
+      <c r="AA28">
+        <v>8.6390692760521942E-3</v>
+      </c>
+      <c r="AB28">
+        <v>7.145566749184643E-4</v>
+      </c>
+      <c r="AC28">
+        <v>0.77201443948247361</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC28" sqref="A1:AC28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -668,7 +3595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -676,177 +3603,177 @@
         <v>0.28387986448280511</v>
       </c>
       <c r="C2">
-        <v>0.0014649076537845834</v>
+        <v>1.4649076537845834E-3</v>
       </c>
       <c r="D2">
-        <v>-2.1826562466324836e-05</v>
+        <v>-2.1826562466324836E-5</v>
       </c>
       <c r="E2">
-        <v>0.00098965250707552452</v>
+        <v>9.8965250707552452E-4</v>
       </c>
       <c r="F2">
-        <v>-0.00015055020587565133</v>
+        <v>-1.5055020587565133E-4</v>
       </c>
       <c r="G2">
-        <v>-0.00031342526479151206</v>
+        <v>-3.1342526479151206E-4</v>
       </c>
       <c r="H2">
-        <v>-0.00016386311520113096</v>
+        <v>-1.6386311520113096E-4</v>
       </c>
       <c r="I2">
-        <v>-0.00018630262557688213</v>
+        <v>-1.8630262557688213E-4</v>
       </c>
       <c r="J2">
-        <v>7.0827215930471289e-05</v>
+        <v>7.0827215930471289E-5</v>
       </c>
       <c r="K2">
-        <v>0.00054762602511712957</v>
+        <v>5.4762602511712957E-4</v>
       </c>
       <c r="L2">
-        <v>0.00058787416431339834</v>
+        <v>5.8787416431339834E-4</v>
       </c>
       <c r="M2">
-        <v>0.00076397970507493043</v>
+        <v>7.6397970507493043E-4</v>
       </c>
       <c r="N2">
-        <v>0.00076130637845081214</v>
+        <v>7.6130637845081214E-4</v>
       </c>
       <c r="O2">
-        <v>0.00050086543685539287</v>
+        <v>5.0086543685539287E-4</v>
       </c>
       <c r="P2">
-        <v>0.00014103045986290958</v>
+        <v>1.4103045986290958E-4</v>
       </c>
       <c r="Q2">
-        <v>0.00026846599287483689</v>
+        <v>2.6846599287483688E-4</v>
       </c>
       <c r="R2">
-        <v>0.00084767201095952479</v>
+        <v>8.4767201095952479E-4</v>
       </c>
       <c r="S2">
-        <v>0.0015212513754893839</v>
+        <v>1.5212513754893839E-3</v>
       </c>
       <c r="T2">
-        <v>0.00018712331455505646</v>
+        <v>1.8712331455505646E-4</v>
       </c>
       <c r="U2">
-        <v>7.4585332874469151e-05</v>
+        <v>7.4585332874469151E-5</v>
       </c>
       <c r="V2">
-        <v>-0.00010931952386821213</v>
+        <v>-1.0931952386821213E-4</v>
       </c>
       <c r="W2">
-        <v>-0.00016779065361285494</v>
+        <v>-1.6779065361285494E-4</v>
       </c>
       <c r="X2">
-        <v>-0.00020749338459930488</v>
+        <v>-2.0749338459930488E-4</v>
       </c>
       <c r="Y2">
-        <v>-9.5783296306420048e-05</v>
+        <v>-9.5783296306420048E-5</v>
       </c>
       <c r="Z2">
-        <v>8.5362652896847657e-07</v>
+        <v>8.5362652896847657E-7</v>
       </c>
       <c r="AA2">
-        <v>-4.9259695050036037e-05</v>
+        <v>-4.9259695050036037E-5</v>
       </c>
       <c r="AB2">
-        <v>9.3305936423462334e-05</v>
+        <v>9.3305936423462334E-5</v>
       </c>
       <c r="AC2">
-        <v>-0.02658182178229368</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>-2.658182178229368E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
       <c r="B3">
-        <v>-0.0052318947397875576</v>
+        <v>-5.2318947397875576E-3</v>
       </c>
       <c r="C3">
-        <v>-2.1826562466324836e-05</v>
+        <v>-2.1826562466324836E-5</v>
       </c>
       <c r="D3">
-        <v>3.2940519622151942e-07</v>
+        <v>3.2940519622151942E-7</v>
       </c>
       <c r="E3">
-        <v>-1.4020720249745971e-05</v>
+        <v>-1.4020720249745971E-5</v>
       </c>
       <c r="F3">
-        <v>1.9501043613236261e-06</v>
+        <v>1.9501043613236261E-6</v>
       </c>
       <c r="G3">
-        <v>4.160614739900295e-06</v>
+        <v>4.160614739900295E-6</v>
       </c>
       <c r="H3">
-        <v>1.7936595388066674e-06</v>
+        <v>1.7936595388066674E-6</v>
       </c>
       <c r="I3">
-        <v>2.3974931833862172e-06</v>
+        <v>2.3974931833862172E-6</v>
       </c>
       <c r="J3">
-        <v>7.0910289269856207e-09</v>
+        <v>7.0910289269856207E-9</v>
       </c>
       <c r="K3">
-        <v>-8.7791918466496692e-06</v>
+        <v>-8.7791918466496692E-6</v>
       </c>
       <c r="L3">
-        <v>-8.5453232838248881e-06</v>
+        <v>-8.5453232838248881E-6</v>
       </c>
       <c r="M3">
-        <v>-1.0936051535489328e-05</v>
+        <v>-1.0936051535489328E-5</v>
       </c>
       <c r="N3">
-        <v>-1.0597248580594416e-05</v>
+        <v>-1.0597248580594416E-5</v>
       </c>
       <c r="O3">
-        <v>-6.6524615736594614e-06</v>
+        <v>-6.6524615736594614E-6</v>
       </c>
       <c r="P3">
-        <v>-1.4936905711491782e-06</v>
+        <v>-1.4936905711491782E-6</v>
       </c>
       <c r="Q3">
-        <v>-4.1828667863125812e-06</v>
+        <v>-4.1828667863125812E-6</v>
       </c>
       <c r="R3">
-        <v>-1.2591102335872349e-05</v>
+        <v>-1.2591102335872349E-5</v>
       </c>
       <c r="S3">
-        <v>-2.3419024201708997e-05</v>
+        <v>-2.3419024201708997E-5</v>
       </c>
       <c r="T3">
-        <v>-2.4593523277999761e-06</v>
+        <v>-2.4593523277999761E-6</v>
       </c>
       <c r="U3">
-        <v>-9.8889102291815217e-07</v>
+        <v>-9.8889102291815217E-7</v>
       </c>
       <c r="V3">
-        <v>1.4038163966172352e-06</v>
+        <v>1.4038163966172352E-6</v>
       </c>
       <c r="W3">
-        <v>1.9740948978267642e-06</v>
+        <v>1.9740948978267642E-6</v>
       </c>
       <c r="X3">
-        <v>3.310349913192304e-06</v>
+        <v>3.310349913192304E-6</v>
       </c>
       <c r="Y3">
-        <v>1.2173127487731499e-06</v>
+        <v>1.2173127487731499E-6</v>
       </c>
       <c r="Z3">
-        <v>-2.7942615136463235e-08</v>
+        <v>-2.7942615136463235E-8</v>
       </c>
       <c r="AA3">
-        <v>5.4942116022031653e-07</v>
+        <v>5.4942116022031653E-7</v>
       </c>
       <c r="AB3">
-        <v>-1.626776353125573e-06</v>
+        <v>-1.626776353125573E-6</v>
       </c>
       <c r="AC3">
-        <v>0.00039304618261240803</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>3.9304618261240803E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -854,177 +3781,177 @@
         <v>0.27485437668750673</v>
       </c>
       <c r="C4">
-        <v>0.00098965250707552452</v>
+        <v>9.8965250707552452E-4</v>
       </c>
       <c r="D4">
-        <v>-1.4020720249745971e-05</v>
+        <v>-1.4020720249745971E-5</v>
       </c>
       <c r="E4">
-        <v>0.01788904422835922</v>
+        <v>1.788904422835922E-2</v>
       </c>
       <c r="F4">
-        <v>0.0092739110603666311</v>
+        <v>9.2739110603666311E-3</v>
       </c>
       <c r="G4">
-        <v>0.0089017275880637972</v>
+        <v>8.9017275880637972E-3</v>
       </c>
       <c r="H4">
-        <v>0.0088190370246024018</v>
+        <v>8.8190370246024018E-3</v>
       </c>
       <c r="I4">
-        <v>-0.00016449775555869698</v>
+        <v>-1.6449775555869698E-4</v>
       </c>
       <c r="J4">
-        <v>0.00036681714086549545</v>
+        <v>3.6681714086549545E-4</v>
       </c>
       <c r="K4">
-        <v>-0.0013503693646363356</v>
+        <v>-1.3503693646363356E-3</v>
       </c>
       <c r="L4">
-        <v>-0.001200644211375816</v>
+        <v>-1.200644211375816E-3</v>
       </c>
       <c r="M4">
-        <v>-0.00093451495160333346</v>
+        <v>-9.3451495160333346E-4</v>
       </c>
       <c r="N4">
-        <v>-0.00081800971557898731</v>
+        <v>-8.1800971557898731E-4</v>
       </c>
       <c r="O4">
-        <v>-0.00017024617000220294</v>
+        <v>-1.7024617000220294E-4</v>
       </c>
       <c r="P4">
-        <v>0.00061492837201171889</v>
+        <v>6.1492837201171889E-4</v>
       </c>
       <c r="Q4">
-        <v>0.00060432022592265416</v>
+        <v>6.0432022592265416E-4</v>
       </c>
       <c r="R4">
-        <v>-0.001185816926129283</v>
+        <v>-1.185816926129283E-3</v>
       </c>
       <c r="S4">
-        <v>0.0043965898327091354</v>
+        <v>4.3965898327091354E-3</v>
       </c>
       <c r="T4">
-        <v>0.001215931455950961</v>
+        <v>1.215931455950961E-3</v>
       </c>
       <c r="U4">
-        <v>-0.00069323190143506612</v>
+        <v>-6.9323190143506612E-4</v>
       </c>
       <c r="V4">
-        <v>9.2835519880955439e-06</v>
+        <v>9.2835519880955439E-6</v>
       </c>
       <c r="W4">
-        <v>0.00025221105895481782</v>
+        <v>2.5221105895481782E-4</v>
       </c>
       <c r="X4">
-        <v>-0.00092761560780744122</v>
+        <v>-9.2761560780744122E-4</v>
       </c>
       <c r="Y4">
-        <v>-9.0626276028116497e-05</v>
+        <v>-9.0626276028116497E-5</v>
       </c>
       <c r="Z4">
-        <v>-3.6724811899611828e-06</v>
+        <v>-3.6724811899611828E-6</v>
       </c>
       <c r="AA4">
-        <v>9.1980556900830325e-05</v>
+        <v>9.1980556900830325E-5</v>
       </c>
       <c r="AB4">
-        <v>8.3514048548901255e-05</v>
+        <v>8.3514048548901255E-5</v>
       </c>
       <c r="AC4">
-        <v>-0.030877821174537509</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>-3.0877821174537509E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
       <c r="B5">
-        <v>0.077761012507255076</v>
+        <v>7.7761012507255076E-2</v>
       </c>
       <c r="C5">
-        <v>-0.00015055020587565133</v>
+        <v>-1.5055020587565133E-4</v>
       </c>
       <c r="D5">
-        <v>1.9501043613236261e-06</v>
+        <v>1.9501043613236261E-6</v>
       </c>
       <c r="E5">
-        <v>0.0092739110603666311</v>
+        <v>9.2739110603666311E-3</v>
       </c>
       <c r="F5">
-        <v>0.012898563498830543</v>
+        <v>1.2898563498830543E-2</v>
       </c>
       <c r="G5">
-        <v>0.011774715547870912</v>
+        <v>1.1774715547870912E-2</v>
       </c>
       <c r="H5">
-        <v>0.011943165821361243</v>
+        <v>1.1943165821361243E-2</v>
       </c>
       <c r="I5">
-        <v>-0.00024132439193694038</v>
+        <v>-2.4132439193694038E-4</v>
       </c>
       <c r="J5">
-        <v>-1.2691182192615599e-09</v>
+        <v>-1.2691182192615599E-9</v>
       </c>
       <c r="K5">
-        <v>-0.0011843116875422579</v>
+        <v>-1.1843116875422579E-3</v>
       </c>
       <c r="L5">
-        <v>-0.0017396147500703882</v>
+        <v>-1.7396147500703882E-3</v>
       </c>
       <c r="M5">
-        <v>-0.0025699035222494665</v>
+        <v>-2.5699035222494664E-3</v>
       </c>
       <c r="N5">
-        <v>-0.0022996402330196547</v>
+        <v>-2.2996402330196547E-3</v>
       </c>
       <c r="O5">
-        <v>-0.00054146835114354547</v>
+        <v>-5.4146835114354547E-4</v>
       </c>
       <c r="P5">
-        <v>0.0016883641818154769</v>
+        <v>1.6883641818154769E-3</v>
       </c>
       <c r="Q5">
-        <v>0.00010342242115340256</v>
+        <v>1.0342242115340256E-4</v>
       </c>
       <c r="R5">
-        <v>-0.0013185659600419282</v>
+        <v>-1.3185659600419282E-3</v>
       </c>
       <c r="S5">
-        <v>0.0017626659257910324</v>
+        <v>1.7626659257910324E-3</v>
       </c>
       <c r="T5">
-        <v>0.0039299214269495472</v>
+        <v>3.9299214269495472E-3</v>
       </c>
       <c r="U5">
-        <v>0.00072932150521406579</v>
+        <v>7.2932150521406579E-4</v>
       </c>
       <c r="V5">
-        <v>0.00019653571165228163</v>
+        <v>1.9653571165228163E-4</v>
       </c>
       <c r="W5">
-        <v>-8.5135240386171761e-05</v>
+        <v>-8.513524038617176E-5</v>
       </c>
       <c r="X5">
-        <v>-0.00043299378225466676</v>
+        <v>-4.3299378225466676E-4</v>
       </c>
       <c r="Y5">
-        <v>1.2107516790364758e-08</v>
+        <v>1.2107516790364758E-8</v>
       </c>
       <c r="Z5">
-        <v>-1.5185734535255351e-05</v>
+        <v>-1.5185734535255351E-5</v>
       </c>
       <c r="AA5">
-        <v>0.00039474743716472931</v>
+        <v>3.9474743716472931E-4</v>
       </c>
       <c r="AB5">
-        <v>0.0004283654336193982</v>
+        <v>4.283654336193982E-4</v>
       </c>
       <c r="AC5">
-        <v>-0.0089288239166508548</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>-8.9288239166508548E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1032,88 +3959,88 @@
         <v>0.12443551240889524</v>
       </c>
       <c r="C6">
-        <v>-0.00031342526479151206</v>
+        <v>-3.1342526479151206E-4</v>
       </c>
       <c r="D6">
-        <v>4.160614739900295e-06</v>
+        <v>4.160614739900295E-6</v>
       </c>
       <c r="E6">
-        <v>0.0089017275880637972</v>
+        <v>8.9017275880637972E-3</v>
       </c>
       <c r="F6">
-        <v>0.011774715547870912</v>
+        <v>1.1774715547870912E-2</v>
       </c>
       <c r="G6">
-        <v>0.013400902218705147</v>
+        <v>1.3400902218705147E-2</v>
       </c>
       <c r="H6">
-        <v>0.012699637977399061</v>
+        <v>1.2699637977399061E-2</v>
       </c>
       <c r="I6">
-        <v>5.4189995972829552e-05</v>
+        <v>5.4189995972829552E-5</v>
       </c>
       <c r="J6">
-        <v>-0.00029842692368282713</v>
+        <v>-2.9842692368282713E-4</v>
       </c>
       <c r="K6">
-        <v>-0.0012780430916823683</v>
+        <v>-1.2780430916823683E-3</v>
       </c>
       <c r="L6">
-        <v>-0.0017865243125453909</v>
+        <v>-1.7865243125453909E-3</v>
       </c>
       <c r="M6">
-        <v>-0.0023987388620724096</v>
+        <v>-2.3987388620724096E-3</v>
       </c>
       <c r="N6">
-        <v>-0.0020840060928629341</v>
+        <v>-2.0840060928629341E-3</v>
       </c>
       <c r="O6">
-        <v>-0.00046233263140945107</v>
+        <v>-4.6233263140945107E-4</v>
       </c>
       <c r="P6">
-        <v>0.0020927708181128052</v>
+        <v>2.0927708181128052E-3</v>
       </c>
       <c r="Q6">
-        <v>0.00028254567336999175</v>
+        <v>2.8254567336999175E-4</v>
       </c>
       <c r="R6">
-        <v>-0.0010165960014589521</v>
+        <v>-1.0165960014589521E-3</v>
       </c>
       <c r="S6">
-        <v>0.001881657036740818</v>
+        <v>1.881657036740818E-3</v>
       </c>
       <c r="T6">
-        <v>0.0041928998471542833</v>
+        <v>4.1928998471542833E-3</v>
       </c>
       <c r="U6">
-        <v>0.0013933026717907328</v>
+        <v>1.3933026717907328E-3</v>
       </c>
       <c r="V6">
-        <v>-5.4696153609151623e-05</v>
+        <v>-5.4696153609151623E-5</v>
       </c>
       <c r="W6">
-        <v>0.0002829605347458527</v>
+        <v>2.829605347458527E-4</v>
       </c>
       <c r="X6">
-        <v>-0.00036431670063621728</v>
+        <v>-3.6431670063621728E-4</v>
       </c>
       <c r="Y6">
-        <v>3.4444722528588349e-05</v>
+        <v>3.4444722528588349E-5</v>
       </c>
       <c r="Z6">
-        <v>1.7820299611969703e-05</v>
+        <v>1.7820299611969703E-5</v>
       </c>
       <c r="AA6">
-        <v>0.0003661733048269223</v>
+        <v>3.661733048269223E-4</v>
       </c>
       <c r="AB6">
-        <v>0.00019375932009242777</v>
+        <v>1.9375932009242777E-4</v>
       </c>
       <c r="AC6">
-        <v>-0.007986967509261228</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>-7.986967509261228E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1121,88 +4048,88 @@
         <v>0.2292784156516757</v>
       </c>
       <c r="C7">
-        <v>-0.00016386311520113096</v>
+        <v>-1.6386311520113096E-4</v>
       </c>
       <c r="D7">
-        <v>1.7936595388066674e-06</v>
+        <v>1.7936595388066674E-6</v>
       </c>
       <c r="E7">
-        <v>0.0088190370246024018</v>
+        <v>8.8190370246024018E-3</v>
       </c>
       <c r="F7">
-        <v>0.011943165821361243</v>
+        <v>1.1943165821361243E-2</v>
       </c>
       <c r="G7">
-        <v>0.012699637977399061</v>
+        <v>1.2699637977399061E-2</v>
       </c>
       <c r="H7">
-        <v>0.014173623659824931</v>
+        <v>1.4173623659824931E-2</v>
       </c>
       <c r="I7">
-        <v>0.00013150104464114648</v>
+        <v>1.3150104464114648E-4</v>
       </c>
       <c r="J7">
-        <v>-6.2816876352328964e-05</v>
+        <v>-6.2816876352328964E-5</v>
       </c>
       <c r="K7">
-        <v>-0.0011621636941372246</v>
+        <v>-1.1621636941372246E-3</v>
       </c>
       <c r="L7">
-        <v>-0.0012397108932983231</v>
+        <v>-1.2397108932983231E-3</v>
       </c>
       <c r="M7">
-        <v>-0.0022223327398164529</v>
+        <v>-2.2223327398164529E-3</v>
       </c>
       <c r="N7">
-        <v>-0.0018074731196273896</v>
+        <v>-1.8074731196273896E-3</v>
       </c>
       <c r="O7">
-        <v>-0.000313111489337456</v>
+        <v>-3.13111489337456E-4</v>
       </c>
       <c r="P7">
-        <v>0.0024951984337222006</v>
+        <v>2.4951984337222006E-3</v>
       </c>
       <c r="Q7">
-        <v>0.00060711159355980387</v>
+        <v>6.0711159355980387E-4</v>
       </c>
       <c r="R7">
-        <v>-0.00053292448940069992</v>
+        <v>-5.3292448940069992E-4</v>
       </c>
       <c r="S7">
-        <v>0.0017528332087929505</v>
+        <v>1.7528332087929505E-3</v>
       </c>
       <c r="T7">
-        <v>0.0046769439602337695</v>
+        <v>4.6769439602337695E-3</v>
       </c>
       <c r="U7">
-        <v>0.0015881526960668914</v>
+        <v>1.5881526960668914E-3</v>
       </c>
       <c r="V7">
-        <v>-3.4183590892554282e-05</v>
+        <v>-3.4183590892554282E-5</v>
       </c>
       <c r="W7">
-        <v>0.00020934949812233543</v>
+        <v>2.0934949812233543E-4</v>
       </c>
       <c r="X7">
-        <v>-5.1645721971156644e-05</v>
+        <v>-5.1645721971156644E-5</v>
       </c>
       <c r="Y7">
-        <v>0.00033863209155418975</v>
+        <v>3.3863209155418975E-4</v>
       </c>
       <c r="Z7">
-        <v>6.918198587869582e-06</v>
+        <v>6.918198587869582E-6</v>
       </c>
       <c r="AA7">
-        <v>0.00037728297854233673</v>
+        <v>3.7728297854233673E-4</v>
       </c>
       <c r="AB7">
-        <v>0.00028374192130901942</v>
+        <v>2.8374192130901942E-4</v>
       </c>
       <c r="AC7">
-        <v>-0.011161128954004812</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>-1.1161128954004812E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1210,177 +4137,177 @@
         <v>-0.14702456517083326</v>
       </c>
       <c r="C8">
-        <v>-0.00018630262557688213</v>
+        <v>-1.8630262557688213E-4</v>
       </c>
       <c r="D8">
-        <v>2.3974931833862172e-06</v>
+        <v>2.3974931833862172E-6</v>
       </c>
       <c r="E8">
-        <v>-0.00016449775555869698</v>
+        <v>-1.6449775555869698E-4</v>
       </c>
       <c r="F8">
-        <v>-0.00024132439193694038</v>
+        <v>-2.4132439193694038E-4</v>
       </c>
       <c r="G8">
-        <v>5.4189995972829552e-05</v>
+        <v>5.4189995972829552E-5</v>
       </c>
       <c r="H8">
-        <v>0.00013150104464114648</v>
+        <v>1.3150104464114648E-4</v>
       </c>
       <c r="I8">
-        <v>0.00068562149351013377</v>
+        <v>6.8562149351013377E-4</v>
       </c>
       <c r="J8">
-        <v>-0.00051024198668345091</v>
+        <v>-5.1024198668345091E-4</v>
       </c>
       <c r="K8">
-        <v>-8.5298936631652157e-05</v>
+        <v>-8.5298936631652156E-5</v>
       </c>
       <c r="L8">
-        <v>-0.00010221601864530169</v>
+        <v>-1.0221601864530169E-4</v>
       </c>
       <c r="M8">
-        <v>-0.00011987728978236759</v>
+        <v>-1.1987728978236759E-4</v>
       </c>
       <c r="N8">
-        <v>-0.00014102580860634565</v>
+        <v>-1.4102580860634564E-4</v>
       </c>
       <c r="O8">
-        <v>-4.3477745673803578e-05</v>
+        <v>-4.3477745673803578E-5</v>
       </c>
       <c r="P8">
-        <v>0.0004928540016326938</v>
+        <v>4.928540016326938E-4</v>
       </c>
       <c r="Q8">
-        <v>-8.6565154103612665e-05</v>
+        <v>-8.6565154103612665E-5</v>
       </c>
       <c r="R8">
-        <v>-0.00019222955637913049</v>
+        <v>-1.9222955637913049E-4</v>
       </c>
       <c r="S8">
-        <v>-0.00034538688708989074</v>
+        <v>-3.4538688708989074E-4</v>
       </c>
       <c r="T8">
-        <v>0.00012370298651672389</v>
+        <v>1.2370298651672389E-4</v>
       </c>
       <c r="U8">
-        <v>1.8172215799587918e-05</v>
+        <v>1.8172215799587918E-5</v>
       </c>
       <c r="V8">
-        <v>-3.1245526984381104e-05</v>
+        <v>-3.1245526984381104E-5</v>
       </c>
       <c r="W8">
-        <v>0.00031000778825506338</v>
+        <v>3.1000778825506338E-4</v>
       </c>
       <c r="X8">
-        <v>3.7203652162116637e-05</v>
+        <v>3.7203652162116637E-5</v>
       </c>
       <c r="Y8">
-        <v>1.5159221627661693e-05</v>
+        <v>1.5159221627661693E-5</v>
       </c>
       <c r="Z8">
-        <v>1.2119011141286794e-05</v>
+        <v>1.2119011141286793E-5</v>
       </c>
       <c r="AA8">
-        <v>-2.41785520749659e-06</v>
+        <v>-2.41785520749659E-6</v>
       </c>
       <c r="AB8">
-        <v>-0.00014987247541096581</v>
+        <v>-1.4987247541096581E-4</v>
       </c>
       <c r="AC8">
-        <v>0.003215871336791366</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>3.215871336791366E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
       <c r="B9">
-        <v>0.024325679145597422</v>
+        <v>2.4325679145597422E-2</v>
       </c>
       <c r="C9">
-        <v>7.0827215930471289e-05</v>
+        <v>7.0827215930471289E-5</v>
       </c>
       <c r="D9">
-        <v>7.0910289269856207e-09</v>
+        <v>7.0910289269856207E-9</v>
       </c>
       <c r="E9">
-        <v>0.00036681714086549545</v>
+        <v>3.6681714086549545E-4</v>
       </c>
       <c r="F9">
-        <v>-1.2691182192615599e-09</v>
+        <v>-1.2691182192615599E-9</v>
       </c>
       <c r="G9">
-        <v>-0.00029842692368282713</v>
+        <v>-2.9842692368282713E-4</v>
       </c>
       <c r="H9">
-        <v>-6.2816876352328964e-05</v>
+        <v>-6.2816876352328964E-5</v>
       </c>
       <c r="I9">
-        <v>-0.00051024198668345091</v>
+        <v>-5.1024198668345091E-4</v>
       </c>
       <c r="J9">
-        <v>0.0023968932351556898</v>
+        <v>2.3968932351556898E-3</v>
       </c>
       <c r="K9">
-        <v>0.00015377244839370155</v>
+        <v>1.5377244839370155E-4</v>
       </c>
       <c r="L9">
-        <v>-2.9660483498590053e-05</v>
+        <v>-2.9660483498590053E-5</v>
       </c>
       <c r="M9">
-        <v>-0.00024609829296572393</v>
+        <v>-2.4609829296572393E-4</v>
       </c>
       <c r="N9">
-        <v>2.3882946465188828e-05</v>
+        <v>2.3882946465188828E-5</v>
       </c>
       <c r="O9">
-        <v>0.00029684540808633898</v>
+        <v>2.9684540808633898E-4</v>
       </c>
       <c r="P9">
-        <v>0.00020602830014086274</v>
+        <v>2.0602830014086274E-4</v>
       </c>
       <c r="Q9">
-        <v>0.00016829138311683236</v>
+        <v>1.6829138311683236E-4</v>
       </c>
       <c r="R9">
-        <v>7.0395647860731878e-05</v>
+        <v>7.0395647860731878E-5</v>
       </c>
       <c r="S9">
-        <v>-0.0002296670817320584</v>
+        <v>-2.296670817320584E-4</v>
       </c>
       <c r="T9">
-        <v>-0.00018701068294554697</v>
+        <v>-1.8701068294554697E-4</v>
       </c>
       <c r="U9">
-        <v>-0.00040740730551853504</v>
+        <v>-4.0740730551853504E-4</v>
       </c>
       <c r="V9">
-        <v>-9.0280219900468057e-05</v>
+        <v>-9.0280219900468057E-5</v>
       </c>
       <c r="W9">
-        <v>-0.00033838495811496091</v>
+        <v>-3.3838495811496091E-4</v>
       </c>
       <c r="X9">
-        <v>8.6441380980626612e-05</v>
+        <v>8.6441380980626612E-5</v>
       </c>
       <c r="Y9">
-        <v>-6.2290560972090779e-06</v>
+        <v>-6.2290560972090779E-6</v>
       </c>
       <c r="Z9">
-        <v>-1.1242467641527222e-05</v>
+        <v>-1.1242467641527222E-5</v>
       </c>
       <c r="AA9">
-        <v>-0.00026730556081683505</v>
+        <v>-2.6730556081683505E-4</v>
       </c>
       <c r="AB9">
-        <v>-1.0189908231173618e-05</v>
+        <v>-1.0189908231173618E-5</v>
       </c>
       <c r="AC9">
-        <v>-0.0015769681521848925</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>-1.5769681521848925E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1388,28 +4315,28 @@
         <v>0.29978918518451098</v>
       </c>
       <c r="C10">
-        <v>0.00054762602511712957</v>
+        <v>5.4762602511712957E-4</v>
       </c>
       <c r="D10">
-        <v>-8.7791918466496692e-06</v>
+        <v>-8.7791918466496692E-6</v>
       </c>
       <c r="E10">
-        <v>-0.0013503693646363356</v>
+        <v>-1.3503693646363356E-3</v>
       </c>
       <c r="F10">
-        <v>-0.0011843116875422579</v>
+        <v>-1.1843116875422579E-3</v>
       </c>
       <c r="G10">
-        <v>-0.0012780430916823683</v>
+        <v>-1.2780430916823683E-3</v>
       </c>
       <c r="H10">
-        <v>-0.0011621636941372246</v>
+        <v>-1.1621636941372246E-3</v>
       </c>
       <c r="I10">
-        <v>-8.5298936631652157e-05</v>
+        <v>-8.5298936631652156E-5</v>
       </c>
       <c r="J10">
-        <v>0.00015377244839370155</v>
+        <v>1.5377244839370155E-4</v>
       </c>
       <c r="K10">
         <v>0.14878525230320516</v>
@@ -1424,52 +4351,52 @@
         <v>0.12622104399066042</v>
       </c>
       <c r="O10">
-        <v>0.0012371701217564098</v>
+        <v>1.2371701217564098E-3</v>
       </c>
       <c r="P10">
-        <v>-0.00051497696858347417</v>
+        <v>-5.1497696858347417E-4</v>
       </c>
       <c r="Q10">
-        <v>8.6454305426891809e-05</v>
+        <v>8.6454305426891809E-5</v>
       </c>
       <c r="R10">
-        <v>0.0009326373362703276</v>
+        <v>9.326373362703276E-4</v>
       </c>
       <c r="S10">
-        <v>0.0051110052188235167</v>
+        <v>5.1110052188235167E-3</v>
       </c>
       <c r="T10">
-        <v>2.4624103547837839e-05</v>
+        <v>2.4624103547837839E-5</v>
       </c>
       <c r="U10">
-        <v>-0.00027062029347073996</v>
+        <v>-2.7062029347073996E-4</v>
       </c>
       <c r="V10">
-        <v>-0.00045314119654765728</v>
+        <v>-4.5314119654765728E-4</v>
       </c>
       <c r="W10">
-        <v>-0.00076813540030744309</v>
+        <v>-7.6813540030744309E-4</v>
       </c>
       <c r="X10">
-        <v>-0.00035993191884685014</v>
+        <v>-3.5993191884685014E-4</v>
       </c>
       <c r="Y10">
-        <v>0.00017545854591904941</v>
+        <v>1.7545854591904941E-4</v>
       </c>
       <c r="Z10">
-        <v>4.1216974844612755e-05</v>
+        <v>4.1216974844612755E-5</v>
       </c>
       <c r="AA10">
-        <v>-0.0010709235954296584</v>
+        <v>-1.0709235954296584E-3</v>
       </c>
       <c r="AB10">
-        <v>-0.00031511416008016269</v>
+        <v>-3.1511416008016269E-4</v>
       </c>
       <c r="AC10">
         <v>-0.14082185776189116</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1477,28 +4404,28 @@
         <v>0.1433478043482809</v>
       </c>
       <c r="C11">
-        <v>0.00058787416431339834</v>
+        <v>5.8787416431339834E-4</v>
       </c>
       <c r="D11">
-        <v>-8.5453232838248881e-06</v>
+        <v>-8.5453232838248881E-6</v>
       </c>
       <c r="E11">
-        <v>-0.001200644211375816</v>
+        <v>-1.200644211375816E-3</v>
       </c>
       <c r="F11">
-        <v>-0.0017396147500703882</v>
+        <v>-1.7396147500703882E-3</v>
       </c>
       <c r="G11">
-        <v>-0.0017865243125453909</v>
+        <v>-1.7865243125453909E-3</v>
       </c>
       <c r="H11">
-        <v>-0.0012397108932983231</v>
+        <v>-1.2397108932983231E-3</v>
       </c>
       <c r="I11">
-        <v>-0.00010221601864530169</v>
+        <v>-1.0221601864530169E-4</v>
       </c>
       <c r="J11">
-        <v>-2.9660483498590053e-05</v>
+        <v>-2.9660483498590053E-5</v>
       </c>
       <c r="K11">
         <v>0.12627970458844784</v>
@@ -1513,52 +4440,52 @@
         <v>0.12726634376529289</v>
       </c>
       <c r="O11">
-        <v>0.0016028744078520063</v>
+        <v>1.6028744078520063E-3</v>
       </c>
       <c r="P11">
-        <v>-0.00014517843355001461</v>
+        <v>-1.4517843355001461E-4</v>
       </c>
       <c r="Q11">
-        <v>0.00029864524199625653</v>
+        <v>2.9864524199625653E-4</v>
       </c>
       <c r="R11">
-        <v>0.0022401781514436239</v>
+        <v>2.2401781514436239E-3</v>
       </c>
       <c r="S11">
-        <v>0.0019126615936774227</v>
+        <v>1.9126615936774227E-3</v>
       </c>
       <c r="T11">
-        <v>0.00071868912102651672</v>
+        <v>7.1868912102651672E-4</v>
       </c>
       <c r="U11">
-        <v>0.00040237242028919734</v>
+        <v>4.0237242028919734E-4</v>
       </c>
       <c r="V11">
-        <v>-8.2422828415933472e-05</v>
+        <v>-8.2422828415933472E-5</v>
       </c>
       <c r="W11">
-        <v>-0.00043981388819462619</v>
+        <v>-4.3981388819462619E-4</v>
       </c>
       <c r="X11">
-        <v>-0.0002270518397617903</v>
+        <v>-2.270518397617903E-4</v>
       </c>
       <c r="Y11">
-        <v>0.00029397156412953179</v>
+        <v>2.9397156412953179E-4</v>
       </c>
       <c r="Z11">
-        <v>1.7836731087212277e-05</v>
+        <v>1.7836731087212277E-5</v>
       </c>
       <c r="AA11">
-        <v>-0.00063525137767381917</v>
+        <v>-6.3525137767381917E-4</v>
       </c>
       <c r="AB11">
-        <v>-5.4796408552673648e-05</v>
+        <v>-5.4796408552673648E-5</v>
       </c>
       <c r="AC11">
         <v>-0.13898798975978854</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1566,28 +4493,28 @@
         <v>0.37918654061178864</v>
       </c>
       <c r="C12">
-        <v>0.00076397970507493043</v>
+        <v>7.6397970507493043E-4</v>
       </c>
       <c r="D12">
-        <v>-1.0936051535489328e-05</v>
+        <v>-1.0936051535489328E-5</v>
       </c>
       <c r="E12">
-        <v>-0.00093451495160333346</v>
+        <v>-9.3451495160333346E-4</v>
       </c>
       <c r="F12">
-        <v>-0.0025699035222494665</v>
+        <v>-2.5699035222494664E-3</v>
       </c>
       <c r="G12">
-        <v>-0.0023987388620724096</v>
+        <v>-2.3987388620724096E-3</v>
       </c>
       <c r="H12">
-        <v>-0.0022223327398164529</v>
+        <v>-2.2223327398164529E-3</v>
       </c>
       <c r="I12">
-        <v>-0.00011987728978236759</v>
+        <v>-1.1987728978236759E-4</v>
       </c>
       <c r="J12">
-        <v>-0.00024609829296572393</v>
+        <v>-2.4609829296572393E-4</v>
       </c>
       <c r="K12">
         <v>0.12627746996894568</v>
@@ -1602,52 +4529,52 @@
         <v>0.12759341343965908</v>
       </c>
       <c r="O12">
-        <v>0.0017482600377531389</v>
+        <v>1.7482600377531389E-3</v>
       </c>
       <c r="P12">
-        <v>-0.00042585017902223993</v>
+        <v>-4.2585017902223993E-4</v>
       </c>
       <c r="Q12">
-        <v>6.5166278190732785e-05</v>
+        <v>6.5166278190732785E-5</v>
       </c>
       <c r="R12">
-        <v>0.0024475013129420728</v>
+        <v>2.4475013129420728E-3</v>
       </c>
       <c r="S12">
-        <v>0.001584818916172348</v>
+        <v>1.584818916172348E-3</v>
       </c>
       <c r="T12">
-        <v>-0.00043143290512538679</v>
+        <v>-4.3143290512538679E-4</v>
       </c>
       <c r="U12">
-        <v>0.00065124228427429487</v>
+        <v>6.5124228427429487E-4</v>
       </c>
       <c r="V12">
-        <v>-9.8587365584712483e-05</v>
+        <v>-9.8587365584712483E-5</v>
       </c>
       <c r="W12">
-        <v>2.5481118708245432e-05</v>
+        <v>2.5481118708245432E-5</v>
       </c>
       <c r="X12">
-        <v>8.7433953243187118e-05</v>
+        <v>8.7433953243187118E-5</v>
       </c>
       <c r="Y12">
-        <v>0.00020454291624991475</v>
+        <v>2.0454291624991475E-4</v>
       </c>
       <c r="Z12">
-        <v>9.0785775090072331e-06</v>
+        <v>9.0785775090072331E-6</v>
       </c>
       <c r="AA12">
-        <v>-0.00072023990771320073</v>
+        <v>-7.2023990771320073E-4</v>
       </c>
       <c r="AB12">
-        <v>-0.00020933975723966269</v>
+        <v>-2.0933975723966269E-4</v>
       </c>
       <c r="AC12">
         <v>-0.1409192192640476</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1655,28 +4582,28 @@
         <v>0.31101733833788259</v>
       </c>
       <c r="C13">
-        <v>0.00076130637845081214</v>
+        <v>7.6130637845081214E-4</v>
       </c>
       <c r="D13">
-        <v>-1.0597248580594416e-05</v>
+        <v>-1.0597248580594416E-5</v>
       </c>
       <c r="E13">
-        <v>-0.00081800971557898731</v>
+        <v>-8.1800971557898731E-4</v>
       </c>
       <c r="F13">
-        <v>-0.0022996402330196547</v>
+        <v>-2.2996402330196547E-3</v>
       </c>
       <c r="G13">
-        <v>-0.0020840060928629341</v>
+        <v>-2.0840060928629341E-3</v>
       </c>
       <c r="H13">
-        <v>-0.0018074731196273896</v>
+        <v>-1.8074731196273896E-3</v>
       </c>
       <c r="I13">
-        <v>-0.00014102580860634565</v>
+        <v>-1.4102580860634564E-4</v>
       </c>
       <c r="J13">
-        <v>2.3882946465188828e-05</v>
+        <v>2.3882946465188828E-5</v>
       </c>
       <c r="K13">
         <v>0.12622104399066042</v>
@@ -1691,52 +4618,52 @@
         <v>0.12883164226220428</v>
       </c>
       <c r="O13">
-        <v>0.0015978592333549535</v>
+        <v>1.5978592333549535E-3</v>
       </c>
       <c r="P13">
-        <v>-0.00023806608344676544</v>
+        <v>-2.3806608344676544E-4</v>
       </c>
       <c r="Q13">
-        <v>0.00015840791137201882</v>
+        <v>1.5840791137201882E-4</v>
       </c>
       <c r="R13">
-        <v>0.0025454591350424459</v>
+        <v>2.5454591350424459E-3</v>
       </c>
       <c r="S13">
-        <v>0.0013050014700020096</v>
+        <v>1.3050014700020096E-3</v>
       </c>
       <c r="T13">
-        <v>1.4318628017220836e-05</v>
+        <v>1.4318628017220836E-5</v>
       </c>
       <c r="U13">
-        <v>0.00076369801526789821</v>
+        <v>7.6369801526789821E-4</v>
       </c>
       <c r="V13">
-        <v>7.2219692256176096e-05</v>
+        <v>7.2219692256176096E-5</v>
       </c>
       <c r="W13">
-        <v>-8.3678680798407457e-05</v>
+        <v>-8.3678680798407457E-5</v>
       </c>
       <c r="X13">
-        <v>0.00014259695783727308</v>
+        <v>1.4259695783727308E-4</v>
       </c>
       <c r="Y13">
-        <v>0.00045594261040222614</v>
+        <v>4.5594261040222614E-4</v>
       </c>
       <c r="Z13">
-        <v>2.3055072983105794e-05</v>
+        <v>2.3055072983105794E-5</v>
       </c>
       <c r="AA13">
-        <v>-0.00094611015663131209</v>
+        <v>-9.4611015663131209E-4</v>
       </c>
       <c r="AB13">
-        <v>-0.00034661140095855469</v>
+        <v>-3.4661140095855469E-4</v>
       </c>
       <c r="AC13">
         <v>-0.14155238418697369</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1744,88 +4671,88 @@
         <v>-1.2977025062609999</v>
       </c>
       <c r="C14">
-        <v>0.00050086543685539287</v>
+        <v>5.0086543685539287E-4</v>
       </c>
       <c r="D14">
-        <v>-6.6524615736594614e-06</v>
+        <v>-6.6524615736594614E-6</v>
       </c>
       <c r="E14">
-        <v>-0.00017024617000220294</v>
+        <v>-1.7024617000220294E-4</v>
       </c>
       <c r="F14">
-        <v>-0.00054146835114354547</v>
+        <v>-5.4146835114354547E-4</v>
       </c>
       <c r="G14">
-        <v>-0.00046233263140945107</v>
+        <v>-4.6233263140945107E-4</v>
       </c>
       <c r="H14">
-        <v>-0.000313111489337456</v>
+        <v>-3.13111489337456E-4</v>
       </c>
       <c r="I14">
-        <v>-4.3477745673803578e-05</v>
+        <v>-4.3477745673803578E-5</v>
       </c>
       <c r="J14">
-        <v>0.00029684540808633898</v>
+        <v>2.9684540808633898E-4</v>
       </c>
       <c r="K14">
-        <v>0.0012371701217564098</v>
+        <v>1.2371701217564098E-3</v>
       </c>
       <c r="L14">
-        <v>0.0016028744078520063</v>
+        <v>1.6028744078520063E-3</v>
       </c>
       <c r="M14">
-        <v>0.0017482600377531389</v>
+        <v>1.7482600377531389E-3</v>
       </c>
       <c r="N14">
-        <v>0.0015978592333549535</v>
+        <v>1.5978592333549535E-3</v>
       </c>
       <c r="O14">
-        <v>0.011341641608859448</v>
+        <v>1.1341641608859448E-2</v>
       </c>
       <c r="P14">
-        <v>-0.0084587239804313503</v>
+        <v>-8.4587239804313503E-3</v>
       </c>
       <c r="Q14">
-        <v>-6.400838025002846e-06</v>
+        <v>-6.400838025002846E-6</v>
       </c>
       <c r="R14">
-        <v>-6.7116684058198906e-05</v>
+        <v>-6.7116684058198906E-5</v>
       </c>
       <c r="S14">
-        <v>0.00046080403127848196</v>
+        <v>4.6080403127848196E-4</v>
       </c>
       <c r="T14">
-        <v>-9.2511191729383654e-05</v>
+        <v>-9.2511191729383654E-5</v>
       </c>
       <c r="U14">
-        <v>0.0004510368710206441</v>
+        <v>4.510368710206441E-4</v>
       </c>
       <c r="V14">
-        <v>-2.6041585357547593e-05</v>
+        <v>-2.6041585357547593E-5</v>
       </c>
       <c r="W14">
-        <v>0.00017260599155957462</v>
+        <v>1.7260599155957462E-4</v>
       </c>
       <c r="X14">
-        <v>0.00030351309080043086</v>
+        <v>3.0351309080043086E-4</v>
       </c>
       <c r="Y14">
-        <v>2.5603008474925641e-05</v>
+        <v>2.5603008474925641E-5</v>
       </c>
       <c r="Z14">
-        <v>-5.9054300137238929e-05</v>
+        <v>-5.9054300137238929E-5</v>
       </c>
       <c r="AA14">
-        <v>0.00032276381591607938</v>
+        <v>3.2276381591607938E-4</v>
       </c>
       <c r="AB14">
-        <v>-0.00012529107611121393</v>
+        <v>-1.2529107611121393E-4</v>
       </c>
       <c r="AC14">
-        <v>-0.010260595912764597</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>-1.0260595912764597E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1833,177 +4760,177 @@
         <v>0.3524230505095004</v>
       </c>
       <c r="C15">
-        <v>0.00014103045986290958</v>
+        <v>1.4103045986290958E-4</v>
       </c>
       <c r="D15">
-        <v>-1.4936905711491782e-06</v>
+        <v>-1.4936905711491782E-6</v>
       </c>
       <c r="E15">
-        <v>0.00061492837201171889</v>
+        <v>6.1492837201171889E-4</v>
       </c>
       <c r="F15">
-        <v>0.0016883641818154769</v>
+        <v>1.6883641818154769E-3</v>
       </c>
       <c r="G15">
-        <v>0.0020927708181128052</v>
+        <v>2.0927708181128052E-3</v>
       </c>
       <c r="H15">
-        <v>0.0024951984337222006</v>
+        <v>2.4951984337222006E-3</v>
       </c>
       <c r="I15">
-        <v>0.0004928540016326938</v>
+        <v>4.928540016326938E-4</v>
       </c>
       <c r="J15">
-        <v>0.00020602830014086274</v>
+        <v>2.0602830014086274E-4</v>
       </c>
       <c r="K15">
-        <v>-0.00051497696858347417</v>
+        <v>-5.1497696858347417E-4</v>
       </c>
       <c r="L15">
-        <v>-0.00014517843355001461</v>
+        <v>-1.4517843355001461E-4</v>
       </c>
       <c r="M15">
-        <v>-0.00042585017902223993</v>
+        <v>-4.2585017902223993E-4</v>
       </c>
       <c r="N15">
-        <v>-0.00023806608344676544</v>
+        <v>-2.3806608344676544E-4</v>
       </c>
       <c r="O15">
-        <v>-0.0084587239804313503</v>
+        <v>-8.4587239804313503E-3</v>
       </c>
       <c r="P15">
-        <v>0.010502439656287136</v>
+        <v>1.0502439656287136E-2</v>
       </c>
       <c r="Q15">
-        <v>3.7413476630996528e-05</v>
+        <v>3.7413476630996528E-5</v>
       </c>
       <c r="R15">
-        <v>0.00052228725405707483</v>
+        <v>5.2228725405707483E-4</v>
       </c>
       <c r="S15">
-        <v>-0.00099378779692531078</v>
+        <v>-9.9378779692531078E-4</v>
       </c>
       <c r="T15">
-        <v>0.00048713695556201286</v>
+        <v>4.8713695556201286E-4</v>
       </c>
       <c r="U15">
-        <v>0.00020570639683466929</v>
+        <v>2.0570639683466929E-4</v>
       </c>
       <c r="V15">
-        <v>-0.00031875690508269386</v>
+        <v>-3.1875690508269386E-4</v>
       </c>
       <c r="W15">
-        <v>-0.00010875086796427165</v>
+        <v>-1.0875086796427165E-4</v>
       </c>
       <c r="X15">
-        <v>-0.00020011545726547327</v>
+        <v>-2.0011545726547327E-4</v>
       </c>
       <c r="Y15">
-        <v>-0.0003475431971622322</v>
+        <v>-3.475431971622322E-4</v>
       </c>
       <c r="Z15">
-        <v>3.1594869106669861e-05</v>
+        <v>3.1594869106669861E-5</v>
       </c>
       <c r="AA15">
-        <v>-9.6966780673379111e-05</v>
+        <v>-9.6966780673379111E-5</v>
       </c>
       <c r="AB15">
-        <v>-6.2989349903705676e-06</v>
+        <v>-6.2989349903705676E-6</v>
       </c>
       <c r="AC15">
-        <v>-0.0048720707954054039</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>-4.8720707954054039E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
       <c r="B16">
-        <v>0.024479067656800899</v>
+        <v>2.4479067656800899E-2</v>
       </c>
       <c r="C16">
-        <v>0.00026846599287483689</v>
+        <v>2.6846599287483688E-4</v>
       </c>
       <c r="D16">
-        <v>-4.1828667863125812e-06</v>
+        <v>-4.1828667863125812E-6</v>
       </c>
       <c r="E16">
-        <v>0.00060432022592265416</v>
+        <v>6.0432022592265416E-4</v>
       </c>
       <c r="F16">
-        <v>0.00010342242115340256</v>
+        <v>1.0342242115340256E-4</v>
       </c>
       <c r="G16">
-        <v>0.00028254567336999175</v>
+        <v>2.8254567336999175E-4</v>
       </c>
       <c r="H16">
-        <v>0.00060711159355980387</v>
+        <v>6.0711159355980387E-4</v>
       </c>
       <c r="I16">
-        <v>-8.6565154103612665e-05</v>
+        <v>-8.6565154103612665E-5</v>
       </c>
       <c r="J16">
-        <v>0.00016829138311683236</v>
+        <v>1.6829138311683236E-4</v>
       </c>
       <c r="K16">
-        <v>8.6454305426891809e-05</v>
+        <v>8.6454305426891809E-5</v>
       </c>
       <c r="L16">
-        <v>0.00029864524199625653</v>
+        <v>2.9864524199625653E-4</v>
       </c>
       <c r="M16">
-        <v>6.5166278190732785e-05</v>
+        <v>6.5166278190732785E-5</v>
       </c>
       <c r="N16">
-        <v>0.00015840791137201882</v>
+        <v>1.5840791137201882E-4</v>
       </c>
       <c r="O16">
-        <v>-6.400838025002846e-06</v>
+        <v>-6.400838025002846E-6</v>
       </c>
       <c r="P16">
-        <v>3.7413476630996528e-05</v>
+        <v>3.7413476630996528E-5</v>
       </c>
       <c r="Q16">
-        <v>0.001639001900097845</v>
+        <v>1.639001900097845E-3</v>
       </c>
       <c r="R16">
-        <v>0.0011565872815602601</v>
+        <v>1.1565872815602601E-3</v>
       </c>
       <c r="S16">
-        <v>0.00056130754987023922</v>
+        <v>5.6130754987023922E-4</v>
       </c>
       <c r="T16">
-        <v>0.00030645914027556138</v>
+        <v>3.0645914027556138E-4</v>
       </c>
       <c r="U16">
-        <v>-0.00021353903958132151</v>
+        <v>-2.1353903958132151E-4</v>
       </c>
       <c r="V16">
-        <v>-0.0001324105212069283</v>
+        <v>-1.324105212069283E-4</v>
       </c>
       <c r="W16">
-        <v>3.54390405969034e-06</v>
+        <v>3.54390405969034E-6</v>
       </c>
       <c r="X16">
-        <v>1.8139032086267153e-05</v>
+        <v>1.8139032086267153E-5</v>
       </c>
       <c r="Y16">
-        <v>0.00017558366586873915</v>
+        <v>1.7558366586873915E-4</v>
       </c>
       <c r="Z16">
-        <v>1.768354175508109e-05</v>
+        <v>1.768354175508109E-5</v>
       </c>
       <c r="AA16">
-        <v>-0.00014323844702985623</v>
+        <v>-1.4323844702985623E-4</v>
       </c>
       <c r="AB16">
-        <v>-5.6475426834193916e-05</v>
+        <v>-5.6475426834193916E-5</v>
       </c>
       <c r="AC16">
-        <v>-0.0065193623063989417</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>-6.5193623063989417E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -2011,88 +4938,88 @@
         <v>0.10750666611900896</v>
       </c>
       <c r="C17">
-        <v>0.00084767201095952479</v>
+        <v>8.4767201095952479E-4</v>
       </c>
       <c r="D17">
-        <v>-1.2591102335872349e-05</v>
+        <v>-1.2591102335872349E-5</v>
       </c>
       <c r="E17">
-        <v>-0.001185816926129283</v>
+        <v>-1.185816926129283E-3</v>
       </c>
       <c r="F17">
-        <v>-0.0013185659600419282</v>
+        <v>-1.3185659600419282E-3</v>
       </c>
       <c r="G17">
-        <v>-0.0010165960014589521</v>
+        <v>-1.0165960014589521E-3</v>
       </c>
       <c r="H17">
-        <v>-0.00053292448940069992</v>
+        <v>-5.3292448940069992E-4</v>
       </c>
       <c r="I17">
-        <v>-0.00019222955637913049</v>
+        <v>-1.9222955637913049E-4</v>
       </c>
       <c r="J17">
-        <v>7.0395647860731878e-05</v>
+        <v>7.0395647860731878E-5</v>
       </c>
       <c r="K17">
-        <v>0.0009326373362703276</v>
+        <v>9.326373362703276E-4</v>
       </c>
       <c r="L17">
-        <v>0.0022401781514436239</v>
+        <v>2.2401781514436239E-3</v>
       </c>
       <c r="M17">
-        <v>0.0024475013129420728</v>
+        <v>2.4475013129420728E-3</v>
       </c>
       <c r="N17">
-        <v>0.0025454591350424459</v>
+        <v>2.5454591350424459E-3</v>
       </c>
       <c r="O17">
-        <v>-6.7116684058198906e-05</v>
+        <v>-6.7116684058198906E-5</v>
       </c>
       <c r="P17">
-        <v>0.00052228725405707483</v>
+        <v>5.2228725405707483E-4</v>
       </c>
       <c r="Q17">
-        <v>0.0011565872815602601</v>
+        <v>1.1565872815602601E-3</v>
       </c>
       <c r="R17">
-        <v>0.0075737097484364149</v>
+        <v>7.5737097484364149E-3</v>
       </c>
       <c r="S17">
-        <v>0.0021769866086991368</v>
+        <v>2.1769866086991368E-3</v>
       </c>
       <c r="T17">
-        <v>-0.00095707695601135066</v>
+        <v>-9.5707695601135066E-4</v>
       </c>
       <c r="U17">
-        <v>-0.0004896151496621182</v>
+        <v>-4.896151496621182E-4</v>
       </c>
       <c r="V17">
-        <v>-0.00013028231128863065</v>
+        <v>-1.3028231128863065E-4</v>
       </c>
       <c r="W17">
-        <v>-7.6430943904509619e-05</v>
+        <v>-7.6430943904509619E-5</v>
       </c>
       <c r="X17">
-        <v>-0.00010270714257049193</v>
+        <v>-1.0270714257049193E-4</v>
       </c>
       <c r="Y17">
-        <v>0.00026683394313617187</v>
+        <v>2.6683394313617187E-4</v>
       </c>
       <c r="Z17">
-        <v>1.9550893671773506e-05</v>
+        <v>1.9550893671773506E-5</v>
       </c>
       <c r="AA17">
-        <v>-0.00023529725315190003</v>
+        <v>-2.3529725315190003E-4</v>
       </c>
       <c r="AB17">
-        <v>-0.00014313633124585657</v>
+        <v>-1.4313633124585657E-4</v>
       </c>
       <c r="AC17">
-        <v>-0.019487468604409211</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>-1.9487468604409211E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -2100,711 +5027,711 @@
         <v>0.52884050990589027</v>
       </c>
       <c r="C18">
-        <v>0.0015212513754893839</v>
+        <v>1.5212513754893839E-3</v>
       </c>
       <c r="D18">
-        <v>-2.3419024201708997e-05</v>
+        <v>-2.3419024201708997E-5</v>
       </c>
       <c r="E18">
-        <v>0.0043965898327091354</v>
+        <v>4.3965898327091354E-3</v>
       </c>
       <c r="F18">
-        <v>0.0017626659257910324</v>
+        <v>1.7626659257910324E-3</v>
       </c>
       <c r="G18">
-        <v>0.001881657036740818</v>
+        <v>1.881657036740818E-3</v>
       </c>
       <c r="H18">
-        <v>0.0017528332087929505</v>
+        <v>1.7528332087929505E-3</v>
       </c>
       <c r="I18">
-        <v>-0.00034538688708989074</v>
+        <v>-3.4538688708989074E-4</v>
       </c>
       <c r="J18">
-        <v>-0.0002296670817320584</v>
+        <v>-2.296670817320584E-4</v>
       </c>
       <c r="K18">
-        <v>0.0051110052188235167</v>
+        <v>5.1110052188235167E-3</v>
       </c>
       <c r="L18">
-        <v>0.0019126615936774227</v>
+        <v>1.9126615936774227E-3</v>
       </c>
       <c r="M18">
-        <v>0.001584818916172348</v>
+        <v>1.584818916172348E-3</v>
       </c>
       <c r="N18">
-        <v>0.0013050014700020096</v>
+        <v>1.3050014700020096E-3</v>
       </c>
       <c r="O18">
-        <v>0.00046080403127848196</v>
+        <v>4.6080403127848196E-4</v>
       </c>
       <c r="P18">
-        <v>-0.00099378779692531078</v>
+        <v>-9.9378779692531078E-4</v>
       </c>
       <c r="Q18">
-        <v>0.00056130754987023922</v>
+        <v>5.6130754987023922E-4</v>
       </c>
       <c r="R18">
-        <v>0.0021769866086991368</v>
+        <v>2.1769866086991368E-3</v>
       </c>
       <c r="S18">
-        <v>0.070077705117639666</v>
+        <v>7.0077705117639666E-2</v>
       </c>
       <c r="T18">
-        <v>0.0012989745284579593</v>
+        <v>1.2989745284579593E-3</v>
       </c>
       <c r="U18">
-        <v>-0.00017044349845051453</v>
+        <v>-1.7044349845051453E-4</v>
       </c>
       <c r="V18">
-        <v>-0.00085006808060613249</v>
+        <v>-8.5006808060613249E-4</v>
       </c>
       <c r="W18">
-        <v>0.0006721508560447037</v>
+        <v>6.721508560447037E-4</v>
       </c>
       <c r="X18">
-        <v>-0.0010505416024151463</v>
+        <v>-1.0505416024151463E-3</v>
       </c>
       <c r="Y18">
-        <v>0.00011658478792299018</v>
+        <v>1.1658478792299018E-4</v>
       </c>
       <c r="Z18">
-        <v>0.00017010121133049475</v>
+        <v>1.7010121133049475E-4</v>
       </c>
       <c r="AA18">
-        <v>-0.0039361491439488658</v>
+        <v>-3.9361491439488657E-3</v>
       </c>
       <c r="AB18">
-        <v>0.00017463050996927368</v>
+        <v>1.7463050996927368E-4</v>
       </c>
       <c r="AC18">
         <v>-0.12437092013677398</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>37</v>
       </c>
       <c r="B19">
-        <v>-0.097277949352354926</v>
+        <v>-9.7277949352354925E-2</v>
       </c>
       <c r="C19">
-        <v>0.00018712331455505646</v>
+        <v>1.8712331455505646E-4</v>
       </c>
       <c r="D19">
-        <v>-2.4593523277999761e-06</v>
+        <v>-2.4593523277999761E-6</v>
       </c>
       <c r="E19">
-        <v>0.001215931455950961</v>
+        <v>1.215931455950961E-3</v>
       </c>
       <c r="F19">
-        <v>0.0039299214269495472</v>
+        <v>3.9299214269495472E-3</v>
       </c>
       <c r="G19">
-        <v>0.0041928998471542833</v>
+        <v>4.1928998471542833E-3</v>
       </c>
       <c r="H19">
-        <v>0.0046769439602337695</v>
+        <v>4.6769439602337695E-3</v>
       </c>
       <c r="I19">
-        <v>0.00012370298651672389</v>
+        <v>1.2370298651672389E-4</v>
       </c>
       <c r="J19">
-        <v>-0.00018701068294554697</v>
+        <v>-1.8701068294554697E-4</v>
       </c>
       <c r="K19">
-        <v>2.4624103547837839e-05</v>
+        <v>2.4624103547837839E-5</v>
       </c>
       <c r="L19">
-        <v>0.00071868912102651672</v>
+        <v>7.1868912102651672E-4</v>
       </c>
       <c r="M19">
-        <v>-0.00043143290512538679</v>
+        <v>-4.3143290512538679E-4</v>
       </c>
       <c r="N19">
-        <v>1.4318628017220836e-05</v>
+        <v>1.4318628017220836E-5</v>
       </c>
       <c r="O19">
-        <v>-9.2511191729383654e-05</v>
+        <v>-9.2511191729383654E-5</v>
       </c>
       <c r="P19">
-        <v>0.00048713695556201286</v>
+        <v>4.8713695556201286E-4</v>
       </c>
       <c r="Q19">
-        <v>0.00030645914027556138</v>
+        <v>3.0645914027556138E-4</v>
       </c>
       <c r="R19">
-        <v>-0.00095707695601135066</v>
+        <v>-9.5707695601135066E-4</v>
       </c>
       <c r="S19">
-        <v>0.0012989745284579593</v>
+        <v>1.2989745284579593E-3</v>
       </c>
       <c r="T19">
-        <v>0.014924067687755945</v>
+        <v>1.4924067687755945E-2</v>
       </c>
       <c r="U19">
-        <v>0.0013794022607466127</v>
+        <v>1.3794022607466127E-3</v>
       </c>
       <c r="V19">
-        <v>0.00012396227157476618</v>
+        <v>1.2396227157476618E-4</v>
       </c>
       <c r="W19">
-        <v>-0.0002336639746841414</v>
+        <v>-2.336639746841414E-4</v>
       </c>
       <c r="X19">
-        <v>0.00015135428332464156</v>
+        <v>1.5135428332464155E-4</v>
       </c>
       <c r="Y19">
-        <v>0.00043458495013149389</v>
+        <v>4.3458495013149389E-4</v>
       </c>
       <c r="Z19">
-        <v>-4.098250420788525e-05</v>
+        <v>-4.098250420788525E-5</v>
       </c>
       <c r="AA19">
-        <v>0.0005463347240770083</v>
+        <v>5.463347240770083E-4</v>
       </c>
       <c r="AB19">
-        <v>0.00037559696354284335</v>
+        <v>3.7559696354284335E-4</v>
       </c>
       <c r="AC19">
-        <v>-0.0095194506122060207</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>-9.5194506122060207E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
       <c r="B20">
-        <v>-0.00781831289449628</v>
+        <v>-7.81831289449628E-3</v>
       </c>
       <c r="C20">
-        <v>7.4585332874469151e-05</v>
+        <v>7.4585332874469151E-5</v>
       </c>
       <c r="D20">
-        <v>-9.8889102291815217e-07</v>
+        <v>-9.8889102291815217E-7</v>
       </c>
       <c r="E20">
-        <v>-0.00069323190143506612</v>
+        <v>-6.9323190143506612E-4</v>
       </c>
       <c r="F20">
-        <v>0.00072932150521406579</v>
+        <v>7.2932150521406579E-4</v>
       </c>
       <c r="G20">
-        <v>0.0013933026717907328</v>
+        <v>1.3933026717907328E-3</v>
       </c>
       <c r="H20">
-        <v>0.0015881526960668914</v>
+        <v>1.5881526960668914E-3</v>
       </c>
       <c r="I20">
-        <v>1.8172215799587918e-05</v>
+        <v>1.8172215799587918E-5</v>
       </c>
       <c r="J20">
-        <v>-0.00040740730551853504</v>
+        <v>-4.0740730551853504E-4</v>
       </c>
       <c r="K20">
-        <v>-0.00027062029347073996</v>
+        <v>-2.7062029347073996E-4</v>
       </c>
       <c r="L20">
-        <v>0.00040237242028919734</v>
+        <v>4.0237242028919734E-4</v>
       </c>
       <c r="M20">
-        <v>0.00065124228427429487</v>
+        <v>6.5124228427429487E-4</v>
       </c>
       <c r="N20">
-        <v>0.00076369801526789821</v>
+        <v>7.6369801526789821E-4</v>
       </c>
       <c r="O20">
-        <v>0.0004510368710206441</v>
+        <v>4.510368710206441E-4</v>
       </c>
       <c r="P20">
-        <v>0.00020570639683466929</v>
+        <v>2.0570639683466929E-4</v>
       </c>
       <c r="Q20">
-        <v>-0.00021353903958132151</v>
+        <v>-2.1353903958132151E-4</v>
       </c>
       <c r="R20">
-        <v>-0.0004896151496621182</v>
+        <v>-4.896151496621182E-4</v>
       </c>
       <c r="S20">
-        <v>-0.00017044349845051453</v>
+        <v>-1.7044349845051453E-4</v>
       </c>
       <c r="T20">
-        <v>0.0013794022607466127</v>
+        <v>1.3794022607466127E-3</v>
       </c>
       <c r="U20">
-        <v>0.002567770024409337</v>
+        <v>2.567770024409337E-3</v>
       </c>
       <c r="V20">
-        <v>3.1888725510905615e-05</v>
+        <v>3.1888725510905615E-5</v>
       </c>
       <c r="W20">
-        <v>0.00027584695683541337</v>
+        <v>2.7584695683541337E-4</v>
       </c>
       <c r="X20">
-        <v>0.00032869607009700205</v>
+        <v>3.2869607009700205E-4</v>
       </c>
       <c r="Y20">
-        <v>6.668529795969796e-05</v>
+        <v>6.668529795969796E-5</v>
       </c>
       <c r="Z20">
-        <v>7.2307244565101763e-06</v>
+        <v>7.2307244565101763E-6</v>
       </c>
       <c r="AA20">
-        <v>-0.00015986069548154649</v>
+        <v>-1.5986069548154649E-4</v>
       </c>
       <c r="AB20">
-        <v>-3.5952068318148892e-05</v>
+        <v>-3.5952068318148892E-5</v>
       </c>
       <c r="AC20">
-        <v>-0.0037270062534334805</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>-3.7270062534334805E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>39</v>
       </c>
       <c r="B21">
-        <v>0.026091819286854827</v>
+        <v>2.6091819286854827E-2</v>
       </c>
       <c r="C21">
-        <v>-0.00010931952386821213</v>
+        <v>-1.0931952386821213E-4</v>
       </c>
       <c r="D21">
-        <v>1.4038163966172352e-06</v>
+        <v>1.4038163966172352E-6</v>
       </c>
       <c r="E21">
-        <v>9.2835519880955439e-06</v>
+        <v>9.2835519880955439E-6</v>
       </c>
       <c r="F21">
-        <v>0.00019653571165228163</v>
+        <v>1.9653571165228163E-4</v>
       </c>
       <c r="G21">
-        <v>-5.4696153609151623e-05</v>
+        <v>-5.4696153609151623E-5</v>
       </c>
       <c r="H21">
-        <v>-3.4183590892554282e-05</v>
+        <v>-3.4183590892554282E-5</v>
       </c>
       <c r="I21">
-        <v>-3.1245526984381104e-05</v>
+        <v>-3.1245526984381104E-5</v>
       </c>
       <c r="J21">
-        <v>-9.0280219900468057e-05</v>
+        <v>-9.0280219900468057E-5</v>
       </c>
       <c r="K21">
-        <v>-0.00045314119654765728</v>
+        <v>-4.5314119654765728E-4</v>
       </c>
       <c r="L21">
-        <v>-8.2422828415933472e-05</v>
+        <v>-8.2422828415933472E-5</v>
       </c>
       <c r="M21">
-        <v>-9.8587365584712483e-05</v>
+        <v>-9.8587365584712483E-5</v>
       </c>
       <c r="N21">
-        <v>7.2219692256176096e-05</v>
+        <v>7.2219692256176096E-5</v>
       </c>
       <c r="O21">
-        <v>-2.6041585357547593e-05</v>
+        <v>-2.6041585357547593E-5</v>
       </c>
       <c r="P21">
-        <v>-0.00031875690508269386</v>
+        <v>-3.1875690508269386E-4</v>
       </c>
       <c r="Q21">
-        <v>-0.0001324105212069283</v>
+        <v>-1.324105212069283E-4</v>
       </c>
       <c r="R21">
-        <v>-0.00013028231128863065</v>
+        <v>-1.3028231128863065E-4</v>
       </c>
       <c r="S21">
-        <v>-0.00085006808060613249</v>
+        <v>-8.5006808060613249E-4</v>
       </c>
       <c r="T21">
-        <v>0.00012396227157476618</v>
+        <v>1.2396227157476618E-4</v>
       </c>
       <c r="U21">
-        <v>3.1888725510905615e-05</v>
+        <v>3.1888725510905615E-5</v>
       </c>
       <c r="V21">
-        <v>0.0037865729561209305</v>
+        <v>3.7865729561209305E-3</v>
       </c>
       <c r="W21">
-        <v>0.001717479076485038</v>
+        <v>1.717479076485038E-3</v>
       </c>
       <c r="X21">
-        <v>0.0017043847457838795</v>
+        <v>1.7043847457838795E-3</v>
       </c>
       <c r="Y21">
-        <v>0.0017027194257957299</v>
+        <v>1.7027194257957299E-3</v>
       </c>
       <c r="Z21">
-        <v>-2.0872426216330844e-05</v>
+        <v>-2.0872426216330844E-5</v>
       </c>
       <c r="AA21">
-        <v>-5.611906361368677e-05</v>
+        <v>-5.611906361368677E-5</v>
       </c>
       <c r="AB21">
-        <v>0.00020046640641630906</v>
+        <v>2.0046640641630906E-4</v>
       </c>
       <c r="AC21">
-        <v>0.0020348979392264604</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>2.0348979392264604E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>40</v>
       </c>
       <c r="B22">
-        <v>-0.03302432123556677</v>
+        <v>-3.302432123556677E-2</v>
       </c>
       <c r="C22">
-        <v>-0.00016779065361285494</v>
+        <v>-1.6779065361285494E-4</v>
       </c>
       <c r="D22">
-        <v>1.9740948978267642e-06</v>
+        <v>1.9740948978267642E-6</v>
       </c>
       <c r="E22">
-        <v>0.00025221105895481782</v>
+        <v>2.5221105895481782E-4</v>
       </c>
       <c r="F22">
-        <v>-8.5135240386171761e-05</v>
+        <v>-8.513524038617176E-5</v>
       </c>
       <c r="G22">
-        <v>0.0002829605347458527</v>
+        <v>2.829605347458527E-4</v>
       </c>
       <c r="H22">
-        <v>0.00020934949812233543</v>
+        <v>2.0934949812233543E-4</v>
       </c>
       <c r="I22">
-        <v>0.00031000778825506338</v>
+        <v>3.1000778825506338E-4</v>
       </c>
       <c r="J22">
-        <v>-0.00033838495811496091</v>
+        <v>-3.3838495811496091E-4</v>
       </c>
       <c r="K22">
-        <v>-0.00076813540030744309</v>
+        <v>-7.6813540030744309E-4</v>
       </c>
       <c r="L22">
-        <v>-0.00043981388819462619</v>
+        <v>-4.3981388819462619E-4</v>
       </c>
       <c r="M22">
-        <v>2.5481118708245432e-05</v>
+        <v>2.5481118708245432E-5</v>
       </c>
       <c r="N22">
-        <v>-8.3678680798407457e-05</v>
+        <v>-8.3678680798407457E-5</v>
       </c>
       <c r="O22">
-        <v>0.00017260599155957462</v>
+        <v>1.7260599155957462E-4</v>
       </c>
       <c r="P22">
-        <v>-0.00010875086796427165</v>
+        <v>-1.0875086796427165E-4</v>
       </c>
       <c r="Q22">
-        <v>3.54390405969034e-06</v>
+        <v>3.54390405969034E-6</v>
       </c>
       <c r="R22">
-        <v>-7.6430943904509619e-05</v>
+        <v>-7.6430943904509619E-5</v>
       </c>
       <c r="S22">
-        <v>0.0006721508560447037</v>
+        <v>6.721508560447037E-4</v>
       </c>
       <c r="T22">
-        <v>-0.0002336639746841414</v>
+        <v>-2.336639746841414E-4</v>
       </c>
       <c r="U22">
-        <v>0.00027584695683541337</v>
+        <v>2.7584695683541337E-4</v>
       </c>
       <c r="V22">
-        <v>0.001717479076485038</v>
+        <v>1.717479076485038E-3</v>
       </c>
       <c r="W22">
-        <v>0.0057684402190429024</v>
+        <v>5.7684402190429024E-3</v>
       </c>
       <c r="X22">
-        <v>0.0017021666750890807</v>
+        <v>1.7021666750890807E-3</v>
       </c>
       <c r="Y22">
-        <v>0.0017125061993478639</v>
+        <v>1.7125061993478639E-3</v>
       </c>
       <c r="Z22">
-        <v>-3.2733428966463393e-06</v>
+        <v>-3.2733428966463393E-6</v>
       </c>
       <c r="AA22">
-        <v>-0.00018552715959157984</v>
+        <v>-1.8552715959157983E-4</v>
       </c>
       <c r="AB22">
-        <v>-8.5405266374358456e-05</v>
+        <v>-8.5405266374358456E-5</v>
       </c>
       <c r="AC22">
-        <v>0.00036143152105537479</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>3.6143152105537479E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>41</v>
       </c>
       <c r="B23">
-        <v>0.030933041745738917</v>
+        <v>3.0933041745738916E-2</v>
       </c>
       <c r="C23">
-        <v>-0.00020749338459930488</v>
+        <v>-2.0749338459930488E-4</v>
       </c>
       <c r="D23">
-        <v>3.310349913192304e-06</v>
+        <v>3.310349913192304E-6</v>
       </c>
       <c r="E23">
-        <v>-0.00092761560780744122</v>
+        <v>-9.2761560780744122E-4</v>
       </c>
       <c r="F23">
-        <v>-0.00043299378225466676</v>
+        <v>-4.3299378225466676E-4</v>
       </c>
       <c r="G23">
-        <v>-0.00036431670063621728</v>
+        <v>-3.6431670063621728E-4</v>
       </c>
       <c r="H23">
-        <v>-5.1645721971156644e-05</v>
+        <v>-5.1645721971156644E-5</v>
       </c>
       <c r="I23">
-        <v>3.7203652162116637e-05</v>
+        <v>3.7203652162116637E-5</v>
       </c>
       <c r="J23">
-        <v>8.6441380980626612e-05</v>
+        <v>8.6441380980626612E-5</v>
       </c>
       <c r="K23">
-        <v>-0.00035993191884685014</v>
+        <v>-3.5993191884685014E-4</v>
       </c>
       <c r="L23">
-        <v>-0.0002270518397617903</v>
+        <v>-2.270518397617903E-4</v>
       </c>
       <c r="M23">
-        <v>8.7433953243187118e-05</v>
+        <v>8.7433953243187118E-5</v>
       </c>
       <c r="N23">
-        <v>0.00014259695783727308</v>
+        <v>1.4259695783727308E-4</v>
       </c>
       <c r="O23">
-        <v>0.00030351309080043086</v>
+        <v>3.0351309080043086E-4</v>
       </c>
       <c r="P23">
-        <v>-0.00020011545726547327</v>
+        <v>-2.0011545726547327E-4</v>
       </c>
       <c r="Q23">
-        <v>1.8139032086267153e-05</v>
+        <v>1.8139032086267153E-5</v>
       </c>
       <c r="R23">
-        <v>-0.00010270714257049193</v>
+        <v>-1.0270714257049193E-4</v>
       </c>
       <c r="S23">
-        <v>-0.0010505416024151463</v>
+        <v>-1.0505416024151463E-3</v>
       </c>
       <c r="T23">
-        <v>0.00015135428332464156</v>
+        <v>1.5135428332464155E-4</v>
       </c>
       <c r="U23">
-        <v>0.00032869607009700205</v>
+        <v>3.2869607009700205E-4</v>
       </c>
       <c r="V23">
-        <v>0.0017043847457838795</v>
+        <v>1.7043847457838795E-3</v>
       </c>
       <c r="W23">
-        <v>0.0017021666750890807</v>
+        <v>1.7021666750890807E-3</v>
       </c>
       <c r="X23">
-        <v>0.0038973985190605977</v>
+        <v>3.8973985190605977E-3</v>
       </c>
       <c r="Y23">
-        <v>0.0017256639260714891</v>
+        <v>1.7256639260714891E-3</v>
       </c>
       <c r="Z23">
-        <v>-1.6916891520273331e-05</v>
+        <v>-1.6916891520273331E-5</v>
       </c>
       <c r="AA23">
-        <v>-1.2006427280381358e-05</v>
+        <v>-1.2006427280381358E-5</v>
       </c>
       <c r="AB23">
-        <v>-9.4915709889197171e-05</v>
+        <v>-9.4915709889197171E-5</v>
       </c>
       <c r="AC23">
-        <v>0.003227778237769049</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>3.227778237769049E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>42</v>
       </c>
       <c r="B24">
-        <v>0.03497258374983573</v>
+        <v>3.497258374983573E-2</v>
       </c>
       <c r="C24">
-        <v>-9.5783296306420048e-05</v>
+        <v>-9.5783296306420048E-5</v>
       </c>
       <c r="D24">
-        <v>1.2173127487731499e-06</v>
+        <v>1.2173127487731499E-6</v>
       </c>
       <c r="E24">
-        <v>-9.0626276028116497e-05</v>
+        <v>-9.0626276028116497E-5</v>
       </c>
       <c r="F24">
-        <v>1.2107516790364758e-08</v>
+        <v>1.2107516790364758E-8</v>
       </c>
       <c r="G24">
-        <v>3.4444722528588349e-05</v>
+        <v>3.4444722528588349E-5</v>
       </c>
       <c r="H24">
-        <v>0.00033863209155418975</v>
+        <v>3.3863209155418975E-4</v>
       </c>
       <c r="I24">
-        <v>1.5159221627661693e-05</v>
+        <v>1.5159221627661693E-5</v>
       </c>
       <c r="J24">
-        <v>-6.2290560972090779e-06</v>
+        <v>-6.2290560972090779E-6</v>
       </c>
       <c r="K24">
-        <v>0.00017545854591904941</v>
+        <v>1.7545854591904941E-4</v>
       </c>
       <c r="L24">
-        <v>0.00029397156412953179</v>
+        <v>2.9397156412953179E-4</v>
       </c>
       <c r="M24">
-        <v>0.00020454291624991475</v>
+        <v>2.0454291624991475E-4</v>
       </c>
       <c r="N24">
-        <v>0.00045594261040222614</v>
+        <v>4.5594261040222614E-4</v>
       </c>
       <c r="O24">
-        <v>2.5603008474925641e-05</v>
+        <v>2.5603008474925641E-5</v>
       </c>
       <c r="P24">
-        <v>-0.0003475431971622322</v>
+        <v>-3.475431971622322E-4</v>
       </c>
       <c r="Q24">
-        <v>0.00017558366586873915</v>
+        <v>1.7558366586873915E-4</v>
       </c>
       <c r="R24">
-        <v>0.00026683394313617187</v>
+        <v>2.6683394313617187E-4</v>
       </c>
       <c r="S24">
-        <v>0.00011658478792299018</v>
+        <v>1.1658478792299018E-4</v>
       </c>
       <c r="T24">
-        <v>0.00043458495013149389</v>
+        <v>4.3458495013149389E-4</v>
       </c>
       <c r="U24">
-        <v>6.668529795969796e-05</v>
+        <v>6.668529795969796E-5</v>
       </c>
       <c r="V24">
-        <v>0.0017027194257957299</v>
+        <v>1.7027194257957299E-3</v>
       </c>
       <c r="W24">
-        <v>0.0017125061993478639</v>
+        <v>1.7125061993478639E-3</v>
       </c>
       <c r="X24">
-        <v>0.0017256639260714891</v>
+        <v>1.7256639260714891E-3</v>
       </c>
       <c r="Y24">
-        <v>0.0026272263982569876</v>
+        <v>2.6272263982569876E-3</v>
       </c>
       <c r="Z24">
-        <v>-2.3377247564179982e-07</v>
+        <v>-2.3377247564179982E-7</v>
       </c>
       <c r="AA24">
-        <v>5.2106295382858071e-05</v>
+        <v>5.2106295382858071E-5</v>
       </c>
       <c r="AB24">
-        <v>-7.1458161354253031e-05</v>
+        <v>-7.1458161354253031E-5</v>
       </c>
       <c r="AC24">
-        <v>-0.0005913633868820066</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>-5.913633868820066E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>43</v>
       </c>
       <c r="B25">
-        <v>-0.0048282436914953309</v>
+        <v>-4.8282436914953309E-3</v>
       </c>
       <c r="C25">
-        <v>8.5362652896847657e-07</v>
+        <v>8.5362652896847657E-7</v>
       </c>
       <c r="D25">
-        <v>-2.7942615136463235e-08</v>
+        <v>-2.7942615136463235E-8</v>
       </c>
       <c r="E25">
-        <v>-3.6724811899611828e-06</v>
+        <v>-3.6724811899611828E-6</v>
       </c>
       <c r="F25">
-        <v>-1.5185734535255351e-05</v>
+        <v>-1.5185734535255351E-5</v>
       </c>
       <c r="G25">
-        <v>1.7820299611969703e-05</v>
+        <v>1.7820299611969703E-5</v>
       </c>
       <c r="H25">
-        <v>6.918198587869582e-06</v>
+        <v>6.918198587869582E-6</v>
       </c>
       <c r="I25">
-        <v>1.2119011141286794e-05</v>
+        <v>1.2119011141286793E-5</v>
       </c>
       <c r="J25">
-        <v>-1.1242467641527222e-05</v>
+        <v>-1.1242467641527222E-5</v>
       </c>
       <c r="K25">
-        <v>4.1216974844612755e-05</v>
+        <v>4.1216974844612755E-5</v>
       </c>
       <c r="L25">
-        <v>1.7836731087212277e-05</v>
+        <v>1.7836731087212277E-5</v>
       </c>
       <c r="M25">
-        <v>9.0785775090072331e-06</v>
+        <v>9.0785775090072331E-6</v>
       </c>
       <c r="N25">
-        <v>2.3055072983105794e-05</v>
+        <v>2.3055072983105794E-5</v>
       </c>
       <c r="O25">
-        <v>-5.9054300137238929e-05</v>
+        <v>-5.9054300137238929E-5</v>
       </c>
       <c r="P25">
-        <v>3.1594869106669861e-05</v>
+        <v>3.1594869106669861E-5</v>
       </c>
       <c r="Q25">
-        <v>1.768354175508109e-05</v>
+        <v>1.768354175508109E-5</v>
       </c>
       <c r="R25">
-        <v>1.9550893671773506e-05</v>
+        <v>1.9550893671773506E-5</v>
       </c>
       <c r="S25">
-        <v>0.00017010121133049475</v>
+        <v>1.7010121133049475E-4</v>
       </c>
       <c r="T25">
-        <v>-4.098250420788525e-05</v>
+        <v>-4.098250420788525E-5</v>
       </c>
       <c r="U25">
-        <v>7.2307244565101763e-06</v>
+        <v>7.2307244565101763E-6</v>
       </c>
       <c r="V25">
-        <v>-2.0872426216330844e-05</v>
+        <v>-2.0872426216330844E-5</v>
       </c>
       <c r="W25">
-        <v>-3.2733428966463393e-06</v>
+        <v>-3.2733428966463393E-6</v>
       </c>
       <c r="X25">
-        <v>-1.6916891520273331e-05</v>
+        <v>-1.6916891520273331E-5</v>
       </c>
       <c r="Y25">
-        <v>-2.3377247564179982e-07</v>
+        <v>-2.3377247564179982E-7</v>
       </c>
       <c r="Z25">
-        <v>3.16568953716837e-05</v>
+        <v>3.16568953716837E-5</v>
       </c>
       <c r="AA25">
-        <v>-0.00013777048238211589</v>
+        <v>-1.3777048238211589E-4</v>
       </c>
       <c r="AB25">
-        <v>-0.0001566884554381298</v>
+        <v>-1.566884554381298E-4</v>
       </c>
       <c r="AC25">
-        <v>-0.00076094341698640638</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>-7.6094341698640638E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -2812,88 +5739,88 @@
         <v>0.26958787049740091</v>
       </c>
       <c r="C26">
-        <v>-4.9259695050036037e-05</v>
+        <v>-4.9259695050036037E-5</v>
       </c>
       <c r="D26">
-        <v>5.4942116022031653e-07</v>
+        <v>5.4942116022031653E-7</v>
       </c>
       <c r="E26">
-        <v>9.1980556900830325e-05</v>
+        <v>9.1980556900830325E-5</v>
       </c>
       <c r="F26">
-        <v>0.00039474743716472931</v>
+        <v>3.9474743716472931E-4</v>
       </c>
       <c r="G26">
-        <v>0.0003661733048269223</v>
+        <v>3.661733048269223E-4</v>
       </c>
       <c r="H26">
-        <v>0.00037728297854233673</v>
+        <v>3.7728297854233673E-4</v>
       </c>
       <c r="I26">
-        <v>-2.41785520749659e-06</v>
+        <v>-2.41785520749659E-6</v>
       </c>
       <c r="J26">
-        <v>-0.00026730556081683505</v>
+        <v>-2.6730556081683505E-4</v>
       </c>
       <c r="K26">
-        <v>-0.0010709235954296584</v>
+        <v>-1.0709235954296584E-3</v>
       </c>
       <c r="L26">
-        <v>-0.00063525137767381917</v>
+        <v>-6.3525137767381917E-4</v>
       </c>
       <c r="M26">
-        <v>-0.00072023990771320073</v>
+        <v>-7.2023990771320073E-4</v>
       </c>
       <c r="N26">
-        <v>-0.00094611015663131209</v>
+        <v>-9.4611015663131209E-4</v>
       </c>
       <c r="O26">
-        <v>0.00032276381591607938</v>
+        <v>3.2276381591607938E-4</v>
       </c>
       <c r="P26">
-        <v>-9.6966780673379111e-05</v>
+        <v>-9.6966780673379111E-5</v>
       </c>
       <c r="Q26">
-        <v>-0.00014323844702985623</v>
+        <v>-1.4323844702985623E-4</v>
       </c>
       <c r="R26">
-        <v>-0.00023529725315190003</v>
+        <v>-2.3529725315190003E-4</v>
       </c>
       <c r="S26">
-        <v>-0.0039361491439488658</v>
+        <v>-3.9361491439488657E-3</v>
       </c>
       <c r="T26">
-        <v>0.0005463347240770083</v>
+        <v>5.463347240770083E-4</v>
       </c>
       <c r="U26">
-        <v>-0.00015986069548154649</v>
+        <v>-1.5986069548154649E-4</v>
       </c>
       <c r="V26">
-        <v>-5.611906361368677e-05</v>
+        <v>-5.611906361368677E-5</v>
       </c>
       <c r="W26">
-        <v>-0.00018552715959157984</v>
+        <v>-1.8552715959157983E-4</v>
       </c>
       <c r="X26">
-        <v>-1.2006427280381358e-05</v>
+        <v>-1.2006427280381358E-5</v>
       </c>
       <c r="Y26">
-        <v>5.2106295382858071e-05</v>
+        <v>5.2106295382858071E-5</v>
       </c>
       <c r="Z26">
-        <v>-0.00013777048238211589</v>
+        <v>-1.3777048238211589E-4</v>
       </c>
       <c r="AA26">
-        <v>0.0044515431622188517</v>
+        <v>4.4515431622188517E-3</v>
       </c>
       <c r="AB26">
-        <v>0.0010996310963641257</v>
+        <v>1.0996310963641257E-3</v>
       </c>
       <c r="AC26">
-        <v>0.0086390692760521942</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>8.6390692760521942E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -2901,88 +5828,88 @@
         <v>0.37308094874197084</v>
       </c>
       <c r="C27">
-        <v>9.3305936423462334e-05</v>
+        <v>9.3305936423462334E-5</v>
       </c>
       <c r="D27">
-        <v>-1.626776353125573e-06</v>
+        <v>-1.626776353125573E-6</v>
       </c>
       <c r="E27">
-        <v>8.3514048548901255e-05</v>
+        <v>8.3514048548901255E-5</v>
       </c>
       <c r="F27">
-        <v>0.0004283654336193982</v>
+        <v>4.283654336193982E-4</v>
       </c>
       <c r="G27">
-        <v>0.00019375932009242777</v>
+        <v>1.9375932009242777E-4</v>
       </c>
       <c r="H27">
-        <v>0.00028374192130901942</v>
+        <v>2.8374192130901942E-4</v>
       </c>
       <c r="I27">
-        <v>-0.00014987247541096581</v>
+        <v>-1.4987247541096581E-4</v>
       </c>
       <c r="J27">
-        <v>-1.0189908231173618e-05</v>
+        <v>-1.0189908231173618E-5</v>
       </c>
       <c r="K27">
-        <v>-0.00031511416008016269</v>
+        <v>-3.1511416008016269E-4</v>
       </c>
       <c r="L27">
-        <v>-5.4796408552673648e-05</v>
+        <v>-5.4796408552673648E-5</v>
       </c>
       <c r="M27">
-        <v>-0.00020933975723966269</v>
+        <v>-2.0933975723966269E-4</v>
       </c>
       <c r="N27">
-        <v>-0.00034661140095855469</v>
+        <v>-3.4661140095855469E-4</v>
       </c>
       <c r="O27">
-        <v>-0.00012529107611121393</v>
+        <v>-1.2529107611121393E-4</v>
       </c>
       <c r="P27">
-        <v>-6.2989349903705676e-06</v>
+        <v>-6.2989349903705676E-6</v>
       </c>
       <c r="Q27">
-        <v>-5.6475426834193916e-05</v>
+        <v>-5.6475426834193916E-5</v>
       </c>
       <c r="R27">
-        <v>-0.00014313633124585657</v>
+        <v>-1.4313633124585657E-4</v>
       </c>
       <c r="S27">
-        <v>0.00017463050996927368</v>
+        <v>1.7463050996927368E-4</v>
       </c>
       <c r="T27">
-        <v>0.00037559696354284335</v>
+        <v>3.7559696354284335E-4</v>
       </c>
       <c r="U27">
-        <v>-3.5952068318148892e-05</v>
+        <v>-3.5952068318148892E-5</v>
       </c>
       <c r="V27">
-        <v>0.00020046640641630906</v>
+        <v>2.0046640641630906E-4</v>
       </c>
       <c r="W27">
-        <v>-8.5405266374358456e-05</v>
+        <v>-8.5405266374358456E-5</v>
       </c>
       <c r="X27">
-        <v>-9.4915709889197171e-05</v>
+        <v>-9.4915709889197171E-5</v>
       </c>
       <c r="Y27">
-        <v>-7.1458161354253031e-05</v>
+        <v>-7.1458161354253031E-5</v>
       </c>
       <c r="Z27">
-        <v>-0.0001566884554381298</v>
+        <v>-1.566884554381298E-4</v>
       </c>
       <c r="AA27">
-        <v>0.0010996310963641257</v>
+        <v>1.0996310963641257E-3</v>
       </c>
       <c r="AB27">
-        <v>0.0042820648918234219</v>
+        <v>4.2820648918234219E-3</v>
       </c>
       <c r="AC27">
-        <v>0.0007145566749184643</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>7.145566749184643E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -2990,28 +5917,28 @@
         <v>-6.4629030625152604</v>
       </c>
       <c r="C28">
-        <v>-0.02658182178229368</v>
+        <v>-2.658182178229368E-2</v>
       </c>
       <c r="D28">
-        <v>0.00039304618261240803</v>
+        <v>3.9304618261240803E-4</v>
       </c>
       <c r="E28">
-        <v>-0.030877821174537509</v>
+        <v>-3.0877821174537509E-2</v>
       </c>
       <c r="F28">
-        <v>-0.0089288239166508548</v>
+        <v>-8.9288239166508548E-3</v>
       </c>
       <c r="G28">
-        <v>-0.007986967509261228</v>
+        <v>-7.986967509261228E-3</v>
       </c>
       <c r="H28">
-        <v>-0.011161128954004812</v>
+        <v>-1.1161128954004812E-2</v>
       </c>
       <c r="I28">
-        <v>0.003215871336791366</v>
+        <v>3.215871336791366E-3</v>
       </c>
       <c r="J28">
-        <v>-0.0015769681521848925</v>
+        <v>-1.5769681521848925E-3</v>
       </c>
       <c r="K28">
         <v>-0.14082185776189116</v>
@@ -3026,51 +5953,52 @@
         <v>-0.14155238418697369</v>
       </c>
       <c r="O28">
-        <v>-0.010260595912764597</v>
+        <v>-1.0260595912764597E-2</v>
       </c>
       <c r="P28">
-        <v>-0.0048720707954054039</v>
+        <v>-4.8720707954054039E-3</v>
       </c>
       <c r="Q28">
-        <v>-0.0065193623063989417</v>
+        <v>-6.5193623063989417E-3</v>
       </c>
       <c r="R28">
-        <v>-0.019487468604409211</v>
+        <v>-1.9487468604409211E-2</v>
       </c>
       <c r="S28">
         <v>-0.12437092013677398</v>
       </c>
       <c r="T28">
-        <v>-0.0095194506122060207</v>
+        <v>-9.5194506122060207E-3</v>
       </c>
       <c r="U28">
-        <v>-0.0037270062534334805</v>
+        <v>-3.7270062534334805E-3</v>
       </c>
       <c r="V28">
-        <v>0.0020348979392264604</v>
+        <v>2.0348979392264604E-3</v>
       </c>
       <c r="W28">
-        <v>0.00036143152105537479</v>
+        <v>3.6143152105537479E-4</v>
       </c>
       <c r="X28">
-        <v>0.003227778237769049</v>
+        <v>3.227778237769049E-3</v>
       </c>
       <c r="Y28">
-        <v>-0.0005913633868820066</v>
+        <v>-5.913633868820066E-4</v>
       </c>
       <c r="Z28">
-        <v>-0.00076094341698640638</v>
+        <v>-7.6094341698640638E-4</v>
       </c>
       <c r="AA28">
-        <v>0.0086390692760521942</v>
+        <v>8.6390692760521942E-3</v>
       </c>
       <c r="AB28">
-        <v>0.0007145566749184643</v>
+        <v>7.145566749184643E-4</v>
       </c>
       <c r="AC28">
         <v>0.77201443948247361</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/input/PL/reg_fertility.xlsx
+++ b/input/PL/reg_fertility.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_ADF0D6C6CF0DE8E40BDFC10D5CDE1E524732AB14" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0C6DA75-EE58-4106-8F13-E09138121C7F}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://essexuniversity-my.sharepoint.com/personal/mv25449_essex_ac_uk/Documents/WorkCEMPA/SimPathsEU/InitPopAfterFEB/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_ADF0D6C6CF0DE8E40BDFC10D5CDE1E524732AB14" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{251A90EC-3812-BD44-821C-2D9006A923F7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="1720" windowWidth="40920" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>Description:</t>
   </si>
@@ -183,16 +188,13 @@
   </si>
   <si>
     <t>Constant</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -201,6 +203,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -233,7 +236,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -252,9 +255,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -292,7 +295,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -398,7 +401,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -540,7 +543,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -550,13 +553,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,7 +567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -572,7 +575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -580,7 +583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -588,7 +591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -596,7 +599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -615,19 +618,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -641,7 +644,7 @@
         <v>880.88277158542928</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -662,13 +665,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AH32"/>
+  <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2:AH32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -768,11 +776,8 @@
       <c r="AG1" t="s">
         <v>49</v>
       </c>
-      <c r="AH1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -873,7 +878,7 @@
         <v>-0.12007305966023735</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -974,7 +979,7 @@
         <v>-1.6221972031852681E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1075,7 +1080,7 @@
         <v>2.4542664288506265E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1176,7 +1181,7 @@
         <v>-5.323961565287208E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1277,7 +1282,7 @@
         <v>-5.4724013456096426E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1378,7 +1383,7 @@
         <v>-5.3169383387467961E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1479,7 +1484,7 @@
         <v>-5.4686469224352441E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1580,7 +1585,7 @@
         <v>1.5011209290355255E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1681,7 +1686,7 @@
         <v>-1.8646765188052444E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1782,7 +1787,7 @@
         <v>4.8164504533317505E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1883,7 +1888,7 @@
         <v>-4.2443610844978413E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1984,7 +1989,7 @@
         <v>8.8190650185541938E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -2085,7 +2090,7 @@
         <v>6.239618202320287E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -2186,7 +2191,7 @@
         <v>-5.7862280932161024E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -2287,7 +2292,7 @@
         <v>3.9468702840145019E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -2388,7 +2393,7 @@
         <v>6.9718245858032173E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -2489,7 +2494,7 @@
         <v>5.363633307181411E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -2590,7 +2595,7 @@
         <v>2.3693755017090397E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -2691,7 +2696,7 @@
         <v>-1.8062685375770117E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -2792,7 +2797,7 @@
         <v>-1.1220927820928447E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -2893,7 +2898,7 @@
         <v>1.8102777257880511E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -2994,7 +2999,7 @@
         <v>-1.7868697625494194E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -3095,7 +3100,7 @@
         <v>-1.1399493218787818E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -3196,7 +3201,7 @@
         <v>-9.6932421706083776E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -3297,7 +3302,7 @@
         <v>-1.3105055617364691E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -3398,7 +3403,7 @@
         <v>4.0115686920110839E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -3499,7 +3504,7 @@
         <v>1.4463757393238237E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -3600,7 +3605,7 @@
         <v>7.2499743869779186E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -3701,7 +3706,7 @@
         <v>5.5538895348403988E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -3802,7 +3807,7 @@
         <v>2.6649139326351007E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>49</v>
       </c>
